--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC Cinema - REG.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC Cinema - REG.xlsx
@@ -14,6 +14,7 @@
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Cinema!$A$1:$AM$54</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">Cinema!$A$1:$AM$54</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Cinema!$A$1:$AM$54</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Cinema!$A$1:$AM$54</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="243">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -432,9 +433,6 @@
   </si>
   <si>
     <t xml:space="preserve">RD38010022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QSR</t>
   </si>
   <si>
     <t xml:space="preserve">Coolers</t>
@@ -1076,54 +1074,54 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:55"/>
+  <dimension ref="1:65536"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F43" activeCellId="0" sqref="F43"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="14.6761133603239"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="14.5668016194332"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="15.1052631578947"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="14.7813765182186"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="14.6761133603239"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="15.2105263157895"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="89.8744939271255"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="82.587044534413"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="44.9919028340081"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="90.7287449392713"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="83.2307692307692"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="45.417004048583"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="19.8178137651822"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="2" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="17.246963562753"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="17.7813765182186"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="90.1943319838057"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="254.408906882591"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="13.0688259109312"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="21.8542510121457"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="14.4615384615385"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="17.3522267206478"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="91.0526315789474"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="256.765182186235"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="22.0647773279352"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="14.5668016194332"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="1" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="18.2105263157895"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="20.4615384615385"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="24.7449392712551"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="24.1012145748988"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="25.1740890688259"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="27.3157894736842"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="27.8502024291498"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="19.4939271255061"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="17.5668016194332"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="18.2105263157895"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="17.0323886639676"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="24.9595141700405"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="24.3157894736842"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="25.3886639676113"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="27.5303643724696"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="28.0647773279352"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="17.6761133603239"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="17.1376518218624"/>
     <col collapsed="false" hidden="false" max="32" min="32" style="1" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="17.246963562753"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="67.7004048582996"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="17.3522267206478"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="68.2348178137652"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="24.1012145748988"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="1" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="12.9595141700405"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="14.6761133603239"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="14.7813765182186"/>
     <col collapsed="false" hidden="false" max="39" min="39" style="1" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="1025" min="40" style="3" width="9.10526315789474"/>
   </cols>
@@ -27073,17 +27071,17 @@
         <v>126</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>127</v>
+        <v>40</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>41</v>
       </c>
       <c r="E30" s="8"/>
       <c r="F30" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="G30" s="9" t="s">
         <v>128</v>
-      </c>
-      <c r="G30" s="9" t="s">
-        <v>129</v>
       </c>
       <c r="H30" s="9" t="s">
         <v>41</v>
@@ -27122,7 +27120,7 @@
         <v>310</v>
       </c>
       <c r="AL30" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AM30" s="8"/>
       <c r="AN30" s="0"/>
@@ -28119,17 +28117,17 @@
         <v>126</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>127</v>
+        <v>40</v>
       </c>
       <c r="D31" s="8" t="s">
         <v>41</v>
       </c>
       <c r="E31" s="8"/>
       <c r="F31" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="G31" s="9" t="s">
         <v>131</v>
-      </c>
-      <c r="G31" s="9" t="s">
-        <v>132</v>
       </c>
       <c r="H31" s="9" t="s">
         <v>41</v>
@@ -29167,22 +29165,22 @@
         <v>126</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>127</v>
+        <v>40</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>41</v>
       </c>
       <c r="E32" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="F32" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="F32" s="8" t="s">
+      <c r="G32" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="G32" s="8" t="s">
+      <c r="H32" s="8" t="s">
         <v>135</v>
-      </c>
-      <c r="H32" s="8" t="s">
-        <v>136</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
@@ -29193,7 +29191,7 @@
       <c r="O32" s="13"/>
       <c r="P32" s="13"/>
       <c r="Q32" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="R32" s="8"/>
       <c r="S32" s="8"/>
@@ -29207,10 +29205,10 @@
       <c r="AA32" s="8"/>
       <c r="AB32" s="8"/>
       <c r="AC32" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="AD32" s="8" t="s">
         <v>138</v>
-      </c>
-      <c r="AD32" s="8" t="s">
-        <v>139</v>
       </c>
       <c r="AE32" s="11" t="n">
         <v>0.08</v>
@@ -29218,7 +29216,7 @@
       <c r="AF32" s="8"/>
       <c r="AG32" s="8"/>
       <c r="AH32" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AI32" s="8"/>
       <c r="AJ32" s="8" t="n">
@@ -29228,7 +29226,7 @@
         <v>26</v>
       </c>
       <c r="AL32" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AM32" s="8" t="n">
         <v>311</v>
@@ -30227,22 +30225,22 @@
         <v>126</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>127</v>
+        <v>40</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>41</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F33" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="G33" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="G33" s="8" t="s">
+      <c r="H33" s="8" t="s">
         <v>143</v>
-      </c>
-      <c r="H33" s="8" t="s">
-        <v>144</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8" t="n">
@@ -30251,23 +30249,23 @@
       <c r="K33" s="8"/>
       <c r="L33" s="8"/>
       <c r="M33" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="N33" s="13" t="s">
         <v>145</v>
-      </c>
-      <c r="N33" s="13" t="s">
-        <v>146</v>
       </c>
       <c r="O33" s="13"/>
       <c r="P33" s="13"/>
       <c r="Q33" s="8"/>
       <c r="R33" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="S33" s="8"/>
       <c r="T33" s="8"/>
       <c r="U33" s="8"/>
       <c r="V33" s="8"/>
       <c r="W33" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="X33" s="8"/>
       <c r="Y33" s="8"/>
@@ -30275,7 +30273,7 @@
       <c r="AA33" s="8"/>
       <c r="AB33" s="8"/>
       <c r="AC33" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AD33" s="8" t="s">
         <v>58</v>
@@ -30284,7 +30282,7 @@
       <c r="AF33" s="8"/>
       <c r="AG33" s="8"/>
       <c r="AH33" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AI33" s="8"/>
       <c r="AJ33" s="8" t="n">
@@ -31291,22 +31289,22 @@
         <v>126</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>127</v>
+        <v>40</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>41</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F34" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="G34" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="G34" s="8" t="s">
+      <c r="H34" s="8" t="s">
         <v>151</v>
-      </c>
-      <c r="H34" s="8" t="s">
-        <v>152</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8" t="n">
@@ -31315,23 +31313,23 @@
       <c r="K34" s="8"/>
       <c r="L34" s="8"/>
       <c r="M34" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="N34" s="13" t="s">
         <v>145</v>
-      </c>
-      <c r="N34" s="13" t="s">
-        <v>146</v>
       </c>
       <c r="O34" s="13"/>
       <c r="P34" s="13"/>
       <c r="Q34" s="8"/>
       <c r="R34" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="S34" s="8"/>
       <c r="T34" s="8"/>
       <c r="U34" s="8"/>
       <c r="V34" s="8"/>
       <c r="W34" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="X34" s="8"/>
       <c r="Y34" s="8"/>
@@ -31339,7 +31337,7 @@
       <c r="AA34" s="8"/>
       <c r="AB34" s="8"/>
       <c r="AC34" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AD34" s="8" t="s">
         <v>58</v>
@@ -32353,17 +32351,17 @@
         <v>126</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>127</v>
+        <v>40</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>41</v>
       </c>
       <c r="E35" s="8"/>
       <c r="F35" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="G35" s="9" t="s">
         <v>154</v>
-      </c>
-      <c r="G35" s="9" t="s">
-        <v>155</v>
       </c>
       <c r="H35" s="9" t="s">
         <v>41</v>
@@ -32402,7 +32400,7 @@
         <v>312</v>
       </c>
       <c r="AL35" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AM35" s="8" t="n">
         <v>310</v>
@@ -33401,22 +33399,22 @@
         <v>126</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>127</v>
+        <v>40</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>41</v>
       </c>
       <c r="E36" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F36" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="F36" s="8" t="s">
+      <c r="G36" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="G36" s="8" t="s">
+      <c r="H36" s="8" t="s">
         <v>159</v>
-      </c>
-      <c r="H36" s="8" t="s">
-        <v>160</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8" t="n">
@@ -33426,13 +33424,13 @@
       <c r="L36" s="8"/>
       <c r="M36" s="8"/>
       <c r="N36" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O36" s="13"/>
       <c r="P36" s="13"/>
       <c r="Q36" s="8"/>
       <c r="R36" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="S36" s="8"/>
       <c r="T36" s="8"/>
@@ -33442,14 +33440,14 @@
         <v>56</v>
       </c>
       <c r="X36" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Y36" s="8"/>
       <c r="Z36" s="8"/>
       <c r="AA36" s="8"/>
       <c r="AB36" s="8"/>
       <c r="AC36" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AD36" s="8" t="s">
         <v>58</v>
@@ -33460,10 +33458,10 @@
       <c r="AF36" s="8"/>
       <c r="AG36" s="8"/>
       <c r="AH36" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AI36" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AJ36" s="8" t="n">
         <v>2</v>
@@ -34469,22 +34467,22 @@
         <v>126</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>127</v>
+        <v>40</v>
       </c>
       <c r="D37" s="8" t="s">
         <v>41</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F37" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="G37" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="G37" s="8" t="s">
+      <c r="H37" s="8" t="s">
         <v>165</v>
-      </c>
-      <c r="H37" s="8" t="s">
-        <v>166</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8" t="n">
@@ -34493,23 +34491,23 @@
       <c r="K37" s="8"/>
       <c r="L37" s="8"/>
       <c r="M37" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="N37" s="13" t="s">
         <v>145</v>
-      </c>
-      <c r="N37" s="13" t="s">
-        <v>146</v>
       </c>
       <c r="O37" s="13"/>
       <c r="P37" s="13"/>
       <c r="Q37" s="8"/>
       <c r="R37" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="S37" s="8"/>
       <c r="T37" s="8"/>
       <c r="U37" s="8"/>
       <c r="V37" s="8"/>
       <c r="W37" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="X37" s="8"/>
       <c r="Y37" s="8"/>
@@ -34517,10 +34515,10 @@
       <c r="AA37" s="8"/>
       <c r="AB37" s="8"/>
       <c r="AC37" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="AD37" s="8" t="s">
         <v>138</v>
-      </c>
-      <c r="AD37" s="8" t="s">
-        <v>139</v>
       </c>
       <c r="AE37" s="11" t="n">
         <v>0.04</v>
@@ -34528,10 +34526,10 @@
       <c r="AF37" s="8"/>
       <c r="AG37" s="8"/>
       <c r="AH37" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AI37" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AJ37" s="8" t="n">
         <v>2</v>
@@ -35537,22 +35535,22 @@
         <v>126</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>127</v>
+        <v>40</v>
       </c>
       <c r="D38" s="8" t="s">
         <v>41</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F38" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="G38" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="G38" s="8" t="s">
+      <c r="H38" s="8" t="s">
         <v>169</v>
-      </c>
-      <c r="H38" s="8" t="s">
-        <v>170</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
@@ -35563,23 +35561,23 @@
         <v>15</v>
       </c>
       <c r="M38" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="N38" s="13" t="s">
         <v>145</v>
-      </c>
-      <c r="N38" s="13" t="s">
-        <v>146</v>
       </c>
       <c r="O38" s="13"/>
       <c r="P38" s="13"/>
       <c r="Q38" s="8"/>
       <c r="R38" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="S38" s="8"/>
       <c r="T38" s="8"/>
       <c r="U38" s="8"/>
       <c r="V38" s="8"/>
       <c r="W38" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="X38" s="8"/>
       <c r="Y38" s="8"/>
@@ -35587,7 +35585,7 @@
       <c r="AA38" s="8"/>
       <c r="AB38" s="8"/>
       <c r="AC38" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AD38" s="8" t="s">
         <v>58</v>
@@ -35598,10 +35596,10 @@
       <c r="AF38" s="8"/>
       <c r="AG38" s="8"/>
       <c r="AH38" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AI38" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AJ38" s="8" t="n">
         <v>2</v>
@@ -36607,17 +36605,17 @@
         <v>126</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>127</v>
+        <v>40</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>41</v>
       </c>
       <c r="E39" s="8"/>
       <c r="F39" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="G39" s="9" t="s">
         <v>171</v>
-      </c>
-      <c r="G39" s="9" t="s">
-        <v>172</v>
       </c>
       <c r="H39" s="9" t="s">
         <v>41</v>
@@ -36656,7 +36654,7 @@
         <v>400</v>
       </c>
       <c r="AL39" s="14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AM39" s="8"/>
       <c r="AN39" s="0"/>
@@ -37653,19 +37651,19 @@
         <v>126</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>127</v>
+        <v>40</v>
       </c>
       <c r="D40" s="8" t="s">
         <v>41</v>
       </c>
       <c r="E40" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="F40" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="F40" s="8" t="s">
+      <c r="G40" s="8" t="s">
         <v>175</v>
-      </c>
-      <c r="G40" s="8" t="s">
-        <v>176</v>
       </c>
       <c r="H40" s="8" t="s">
         <v>53</v>
@@ -37677,10 +37675,10 @@
       <c r="K40" s="8"/>
       <c r="L40" s="8"/>
       <c r="M40" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="N40" s="8" t="s">
         <v>145</v>
-      </c>
-      <c r="N40" s="8" t="s">
-        <v>146</v>
       </c>
       <c r="O40" s="8"/>
       <c r="P40" s="8"/>
@@ -37688,24 +37686,24 @@
         <v>54</v>
       </c>
       <c r="R40" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="S40" s="8"/>
       <c r="T40" s="8"/>
       <c r="U40" s="8"/>
       <c r="V40" s="8"/>
       <c r="W40" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="X40" s="8" t="s">
         <v>177</v>
-      </c>
-      <c r="X40" s="8" t="s">
-        <v>178</v>
       </c>
       <c r="Y40" s="8"/>
       <c r="Z40" s="8"/>
       <c r="AA40" s="8"/>
       <c r="AB40" s="8"/>
       <c r="AC40" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AD40" s="8" t="s">
         <v>58</v>
@@ -38721,22 +38719,22 @@
         <v>126</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>127</v>
+        <v>40</v>
       </c>
       <c r="D41" s="8" t="s">
         <v>41</v>
       </c>
       <c r="E41" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="F41" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="F41" s="8" t="s">
+      <c r="G41" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="G41" s="8" t="s">
+      <c r="H41" s="8" t="s">
         <v>181</v>
-      </c>
-      <c r="H41" s="8" t="s">
-        <v>182</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8" t="n">
@@ -38749,7 +38747,7 @@
       <c r="O41" s="8"/>
       <c r="P41" s="8"/>
       <c r="Q41" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="R41" s="8"/>
       <c r="S41" s="8"/>
@@ -38757,17 +38755,17 @@
       <c r="U41" s="8"/>
       <c r="V41" s="8"/>
       <c r="W41" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="X41" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="Y41" s="8"/>
       <c r="Z41" s="8"/>
       <c r="AA41" s="8"/>
       <c r="AB41" s="8"/>
       <c r="AC41" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AD41" s="8" t="s">
         <v>58</v>
@@ -38786,7 +38784,7 @@
         <v>34</v>
       </c>
       <c r="AL41" s="14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AM41" s="8" t="n">
         <v>400</v>
@@ -39785,19 +39783,19 @@
         <v>126</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>127</v>
+        <v>40</v>
       </c>
       <c r="D42" s="8" t="s">
         <v>41</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F42" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="G42" s="8" t="s">
         <v>186</v>
-      </c>
-      <c r="G42" s="8" t="s">
-        <v>187</v>
       </c>
       <c r="H42" s="8" t="s">
         <v>53</v>
@@ -39809,10 +39807,10 @@
       <c r="K42" s="8"/>
       <c r="L42" s="8"/>
       <c r="M42" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="N42" s="8" t="s">
         <v>188</v>
-      </c>
-      <c r="N42" s="8" t="s">
-        <v>189</v>
       </c>
       <c r="O42" s="8"/>
       <c r="P42" s="8"/>
@@ -39827,17 +39825,17 @@
       <c r="U42" s="8"/>
       <c r="V42" s="8"/>
       <c r="W42" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="X42" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="Y42" s="8"/>
       <c r="Z42" s="8"/>
       <c r="AA42" s="8"/>
       <c r="AB42" s="8"/>
       <c r="AC42" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AD42" s="8" t="s">
         <v>58</v>
@@ -40851,22 +40849,22 @@
         <v>126</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>127</v>
+        <v>40</v>
       </c>
       <c r="D43" s="8" t="s">
         <v>41</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F43" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="G43" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="G43" s="8" t="s">
+      <c r="H43" s="8" t="s">
         <v>191</v>
-      </c>
-      <c r="H43" s="8" t="s">
-        <v>192</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8" t="n">
@@ -40875,13 +40873,13 @@
       <c r="K43" s="8"/>
       <c r="L43" s="8"/>
       <c r="M43" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="N43" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="N43" s="8" t="s">
+      <c r="O43" s="8" t="s">
         <v>194</v>
-      </c>
-      <c r="O43" s="8" t="s">
-        <v>195</v>
       </c>
       <c r="P43" s="8"/>
       <c r="Q43" s="8" t="s">
@@ -40895,17 +40893,17 @@
       <c r="U43" s="8"/>
       <c r="V43" s="8"/>
       <c r="W43" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="X43" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="Y43" s="8"/>
       <c r="Z43" s="8"/>
       <c r="AA43" s="8"/>
       <c r="AB43" s="8"/>
       <c r="AC43" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AD43" s="8" t="s">
         <v>58</v>
@@ -40914,7 +40912,7 @@
       <c r="AF43" s="8"/>
       <c r="AG43" s="8"/>
       <c r="AH43" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AI43" s="8"/>
       <c r="AJ43" s="8" t="n">
@@ -41921,22 +41919,22 @@
         <v>126</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>127</v>
+        <v>40</v>
       </c>
       <c r="D44" s="8" t="s">
         <v>41</v>
       </c>
       <c r="E44" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="F44" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="F44" s="8" t="s">
+      <c r="G44" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="G44" s="8" t="s">
-        <v>199</v>
-      </c>
       <c r="H44" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8" t="n">
@@ -41949,7 +41947,7 @@
       <c r="O44" s="8"/>
       <c r="P44" s="13"/>
       <c r="Q44" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="R44" s="8"/>
       <c r="S44" s="8"/>
@@ -41957,10 +41955,10 @@
       <c r="U44" s="8"/>
       <c r="V44" s="8"/>
       <c r="W44" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="X44" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="Y44" s="8"/>
       <c r="Z44" s="8"/>
@@ -41998,22 +41996,22 @@
         <v>126</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>127</v>
+        <v>40</v>
       </c>
       <c r="D45" s="8" t="s">
         <v>41</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F45" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="G45" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="G45" s="8" t="s">
+      <c r="H45" s="8" t="s">
         <v>201</v>
-      </c>
-      <c r="H45" s="8" t="s">
-        <v>202</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8" t="n">
@@ -42026,7 +42024,7 @@
       <c r="O45" s="13"/>
       <c r="P45" s="8"/>
       <c r="Q45" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="R45" s="8"/>
       <c r="S45" s="8"/>
@@ -42034,17 +42032,17 @@
       <c r="U45" s="8"/>
       <c r="V45" s="8"/>
       <c r="W45" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="X45" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="Y45" s="8"/>
       <c r="Z45" s="8"/>
       <c r="AA45" s="8"/>
       <c r="AB45" s="8"/>
       <c r="AC45" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AD45" s="8" t="s">
         <v>58</v>
@@ -42061,7 +42059,7 @@
         <v>769</v>
       </c>
       <c r="AL45" s="14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AM45" s="8" t="n">
         <v>680</v>
@@ -42075,19 +42073,19 @@
         <v>126</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>127</v>
+        <v>40</v>
       </c>
       <c r="D46" s="8" t="s">
         <v>41</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F46" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="G46" s="8" t="s">
         <v>204</v>
-      </c>
-      <c r="G46" s="8" t="s">
-        <v>205</v>
       </c>
       <c r="H46" s="8" t="s">
         <v>53</v>
@@ -42099,35 +42097,35 @@
       <c r="K46" s="8"/>
       <c r="L46" s="8"/>
       <c r="M46" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="N46" s="8"/>
       <c r="O46" s="8"/>
       <c r="P46" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="Q46" s="8" t="s">
         <v>54</v>
       </c>
       <c r="R46" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="S46" s="8"/>
       <c r="T46" s="8"/>
       <c r="U46" s="8"/>
       <c r="V46" s="8"/>
       <c r="W46" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="X46" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="Y46" s="8"/>
       <c r="Z46" s="8"/>
       <c r="AA46" s="8"/>
       <c r="AB46" s="8"/>
       <c r="AC46" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AD46" s="8" t="s">
         <v>58</v>
@@ -42156,22 +42154,22 @@
         <v>126</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>127</v>
+        <v>40</v>
       </c>
       <c r="D47" s="8" t="s">
         <v>41</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F47" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="G47" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="G47" s="8" t="s">
-        <v>209</v>
-      </c>
       <c r="H47" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8" t="n">
@@ -42180,13 +42178,13 @@
       <c r="K47" s="8"/>
       <c r="L47" s="8"/>
       <c r="M47" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="N47" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="N47" s="8" t="s">
+      <c r="O47" s="8" t="s">
         <v>194</v>
-      </c>
-      <c r="O47" s="8" t="s">
-        <v>195</v>
       </c>
       <c r="P47" s="8"/>
       <c r="Q47" s="8" t="s">
@@ -42200,17 +42198,17 @@
       <c r="U47" s="8"/>
       <c r="V47" s="8"/>
       <c r="W47" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="X47" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="Y47" s="8"/>
       <c r="Z47" s="8"/>
       <c r="AA47" s="8"/>
       <c r="AB47" s="8"/>
       <c r="AC47" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AD47" s="8" t="s">
         <v>58</v>
@@ -42219,7 +42217,7 @@
       <c r="AF47" s="8"/>
       <c r="AG47" s="8"/>
       <c r="AH47" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AI47" s="8"/>
       <c r="AJ47" s="8" t="n">
@@ -42241,25 +42239,25 @@
         <v>126</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>127</v>
+        <v>40</v>
       </c>
       <c r="D48" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="E48" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="E48" s="20" t="s">
+      <c r="F48" s="20" t="s">
         <v>211</v>
       </c>
-      <c r="F48" s="20" t="s">
+      <c r="G48" s="20" t="s">
         <v>212</v>
       </c>
-      <c r="G48" s="20" t="s">
+      <c r="H48" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="H48" s="8" t="s">
+      <c r="I48" s="8" t="s">
         <v>214</v>
-      </c>
-      <c r="I48" s="8" t="s">
-        <v>215</v>
       </c>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
@@ -42270,7 +42268,7 @@
       <c r="P48" s="8"/>
       <c r="Q48" s="8"/>
       <c r="R48" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="S48" s="8"/>
       <c r="T48" s="8"/>
@@ -42294,7 +42292,7 @@
         <v>37</v>
       </c>
       <c r="AL48" s="14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AM48" s="8"/>
     </row>
@@ -42306,38 +42304,38 @@
         <v>126</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>127</v>
+        <v>40</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E49" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="F49" s="20" t="s">
         <v>218</v>
       </c>
-      <c r="F49" s="20" t="s">
+      <c r="G49" s="20" t="s">
         <v>219</v>
       </c>
-      <c r="G49" s="20" t="s">
+      <c r="H49" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="H49" s="8" t="s">
+      <c r="I49" s="8" t="s">
         <v>221</v>
-      </c>
-      <c r="I49" s="8" t="s">
-        <v>222</v>
       </c>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="8"/>
       <c r="M49" s="8"/>
       <c r="N49" s="14" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O49" s="8"/>
       <c r="P49" s="8"/>
       <c r="Q49" s="8"/>
       <c r="R49" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="S49" s="8"/>
       <c r="T49" s="8"/>
@@ -42373,38 +42371,38 @@
         <v>126</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>127</v>
+        <v>40</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E50" s="20" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F50" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="G50" s="20" t="s">
         <v>224</v>
       </c>
-      <c r="G50" s="20" t="s">
-        <v>225</v>
-      </c>
       <c r="H50" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="I50" s="8" t="s">
         <v>221</v>
-      </c>
-      <c r="I50" s="8" t="s">
-        <v>222</v>
       </c>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="8"/>
       <c r="M50" s="8"/>
       <c r="N50" s="14" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O50" s="8"/>
       <c r="P50" s="8"/>
       <c r="Q50" s="8"/>
       <c r="R50" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="S50" s="8"/>
       <c r="T50" s="8"/>
@@ -42440,40 +42438,40 @@
         <v>126</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>127</v>
+        <v>40</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E51" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="F51" s="20" t="s">
         <v>227</v>
       </c>
-      <c r="F51" s="20" t="s">
-        <v>228</v>
-      </c>
       <c r="G51" s="20" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H51" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="I51" s="8" t="s">
         <v>221</v>
-      </c>
-      <c r="I51" s="8" t="s">
-        <v>222</v>
       </c>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="8"/>
       <c r="M51" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="N51" s="14" t="s">
         <v>229</v>
-      </c>
-      <c r="N51" s="14" t="s">
-        <v>230</v>
       </c>
       <c r="O51" s="8"/>
       <c r="P51" s="8"/>
       <c r="Q51" s="8"/>
       <c r="R51" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="S51" s="8"/>
       <c r="T51" s="8"/>
@@ -42509,40 +42507,40 @@
         <v>126</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>127</v>
+        <v>40</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F52" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="G52" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="G52" s="20" t="s">
-        <v>232</v>
-      </c>
       <c r="H52" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="I52" s="8" t="s">
         <v>221</v>
-      </c>
-      <c r="I52" s="8" t="s">
-        <v>222</v>
       </c>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="8"/>
       <c r="M52" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="N52" s="14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="O52" s="8"/>
       <c r="P52" s="8"/>
       <c r="Q52" s="8"/>
       <c r="R52" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="S52" s="8"/>
       <c r="T52" s="8"/>
@@ -42566,7 +42564,7 @@
         <v>42</v>
       </c>
       <c r="AL52" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AM52" s="8"/>
     </row>
@@ -42578,45 +42576,45 @@
         <v>126</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>127</v>
+        <v>40</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E53" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="F53" s="20" t="s">
         <v>235</v>
       </c>
-      <c r="F53" s="20" t="s">
+      <c r="G53" s="20" t="s">
         <v>236</v>
       </c>
-      <c r="G53" s="20" t="s">
+      <c r="H53" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="H53" s="8" t="s">
-        <v>238</v>
-      </c>
       <c r="I53" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J53" s="10"/>
       <c r="K53" s="10"/>
       <c r="L53" s="10"/>
       <c r="M53" s="8"/>
       <c r="N53" s="22" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="O53" s="8"/>
       <c r="P53" s="8"/>
       <c r="Q53" s="8"/>
       <c r="R53" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="S53" s="8"/>
       <c r="T53" s="8"/>
       <c r="U53" s="8"/>
       <c r="V53" s="8"/>
       <c r="W53" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="X53" s="14"/>
       <c r="Y53" s="8"/>
@@ -42645,23 +42643,23 @@
         <v>126</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>127</v>
+        <v>40</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E54" s="20"/>
       <c r="F54" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="G54" s="20" t="s">
         <v>241</v>
       </c>
-      <c r="G54" s="20" t="s">
+      <c r="H54" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="I54" s="8" t="s">
         <v>242</v>
-      </c>
-      <c r="H54" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="I54" s="8" t="s">
-        <v>243</v>
       </c>
       <c r="J54" s="10"/>
       <c r="K54" s="10"/>
@@ -42672,7 +42670,7 @@
       <c r="P54" s="8"/>
       <c r="Q54" s="8"/>
       <c r="R54" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="S54" s="8"/>
       <c r="T54" s="8"/>
@@ -42698,47 +42696,7 @@
       <c r="AL54" s="8"/>
       <c r="AM54" s="8"/>
     </row>
-    <row r="55" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="8"/>
-      <c r="B55" s="8"/>
-      <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="8"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="8"/>
-      <c r="I55" s="8"/>
-      <c r="J55" s="10"/>
-      <c r="K55" s="10"/>
-      <c r="L55" s="10"/>
-      <c r="M55" s="8"/>
-      <c r="N55" s="13"/>
-      <c r="O55" s="13"/>
-      <c r="P55" s="13"/>
-      <c r="Q55" s="8"/>
-      <c r="R55" s="8"/>
-      <c r="S55" s="16"/>
-      <c r="T55" s="8"/>
-      <c r="U55" s="8"/>
-      <c r="V55" s="8"/>
-      <c r="W55" s="8"/>
-      <c r="X55" s="8"/>
-      <c r="Y55" s="8"/>
-      <c r="Z55" s="8"/>
-      <c r="AA55" s="8"/>
-      <c r="AB55" s="8"/>
-      <c r="AC55" s="8"/>
-      <c r="AD55" s="8"/>
-      <c r="AE55" s="17"/>
-      <c r="AF55" s="8"/>
-      <c r="AG55" s="8"/>
-      <c r="AH55" s="8"/>
-      <c r="AI55" s="8"/>
-      <c r="AJ55" s="8"/>
-      <c r="AK55" s="8"/>
-      <c r="AL55" s="8"/>
-      <c r="AM55" s="8"/>
-    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <autoFilter ref="A1:AM54"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC Cinema - REG.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC Cinema - REG.xlsx
@@ -15,6 +15,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">Cinema!$A$1:$AM$54</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Cinema!$A$1:$AM$54</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Cinema!$A$1:$AM$54</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Cinema!$A$1:$AM$54</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="243">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -1076,52 +1077,51 @@
   </sheetPr>
   <dimension ref="1:65536"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
+      <selection pane="bottomLeft" activeCell="N49" activeCellId="0" sqref="N49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="14.7813765182186"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="14.6761133603239"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="14.8906882591093"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="14.7813765182186"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="15.3198380566802"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="90.7287449392713"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="83.2307692307692"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="45.417004048583"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="91.587044534413"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="83.9797570850202"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="45.8461538461538"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="19.9230769230769"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="2" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="17.3522267206478"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="17.8906882591093"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="91.0526315789474"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="256.765182186235"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="13.1740890688259"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="22.0647773279352"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="14.5668016194332"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="17.4615384615385"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="1" width="36.7004048582996"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="22.2793522267206"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="14.6761133603239"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="1" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="18.3157894736842"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="20.5668016194332"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="24.9595141700405"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="24.3157894736842"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="25.3886639676113"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="22.8178137651822"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="27.5303643724696"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="28.0647773279352"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="17.6761133603239"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="18.3157894736842"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="17.1376518218624"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="25.1740890688259"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="27.7449392712551"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="28.2793522267206"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="17.7813765182186"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="17.246963562753"/>
     <col collapsed="false" hidden="false" max="32" min="32" style="1" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="17.3522267206478"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="68.2348178137652"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="17.4615384615385"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="68.7692307692308"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="24.3157894736842"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="1" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="13.0688259109312"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="14.7813765182186"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="14.8906882591093"/>
     <col collapsed="false" hidden="false" max="39" min="39" style="1" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="1025" min="40" style="3" width="9.10526315789474"/>
   </cols>
@@ -42099,7 +42099,9 @@
       <c r="M46" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="N46" s="8"/>
+      <c r="N46" s="8" t="s">
+        <v>205</v>
+      </c>
       <c r="O46" s="8"/>
       <c r="P46" s="8" t="s">
         <v>205</v>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC Cinema - REG.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC Cinema - REG.xlsx
@@ -623,10 +623,10 @@
     <t xml:space="preserve">Комбо : Кока-Кола </t>
   </si>
   <si>
-    <t xml:space="preserve">Coca Cola Zero Bottle Nrgb, Coca Cola Zero Bottle, Coca Cola Zero Logo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50111111, 50111112, 50111113, 50111114</t>
+    <t xml:space="preserve">Coke+Coca Cola Zero Bottle Nrgb, Coca Cola Zero Bottle, Coca Cola Zero Logo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50111111, 50111112, 50111113, 50111114, 5000006, 5000004, 5000005, 5000006, 5050570, 5000101</t>
   </si>
   <si>
     <t xml:space="preserve">Combo: Food</t>
@@ -884,8 +884,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor rgb="FFC0C0C0"/>
+        <fgColor rgb="FFFFC000"/>
+        <bgColor rgb="FFFF9900"/>
       </patternFill>
     </fill>
   </fills>
@@ -949,7 +949,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="24">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -958,107 +958,91 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="2" borderId="2" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="2" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="2" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="2" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="2" borderId="2" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="2" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="3" borderId="2" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="171" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="171" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1116,8 +1100,8 @@
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF92D050"/>
-      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFC000"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
@@ -1149,53 +1133,53 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="G39" activeCellId="0" sqref="G39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21.95"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.2834008097166"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="11.7813765182186"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.1417004048583"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.246963562753"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.8542510121457"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="82.4817813765182"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="77.8744939271255"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="43.3846153846154"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="83.1255060728745"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="78.5182186234818"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="43.7044534412956"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="16.1740890688259"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="8.89068825910931"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.1740890688259"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="1" width="55.914979757085"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="1" width="56.3441295546559"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="19.4939271255061"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="1" width="11.246963562753"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="18.6396761133603"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="1" width="13.8178137651822"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="1" width="6.96356275303644"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="14.3522267206478"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="17.7813765182186"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="22.3886639676113"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="23.4574898785425"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="20.0323886639676"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="25.9230769230769"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="26.3522267206478"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="14.4615384615385"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="26.0283400809717"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="15.8542510121457"/>
     <col collapsed="false" hidden="false" max="29" min="29" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="16.9230769230769"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="17.0323886639676"/>
     <col collapsed="false" hidden="false" max="31" min="31" style="1" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="12.6396761133603"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="12.9595141700405"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="63.0931174089069"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="7.60728744939271"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="12.748987854251"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="63.6275303643725"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="7.71255060728745"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="1" width="8.89068825910931"/>
     <col collapsed="false" hidden="false" max="38" min="38" style="1" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="39" min="39" style="1" width="9"/>
     <col collapsed="false" hidden="false" max="1025" min="40" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1314,7 +1298,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="n">
         <v>1</v>
       </c>
@@ -1375,7 +1359,7 @@
       </c>
       <c r="AM2" s="6"/>
     </row>
-    <row r="3" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="n">
         <v>2</v>
       </c>
@@ -1442,7 +1426,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="n">
         <v>3</v>
       </c>
@@ -1523,7 +1507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="n">
         <v>4</v>
       </c>
@@ -1604,7 +1588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="n">
         <v>5</v>
       </c>
@@ -1685,7 +1669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="n">
         <v>6</v>
       </c>
@@ -1766,7 +1750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="n">
         <v>7</v>
       </c>
@@ -1847,7 +1831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="n">
         <v>8</v>
       </c>
@@ -1928,7 +1912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="n">
         <v>9</v>
       </c>
@@ -2009,88 +1993,88 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="15" t="n">
+    <row r="11" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="15" t="s">
+      <c r="C11" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="F11" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="G11" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="H11" s="15" t="s">
+      <c r="H11" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="I11" s="15"/>
-      <c r="J11" s="17" t="n">
+      <c r="I11" s="6"/>
+      <c r="J11" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15" t="s">
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="N11" s="18" t="s">
+      <c r="N11" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="O11" s="15"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="15" t="s">
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="R11" s="15" t="s">
+      <c r="R11" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="S11" s="19"/>
-      <c r="T11" s="15"/>
-      <c r="U11" s="15"/>
-      <c r="V11" s="15" t="s">
+      <c r="S11" s="13"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="W11" s="15"/>
-      <c r="X11" s="15"/>
-      <c r="Y11" s="15" t="s">
+      <c r="W11" s="6"/>
+      <c r="X11" s="6"/>
+      <c r="Y11" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="Z11" s="15"/>
-      <c r="AA11" s="15"/>
-      <c r="AB11" s="15"/>
-      <c r="AC11" s="15"/>
-      <c r="AD11" s="15" t="s">
+      <c r="Z11" s="6"/>
+      <c r="AA11" s="6"/>
+      <c r="AB11" s="6"/>
+      <c r="AC11" s="6"/>
+      <c r="AD11" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AE11" s="20" t="n">
+      <c r="AE11" s="9" t="n">
         <v>0.007293</v>
       </c>
-      <c r="AF11" s="15"/>
-      <c r="AG11" s="15"/>
-      <c r="AH11" s="15"/>
-      <c r="AI11" s="15"/>
-      <c r="AJ11" s="15" t="n">
+      <c r="AF11" s="6"/>
+      <c r="AG11" s="6"/>
+      <c r="AH11" s="6"/>
+      <c r="AI11" s="6"/>
+      <c r="AJ11" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="AK11" s="15" t="n">
+      <c r="AK11" s="6" t="n">
         <v>9</v>
       </c>
-      <c r="AL11" s="15"/>
-      <c r="AM11" s="15" t="n">
+      <c r="AL11" s="6"/>
+      <c r="AM11" s="6" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="n">
         <v>11</v>
       </c>
@@ -2157,7 +2141,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="n">
         <v>12</v>
       </c>
@@ -2238,7 +2222,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="n">
         <v>13</v>
       </c>
@@ -2319,7 +2303,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="n">
         <v>14</v>
       </c>
@@ -2386,7 +2370,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="n">
         <v>15</v>
       </c>
@@ -2467,7 +2451,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="n">
         <v>16</v>
       </c>
@@ -2534,7 +2518,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="n">
         <v>17</v>
       </c>
@@ -2568,7 +2552,7 @@
       <c r="M18" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="N18" s="21" t="s">
+      <c r="N18" s="16" t="s">
         <v>93</v>
       </c>
       <c r="O18" s="11"/>
@@ -2615,7 +2599,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="n">
         <v>18</v>
       </c>
@@ -2634,7 +2618,7 @@
       <c r="F19" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="G19" s="22" t="s">
+      <c r="G19" s="15" t="s">
         <v>95</v>
       </c>
       <c r="H19" s="6" t="s">
@@ -2696,7 +2680,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="n">
         <v>19</v>
       </c>
@@ -2715,7 +2699,7 @@
       <c r="F20" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="G20" s="22" t="s">
+      <c r="G20" s="15" t="s">
         <v>98</v>
       </c>
       <c r="H20" s="6" t="s">
@@ -2777,7 +2761,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="n">
         <v>20</v>
       </c>
@@ -2796,7 +2780,7 @@
       <c r="F21" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="G21" s="22" t="s">
+      <c r="G21" s="15" t="s">
         <v>101</v>
       </c>
       <c r="H21" s="6" t="s">
@@ -2858,7 +2842,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="n">
         <v>21</v>
       </c>
@@ -2925,7 +2909,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="n">
         <v>22</v>
       </c>
@@ -2944,7 +2928,7 @@
       <c r="F23" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="G23" s="22" t="s">
+      <c r="G23" s="15" t="s">
         <v>107</v>
       </c>
       <c r="H23" s="6" t="s">
@@ -3006,7 +2990,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="n">
         <v>23</v>
       </c>
@@ -3025,7 +3009,7 @@
       <c r="F24" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="G24" s="22" t="s">
+      <c r="G24" s="15" t="s">
         <v>109</v>
       </c>
       <c r="H24" s="6" t="s">
@@ -3087,7 +3071,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="n">
         <v>24</v>
       </c>
@@ -3168,7 +3152,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="n">
         <v>25</v>
       </c>
@@ -3249,7 +3233,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="n">
         <v>26</v>
       </c>
@@ -3268,7 +3252,7 @@
       <c r="F27" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="G27" s="22" t="s">
+      <c r="G27" s="15" t="s">
         <v>117</v>
       </c>
       <c r="H27" s="6" t="s">
@@ -3330,7 +3314,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="n">
         <v>27</v>
       </c>
@@ -3411,7 +3395,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="n">
         <v>28</v>
       </c>
@@ -3492,7 +3476,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="n">
         <v>37</v>
       </c>
@@ -3553,7 +3537,7 @@
       </c>
       <c r="AM30" s="6"/>
     </row>
-    <row r="31" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="n">
         <v>38</v>
       </c>
@@ -3616,7 +3600,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="n">
         <v>39</v>
       </c>
@@ -3691,7 +3675,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="n">
         <v>40</v>
       </c>
@@ -3770,7 +3754,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="n">
         <v>41</v>
       </c>
@@ -3847,7 +3831,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="6" t="n">
         <v>42</v>
       </c>
@@ -3910,7 +3894,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="6" t="n">
         <v>43</v>
       </c>
@@ -3989,11 +3973,11 @@
         <v>29</v>
       </c>
       <c r="AL36" s="6"/>
-      <c r="AM36" s="23" t="n">
+      <c r="AM36" s="17" t="n">
         <v>312</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="6" t="n">
         <v>44</v>
       </c>
@@ -4072,11 +4056,11 @@
         <v>30</v>
       </c>
       <c r="AL37" s="6"/>
-      <c r="AM37" s="23" t="n">
+      <c r="AM37" s="17" t="n">
         <v>312</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="6" t="n">
         <v>45</v>
       </c>
@@ -4157,11 +4141,11 @@
         <v>31</v>
       </c>
       <c r="AL38" s="6"/>
-      <c r="AM38" s="23" t="n">
+      <c r="AM38" s="17" t="n">
         <v>312</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="6" t="n">
         <v>46</v>
       </c>
@@ -4222,7 +4206,7 @@
       </c>
       <c r="AM39" s="6"/>
     </row>
-    <row r="40" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="6" t="n">
         <v>48</v>
       </c>
@@ -4305,7 +4289,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="6" t="n">
         <v>49</v>
       </c>
@@ -4384,7 +4368,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="6" t="n">
         <v>50</v>
       </c>
@@ -4415,10 +4399,10 @@
       </c>
       <c r="K42" s="6"/>
       <c r="L42" s="6"/>
-      <c r="M42" s="6" t="s">
+      <c r="M42" s="18" t="s">
         <v>187</v>
       </c>
-      <c r="N42" s="6" t="s">
+      <c r="N42" s="18" t="s">
         <v>188</v>
       </c>
       <c r="O42" s="6"/>
@@ -4465,7 +4449,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="6" t="n">
         <v>51</v>
       </c>
@@ -4496,7 +4480,7 @@
       </c>
       <c r="K43" s="6"/>
       <c r="L43" s="6"/>
-      <c r="M43" s="24" t="s">
+      <c r="M43" s="19" t="s">
         <v>192</v>
       </c>
       <c r="N43" s="6" t="s">
@@ -4550,7 +4534,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="6" t="n">
         <v>52</v>
       </c>
@@ -4623,11 +4607,11 @@
       <c r="AL44" s="12" t="n">
         <v>769</v>
       </c>
-      <c r="AM44" s="23" t="n">
+      <c r="AM44" s="17" t="n">
         <v>400</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="6" t="n">
         <v>56</v>
       </c>
@@ -4704,7 +4688,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="6" t="n">
         <v>57</v>
       </c>
@@ -4787,7 +4771,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="6" t="n">
         <v>58</v>
       </c>
@@ -4818,7 +4802,7 @@
       </c>
       <c r="K47" s="6"/>
       <c r="L47" s="6"/>
-      <c r="M47" s="24" t="s">
+      <c r="M47" s="19" t="s">
         <v>192</v>
       </c>
       <c r="N47" s="6" t="s">
@@ -4872,7 +4856,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="6" t="n">
         <v>59</v>
       </c>
@@ -4885,13 +4869,13 @@
       <c r="D48" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="E48" s="23" t="s">
+      <c r="E48" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="F48" s="23" t="s">
+      <c r="F48" s="17" t="s">
         <v>211</v>
       </c>
-      <c r="G48" s="23" t="s">
+      <c r="G48" s="17" t="s">
         <v>212</v>
       </c>
       <c r="H48" s="6" t="s">
@@ -4937,7 +4921,7 @@
       </c>
       <c r="AM48" s="6"/>
     </row>
-    <row r="49" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="6" t="n">
         <v>60</v>
       </c>
@@ -4950,13 +4934,13 @@
       <c r="D49" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="E49" s="23" t="s">
+      <c r="E49" s="17" t="s">
         <v>217</v>
       </c>
-      <c r="F49" s="23" t="s">
+      <c r="F49" s="17" t="s">
         <v>218</v>
       </c>
-      <c r="G49" s="23" t="s">
+      <c r="G49" s="17" t="s">
         <v>219</v>
       </c>
       <c r="H49" s="6" t="s">
@@ -5004,7 +4988,7 @@
       </c>
       <c r="AM49" s="6"/>
     </row>
-    <row r="50" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="6" t="n">
         <v>61</v>
       </c>
@@ -5017,13 +5001,13 @@
       <c r="D50" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="E50" s="23" t="s">
+      <c r="E50" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="F50" s="23" t="s">
+      <c r="F50" s="17" t="s">
         <v>223</v>
       </c>
-      <c r="G50" s="23" t="s">
+      <c r="G50" s="17" t="s">
         <v>224</v>
       </c>
       <c r="H50" s="6" t="s">
@@ -5071,7 +5055,7 @@
       </c>
       <c r="AM50" s="6"/>
     </row>
-    <row r="51" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="6" t="n">
         <v>62</v>
       </c>
@@ -5084,13 +5068,13 @@
       <c r="D51" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="E51" s="23" t="s">
+      <c r="E51" s="17" t="s">
         <v>226</v>
       </c>
-      <c r="F51" s="23" t="s">
+      <c r="F51" s="17" t="s">
         <v>227</v>
       </c>
-      <c r="G51" s="23" t="s">
+      <c r="G51" s="17" t="s">
         <v>227</v>
       </c>
       <c r="H51" s="6" t="s">
@@ -5140,7 +5124,7 @@
       </c>
       <c r="AM51" s="6"/>
     </row>
-    <row r="52" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="6" t="n">
         <v>63</v>
       </c>
@@ -5156,10 +5140,10 @@
       <c r="E52" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="F52" s="23" t="s">
+      <c r="F52" s="17" t="s">
         <v>230</v>
       </c>
-      <c r="G52" s="23" t="s">
+      <c r="G52" s="17" t="s">
         <v>231</v>
       </c>
       <c r="H52" s="6" t="s">
@@ -5209,7 +5193,7 @@
       </c>
       <c r="AM52" s="6"/>
     </row>
-    <row r="53" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="6" t="n">
         <v>64</v>
       </c>
@@ -5222,13 +5206,13 @@
       <c r="D53" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="E53" s="23" t="s">
+      <c r="E53" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="F53" s="23" t="s">
+      <c r="F53" s="17" t="s">
         <v>235</v>
       </c>
-      <c r="G53" s="23" t="s">
+      <c r="G53" s="17" t="s">
         <v>236</v>
       </c>
       <c r="H53" s="6" t="s">
@@ -5241,7 +5225,7 @@
       <c r="K53" s="8"/>
       <c r="L53" s="8"/>
       <c r="M53" s="6"/>
-      <c r="N53" s="25" t="s">
+      <c r="N53" s="20" t="s">
         <v>238</v>
       </c>
       <c r="O53" s="6"/>
@@ -5274,9 +5258,9 @@
         <v>43</v>
       </c>
       <c r="AL53" s="6"/>
-      <c r="AM53" s="0"/>
+      <c r="AM53" s="21"/>
     </row>
-    <row r="54" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="6" t="n">
         <v>65</v>
       </c>
@@ -5289,11 +5273,11 @@
       <c r="D54" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="E54" s="23"/>
-      <c r="F54" s="23" t="s">
+      <c r="E54" s="17"/>
+      <c r="F54" s="17" t="s">
         <v>240</v>
       </c>
-      <c r="G54" s="23" t="s">
+      <c r="G54" s="17" t="s">
         <v>241</v>
       </c>
       <c r="H54" s="6" t="s">
@@ -5306,7 +5290,7 @@
       <c r="K54" s="8"/>
       <c r="L54" s="8"/>
       <c r="M54" s="6"/>
-      <c r="N54" s="26"/>
+      <c r="N54" s="22"/>
       <c r="O54" s="6"/>
       <c r="P54" s="6"/>
       <c r="Q54" s="6"/>
@@ -5329,7 +5313,7 @@
       <c r="AF54" s="6"/>
       <c r="AG54" s="6"/>
       <c r="AH54" s="6"/>
-      <c r="AI54" s="27"/>
+      <c r="AI54" s="23"/>
       <c r="AJ54" s="6"/>
       <c r="AK54" s="6" t="n">
         <v>401</v>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC Cinema - REG.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC Cinema - REG.xlsx
@@ -13,6 +13,7 @@
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Cinema!$A$1:$AM$54</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Cinema!$A$1:$AM$54</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Cinema!$A$1:$AM$54</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -949,7 +950,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1032,10 +1033,6 @@
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="171" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1130,7 +1127,7 @@
   </sheetPr>
   <dimension ref="A1:AM54"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="G39" activeCellId="0" sqref="G39"/>
@@ -1138,40 +1135,40 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.2834008097166"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="11.7813765182186"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.246963562753"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.8542510121457"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="83.1255060728745"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="78.5182186234818"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="43.7044534412956"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="83.8744939271255"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="79.2672064777328"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="44.0242914979757"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="16.2834008097166"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="8.89068825910931"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.2834008097166"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="1" width="56.3441295546559"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="1" width="56.7732793522267"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="19.6032388663968"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="1" width="11.246963562753"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="18.7449392712551"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="1" width="13.8178137651822"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="1" width="6.96356275303644"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="14.4615384615385"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="17.8906882591093"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="22.8178137651822"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="23.5668016194332"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="20.1376518218623"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="26.0283400809717"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="26.5668016194332"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="14.5668016194332"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="26.7813765182186"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="15.9595141700405"/>
     <col collapsed="false" hidden="false" max="29" min="29" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="17.0323886639676"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="17.1376518218624"/>
     <col collapsed="false" hidden="false" max="31" min="31" style="1" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="12.748987854251"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="13.0688259109312"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="63.6275303643725"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="64.165991902834"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="23.0323886639676"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="1" width="7.71255060728745"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="1" width="8.89068825910931"/>
     <col collapsed="false" hidden="false" max="38" min="38" style="1" width="11.0323886639676"/>
@@ -5258,7 +5255,7 @@
         <v>43</v>
       </c>
       <c r="AL53" s="6"/>
-      <c r="AM53" s="21"/>
+      <c r="AM53" s="0"/>
     </row>
     <row r="54" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="6" t="n">
@@ -5290,7 +5287,7 @@
       <c r="K54" s="8"/>
       <c r="L54" s="8"/>
       <c r="M54" s="6"/>
-      <c r="N54" s="22"/>
+      <c r="N54" s="21"/>
       <c r="O54" s="6"/>
       <c r="P54" s="6"/>
       <c r="Q54" s="6"/>
@@ -5313,7 +5310,7 @@
       <c r="AF54" s="6"/>
       <c r="AG54" s="6"/>
       <c r="AH54" s="6"/>
-      <c r="AI54" s="23"/>
+      <c r="AI54" s="22"/>
       <c r="AJ54" s="6"/>
       <c r="AK54" s="6" t="n">
         <v>401</v>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC Cinema - REG.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC Cinema - REG.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My folder\RED\POS\POS_20190815_1845\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0F9B4CF-B910-4C33-AA21-0D05E41A616F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0782D16-DF58-4780-9B55-FFCBEE3E5FF7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="1200" windowWidth="21840" windowHeight="13140" tabRatio="683" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="683" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cinema" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">Cinema!$A$1:$AN$54</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="0">Cinema!$A$1:$AN$54</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2070" uniqueCount="248">
   <si>
     <t>Sorting</t>
   </si>
@@ -810,9 +810,6 @@
     <t>Juice and meal: Food</t>
   </si>
   <si>
-    <t>number of atomic KPI Passed on the same scene</t>
-  </si>
-  <si>
     <t>Dobriy - Apple - 0.33L / Rich Apple 0.3L</t>
   </si>
   <si>
@@ -829,6 +826,9 @@
   </si>
   <si>
     <t>BonAqua Carb - 0.5L / SW - 0.6L</t>
+  </si>
+  <si>
+    <t>number of atomic KPI Passed</t>
   </si>
 </sst>
 </file>
@@ -962,7 +962,7 @@
       <alignment horizontal="left" vertical="center" indent="15"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1028,9 +1028,6 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1419,9 +1416,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AML54"/>
   <sheetViews>
-    <sheetView windowProtection="1" tabSelected="1" topLeftCell="I1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N14" sqref="N14:O14"/>
+    <sheetView windowProtection="1" tabSelected="1" topLeftCell="H1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I47" sqref="I47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2556,11 +2553,11 @@
       </c>
       <c r="L14" s="11"/>
       <c r="M14" s="11"/>
-      <c r="N14" s="23" t="s">
-        <v>247</v>
-      </c>
-      <c r="O14" s="24" t="s">
+      <c r="N14" s="9" t="s">
         <v>246</v>
+      </c>
+      <c r="O14" s="14" t="s">
+        <v>245</v>
       </c>
       <c r="P14" s="14"/>
       <c r="Q14" s="14"/>
@@ -3416,11 +3413,11 @@
       </c>
       <c r="L25" s="11"/>
       <c r="M25" s="11"/>
-      <c r="N25" s="23" t="s">
+      <c r="N25" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="O25" s="14" t="s">
         <v>242</v>
-      </c>
-      <c r="O25" s="24" t="s">
-        <v>243</v>
       </c>
       <c r="P25" s="14"/>
       <c r="Q25" s="14"/>
@@ -3498,11 +3495,11 @@
       </c>
       <c r="L26" s="11"/>
       <c r="M26" s="11"/>
-      <c r="N26" s="23" t="s">
-        <v>245</v>
-      </c>
-      <c r="O26" s="24" t="s">
+      <c r="N26" s="9" t="s">
         <v>244</v>
+      </c>
+      <c r="O26" s="14" t="s">
+        <v>243</v>
       </c>
       <c r="P26" s="14"/>
       <c r="Q26" s="14"/>
@@ -4642,7 +4639,7 @@
         <v>178</v>
       </c>
       <c r="I41" s="23" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="J41" s="9"/>
       <c r="K41" s="9">
@@ -4803,7 +4800,7 @@
       <c r="H43" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="I43" s="23" t="s">
+      <c r="I43" s="9" t="s">
         <v>53</v>
       </c>
       <c r="J43" s="9"/>
@@ -4890,7 +4887,7 @@
         <v>194</v>
       </c>
       <c r="I44" s="23" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="J44" s="9"/>
       <c r="K44" s="9">
@@ -5041,7 +5038,7 @@
       <c r="F46" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="G46" s="23" t="s">
+      <c r="G46" s="9" t="s">
         <v>239</v>
       </c>
       <c r="H46" s="9" t="s">
@@ -5062,7 +5059,7 @@
       <c r="O46" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="P46" s="23" t="s">
+      <c r="P46" s="9" t="s">
         <v>190</v>
       </c>
       <c r="Q46" s="9" t="s">
@@ -5129,13 +5126,13 @@
       <c r="F47" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="G47" s="23" t="s">
+      <c r="G47" s="9" t="s">
         <v>240</v>
       </c>
       <c r="H47" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="I47" s="23" t="s">
+      <c r="I47" s="9" t="s">
         <v>53</v>
       </c>
       <c r="J47" s="9"/>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC Cinema - REG.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC Cinema - REG.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My folder\RED\POS\POS_20190815_1845\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0782D16-DF58-4780-9B55-FFCBEE3E5FF7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0F9B4CF-B910-4C33-AA21-0D05E41A616F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="683" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="1200" windowWidth="21840" windowHeight="13140" tabRatio="683" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cinema" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">Cinema!$A$1:$AN$54</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="0">Cinema!$A$1:$AN$54</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2070" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="248">
   <si>
     <t>Sorting</t>
   </si>
@@ -810,6 +810,9 @@
     <t>Juice and meal: Food</t>
   </si>
   <si>
+    <t>number of atomic KPI Passed on the same scene</t>
+  </si>
+  <si>
     <t>Dobriy - Apple - 0.33L / Rich Apple 0.3L</t>
   </si>
   <si>
@@ -826,9 +829,6 @@
   </si>
   <si>
     <t>BonAqua Carb - 0.5L / SW - 0.6L</t>
-  </si>
-  <si>
-    <t>number of atomic KPI Passed</t>
   </si>
 </sst>
 </file>
@@ -962,7 +962,7 @@
       <alignment horizontal="left" vertical="center" indent="15"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1028,6 +1028,9 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1416,9 +1419,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AML54"/>
   <sheetViews>
-    <sheetView windowProtection="1" tabSelected="1" topLeftCell="H1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I47" sqref="I47"/>
+    <sheetView windowProtection="1" tabSelected="1" topLeftCell="I1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N14" sqref="N14:O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2553,11 +2556,11 @@
       </c>
       <c r="L14" s="11"/>
       <c r="M14" s="11"/>
-      <c r="N14" s="9" t="s">
+      <c r="N14" s="23" t="s">
+        <v>247</v>
+      </c>
+      <c r="O14" s="24" t="s">
         <v>246</v>
-      </c>
-      <c r="O14" s="14" t="s">
-        <v>245</v>
       </c>
       <c r="P14" s="14"/>
       <c r="Q14" s="14"/>
@@ -3413,11 +3416,11 @@
       </c>
       <c r="L25" s="11"/>
       <c r="M25" s="11"/>
-      <c r="N25" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="O25" s="14" t="s">
+      <c r="N25" s="23" t="s">
         <v>242</v>
+      </c>
+      <c r="O25" s="24" t="s">
+        <v>243</v>
       </c>
       <c r="P25" s="14"/>
       <c r="Q25" s="14"/>
@@ -3495,11 +3498,11 @@
       </c>
       <c r="L26" s="11"/>
       <c r="M26" s="11"/>
-      <c r="N26" s="9" t="s">
+      <c r="N26" s="23" t="s">
+        <v>245</v>
+      </c>
+      <c r="O26" s="24" t="s">
         <v>244</v>
-      </c>
-      <c r="O26" s="14" t="s">
-        <v>243</v>
       </c>
       <c r="P26" s="14"/>
       <c r="Q26" s="14"/>
@@ -4639,7 +4642,7 @@
         <v>178</v>
       </c>
       <c r="I41" s="23" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="J41" s="9"/>
       <c r="K41" s="9">
@@ -4800,7 +4803,7 @@
       <c r="H43" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="I43" s="9" t="s">
+      <c r="I43" s="23" t="s">
         <v>53</v>
       </c>
       <c r="J43" s="9"/>
@@ -4887,7 +4890,7 @@
         <v>194</v>
       </c>
       <c r="I44" s="23" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="J44" s="9"/>
       <c r="K44" s="9">
@@ -5038,7 +5041,7 @@
       <c r="F46" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="G46" s="9" t="s">
+      <c r="G46" s="23" t="s">
         <v>239</v>
       </c>
       <c r="H46" s="9" t="s">
@@ -5059,7 +5062,7 @@
       <c r="O46" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="P46" s="9" t="s">
+      <c r="P46" s="23" t="s">
         <v>190</v>
       </c>
       <c r="Q46" s="9" t="s">
@@ -5126,13 +5129,13 @@
       <c r="F47" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="G47" s="9" t="s">
+      <c r="G47" s="23" t="s">
         <v>240</v>
       </c>
       <c r="H47" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="I47" s="9" t="s">
+      <c r="I47" s="23" t="s">
         <v>53</v>
       </c>
       <c r="J47" s="9"/>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC Cinema - REG.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC Cinema - REG.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="248">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -965,7 +965,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1030,19 +1030,15 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="171" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1150,10 +1146,10 @@
   </sheetPr>
   <dimension ref="A1:AN54"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="I34" activeCellId="0" sqref="I34"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="P46" activeCellId="0" sqref="P46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2287,10 +2283,10 @@
       </c>
       <c r="L14" s="8"/>
       <c r="M14" s="8"/>
-      <c r="N14" s="16" t="s">
+      <c r="N14" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="O14" s="17" t="s">
+      <c r="O14" s="11" t="s">
         <v>84</v>
       </c>
       <c r="P14" s="11"/>
@@ -2590,7 +2586,7 @@
       <c r="N18" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="O18" s="18" t="s">
+      <c r="O18" s="16" t="s">
         <v>95</v>
       </c>
       <c r="P18" s="11"/>
@@ -3147,10 +3143,10 @@
       </c>
       <c r="L25" s="8"/>
       <c r="M25" s="8"/>
-      <c r="N25" s="16" t="s">
+      <c r="N25" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="O25" s="17" t="s">
+      <c r="O25" s="11" t="s">
         <v>115</v>
       </c>
       <c r="P25" s="11"/>
@@ -3229,10 +3225,10 @@
       </c>
       <c r="L26" s="8"/>
       <c r="M26" s="8"/>
-      <c r="N26" s="16" t="s">
+      <c r="N26" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="O26" s="17" t="s">
+      <c r="O26" s="11" t="s">
         <v>119</v>
       </c>
       <c r="P26" s="11"/>
@@ -4029,7 +4025,7 @@
         <v>29</v>
       </c>
       <c r="AM36" s="6"/>
-      <c r="AN36" s="19" t="n">
+      <c r="AN36" s="17" t="n">
         <v>312</v>
       </c>
     </row>
@@ -4113,7 +4109,7 @@
         <v>30</v>
       </c>
       <c r="AM37" s="6"/>
-      <c r="AN37" s="19" t="n">
+      <c r="AN37" s="17" t="n">
         <v>312</v>
       </c>
     </row>
@@ -4199,7 +4195,7 @@
         <v>31</v>
       </c>
       <c r="AM38" s="6"/>
-      <c r="AN38" s="19" t="n">
+      <c r="AN38" s="17" t="n">
         <v>312</v>
       </c>
     </row>
@@ -4372,7 +4368,7 @@
       <c r="H41" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="I41" s="16" t="s">
+      <c r="I41" s="18" t="s">
         <v>185</v>
       </c>
       <c r="J41" s="6"/>
@@ -4534,7 +4530,7 @@
       <c r="H43" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="I43" s="16" t="s">
+      <c r="I43" s="6" t="s">
         <v>53</v>
       </c>
       <c r="J43" s="6"/>
@@ -4543,7 +4539,7 @@
       </c>
       <c r="L43" s="6"/>
       <c r="M43" s="6"/>
-      <c r="N43" s="20" t="s">
+      <c r="N43" s="19" t="s">
         <v>195</v>
       </c>
       <c r="O43" s="6" t="s">
@@ -4620,7 +4616,7 @@
       <c r="H44" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="I44" s="16" t="s">
+      <c r="I44" s="18" t="s">
         <v>185</v>
       </c>
       <c r="J44" s="6"/>
@@ -4671,7 +4667,7 @@
       <c r="AM44" s="12" t="n">
         <v>769</v>
       </c>
-      <c r="AN44" s="19" t="n">
+      <c r="AN44" s="17" t="n">
         <v>400</v>
       </c>
     </row>
@@ -4772,7 +4768,7 @@
       <c r="F46" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="G46" s="16" t="s">
+      <c r="G46" s="6" t="s">
         <v>207</v>
       </c>
       <c r="H46" s="6" t="s">
@@ -4793,9 +4789,7 @@
       <c r="O46" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="P46" s="16" t="s">
-        <v>197</v>
-      </c>
+      <c r="P46" s="6"/>
       <c r="Q46" s="6" t="s">
         <v>209</v>
       </c>
@@ -4860,13 +4854,13 @@
       <c r="F47" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="G47" s="16" t="s">
+      <c r="G47" s="6" t="s">
         <v>212</v>
       </c>
       <c r="H47" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="I47" s="16" t="s">
+      <c r="I47" s="6" t="s">
         <v>53</v>
       </c>
       <c r="J47" s="6"/>
@@ -4875,7 +4869,7 @@
       </c>
       <c r="L47" s="6"/>
       <c r="M47" s="6"/>
-      <c r="N47" s="20" t="s">
+      <c r="N47" s="19" t="s">
         <v>195</v>
       </c>
       <c r="O47" s="6" t="s">
@@ -4942,14 +4936,14 @@
       <c r="D48" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="E48" s="19" t="s">
+      <c r="E48" s="17" t="s">
         <v>215</v>
       </c>
-      <c r="F48" s="19"/>
-      <c r="G48" s="19" t="s">
+      <c r="F48" s="17"/>
+      <c r="G48" s="17" t="s">
         <v>216</v>
       </c>
-      <c r="H48" s="19" t="s">
+      <c r="H48" s="17" t="s">
         <v>217</v>
       </c>
       <c r="I48" s="6" t="s">
@@ -5008,14 +5002,14 @@
       <c r="D49" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="E49" s="19" t="s">
+      <c r="E49" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="F49" s="19"/>
-      <c r="G49" s="19" t="s">
+      <c r="F49" s="17"/>
+      <c r="G49" s="17" t="s">
         <v>223</v>
       </c>
-      <c r="H49" s="19" t="s">
+      <c r="H49" s="17" t="s">
         <v>224</v>
       </c>
       <c r="I49" s="6" t="s">
@@ -5076,14 +5070,14 @@
       <c r="D50" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="E50" s="19" t="s">
+      <c r="E50" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="F50" s="19"/>
-      <c r="G50" s="19" t="s">
+      <c r="F50" s="17"/>
+      <c r="G50" s="17" t="s">
         <v>228</v>
       </c>
-      <c r="H50" s="19" t="s">
+      <c r="H50" s="17" t="s">
         <v>229</v>
       </c>
       <c r="I50" s="6" t="s">
@@ -5144,14 +5138,14 @@
       <c r="D51" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="E51" s="19" t="s">
+      <c r="E51" s="17" t="s">
         <v>231</v>
       </c>
-      <c r="F51" s="19"/>
-      <c r="G51" s="19" t="s">
+      <c r="F51" s="17"/>
+      <c r="G51" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="H51" s="19" t="s">
+      <c r="H51" s="17" t="s">
         <v>232</v>
       </c>
       <c r="I51" s="6" t="s">
@@ -5218,10 +5212,10 @@
         <v>182</v>
       </c>
       <c r="F52" s="6"/>
-      <c r="G52" s="19" t="s">
+      <c r="G52" s="17" t="s">
         <v>235</v>
       </c>
-      <c r="H52" s="19" t="s">
+      <c r="H52" s="17" t="s">
         <v>236</v>
       </c>
       <c r="I52" s="6" t="s">
@@ -5284,14 +5278,14 @@
       <c r="D53" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="E53" s="19" t="s">
+      <c r="E53" s="17" t="s">
         <v>239</v>
       </c>
-      <c r="F53" s="19"/>
-      <c r="G53" s="19" t="s">
+      <c r="F53" s="17"/>
+      <c r="G53" s="17" t="s">
         <v>240</v>
       </c>
-      <c r="H53" s="19" t="s">
+      <c r="H53" s="17" t="s">
         <v>241</v>
       </c>
       <c r="I53" s="6" t="s">
@@ -5304,7 +5298,7 @@
       <c r="L53" s="8"/>
       <c r="M53" s="8"/>
       <c r="N53" s="6"/>
-      <c r="O53" s="21" t="s">
+      <c r="O53" s="20" t="s">
         <v>243</v>
       </c>
       <c r="P53" s="6"/>
@@ -5337,7 +5331,7 @@
         <v>43</v>
       </c>
       <c r="AM53" s="6"/>
-      <c r="AN53" s="22"/>
+      <c r="AN53" s="21"/>
     </row>
     <row r="54" customFormat="false" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="6" t="n">
@@ -5352,12 +5346,12 @@
       <c r="D54" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="E54" s="19"/>
-      <c r="F54" s="19"/>
-      <c r="G54" s="19" t="s">
+      <c r="E54" s="17"/>
+      <c r="F54" s="17"/>
+      <c r="G54" s="17" t="s">
         <v>245</v>
       </c>
-      <c r="H54" s="19" t="s">
+      <c r="H54" s="17" t="s">
         <v>246</v>
       </c>
       <c r="I54" s="6" t="s">
@@ -5370,7 +5364,7 @@
       <c r="L54" s="8"/>
       <c r="M54" s="8"/>
       <c r="N54" s="6"/>
-      <c r="O54" s="23"/>
+      <c r="O54" s="22"/>
       <c r="P54" s="6"/>
       <c r="Q54" s="6"/>
       <c r="R54" s="6"/>
@@ -5393,7 +5387,7 @@
       <c r="AG54" s="6"/>
       <c r="AH54" s="6"/>
       <c r="AI54" s="6"/>
-      <c r="AJ54" s="24"/>
+      <c r="AJ54" s="23"/>
       <c r="AK54" s="6"/>
       <c r="AL54" s="6" t="n">
         <v>401</v>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC Cinema - REG.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC Cinema - REG.xlsx
@@ -5,13 +5,13 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My folder\RED\POS\POS_2019-10-17\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My folder\RED\POS\POS_2019-10-21\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EAB1D39-79AF-496E-8C9B-A0E9FFD2A709}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14E54354-B64D-4CB4-B4B4-AF10567B031F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView xWindow="14100" yWindow="756" windowWidth="17280" windowHeight="9024" tabRatio="529" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="529" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cinema" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="249">
   <si>
     <t>Sorting</t>
   </si>
@@ -222,9 +222,6 @@
     <t>Other</t>
   </si>
   <si>
-    <t>Panoramic Photo</t>
-  </si>
-  <si>
     <t>BINARY</t>
   </si>
   <si>
@@ -825,10 +822,16 @@
     <t>Integer</t>
   </si>
   <si>
-    <t>Cash Zone, SS_Cash Zone</t>
-  </si>
-  <si>
-    <t>Menu Board, Cash Zone, SS_Menu Board, SS_Cash Zone</t>
+    <t>Panoramic Photo, SS_Panoramic Photo</t>
+  </si>
+  <si>
+    <t>Panoramic photo of Cooler, SS_Panoramic photo of Cooler - Horeca</t>
+  </si>
+  <si>
+    <t>Cash Zone, SS_Cash Zone - Canteen, QSR</t>
+  </si>
+  <si>
+    <t>Menu Board, Cash Zone, SS_Cash Zone - Canteen, QSR, SS_Menu Board - Canteen, QSR</t>
   </si>
 </sst>
 </file>
@@ -897,7 +900,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -948,6 +951,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="dashed">
+        <color auto="1"/>
+      </left>
+      <right style="dashed">
+        <color auto="1"/>
+      </right>
+      <top style="dashed">
+        <color auto="1"/>
+      </top>
+      <bottom style="dashed">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -956,7 +974,7 @@
       <alignment horizontal="left" vertical="center" indent="15"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1020,6 +1038,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1409,7 +1430,7 @@
   <sheetViews>
     <sheetView windowProtection="1" tabSelected="1" topLeftCell="U1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X7" sqref="X7"/>
+      <selection pane="bottomLeft" activeCell="Y41" sqref="Y41:Y47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1761,14 +1782,14 @@
       <c r="X4" s="9"/>
       <c r="Y4" s="9"/>
       <c r="Z4" s="9" t="s">
-        <v>57</v>
+        <v>245</v>
       </c>
       <c r="AA4" s="9"/>
       <c r="AB4" s="9"/>
       <c r="AC4" s="9"/>
       <c r="AD4" s="9"/>
       <c r="AE4" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AF4" s="17">
         <v>4.0169999999999997E-2</v>
@@ -1806,10 +1827,10 @@
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5" s="9" t="s">
         <v>59</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>60</v>
       </c>
       <c r="I5" s="9" t="s">
         <v>53</v>
@@ -1821,7 +1842,7 @@
       <c r="L5" s="11"/>
       <c r="M5" s="11"/>
       <c r="N5" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O5" s="14">
         <v>5449000131836</v>
@@ -1843,14 +1864,14 @@
       <c r="X5" s="9"/>
       <c r="Y5" s="9"/>
       <c r="Z5" s="9" t="s">
-        <v>57</v>
+        <v>245</v>
       </c>
       <c r="AA5" s="9"/>
       <c r="AB5" s="9"/>
       <c r="AC5" s="9"/>
       <c r="AD5" s="9"/>
       <c r="AE5" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AF5" s="17">
         <v>4.0169000000000003E-2</v>
@@ -1888,10 +1909,10 @@
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6" s="9" t="s">
         <v>61</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>62</v>
       </c>
       <c r="I6" s="9" t="s">
         <v>53</v>
@@ -1903,7 +1924,7 @@
       <c r="L6" s="11"/>
       <c r="M6" s="11"/>
       <c r="N6" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O6" s="14">
         <v>40822938</v>
@@ -1925,14 +1946,14 @@
       <c r="X6" s="9"/>
       <c r="Y6" s="9"/>
       <c r="Z6" s="9" t="s">
-        <v>57</v>
+        <v>245</v>
       </c>
       <c r="AA6" s="9"/>
       <c r="AB6" s="9"/>
       <c r="AC6" s="9"/>
       <c r="AD6" s="9"/>
       <c r="AE6" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AF6" s="17">
         <v>4.0146000000000001E-2</v>
@@ -1970,10 +1991,10 @@
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7" s="9" t="s">
         <v>63</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>64</v>
       </c>
       <c r="I7" s="9" t="s">
         <v>53</v>
@@ -1985,7 +2006,7 @@
       <c r="L7" s="11"/>
       <c r="M7" s="11"/>
       <c r="N7" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O7" s="14">
         <v>54491069</v>
@@ -2007,14 +2028,14 @@
       <c r="X7" s="9"/>
       <c r="Y7" s="9"/>
       <c r="Z7" s="9" t="s">
-        <v>57</v>
+        <v>245</v>
       </c>
       <c r="AA7" s="9"/>
       <c r="AB7" s="9"/>
       <c r="AC7" s="9"/>
       <c r="AD7" s="9"/>
       <c r="AE7" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AF7" s="17">
         <v>4.0146000000000001E-2</v>
@@ -2052,10 +2073,10 @@
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H8" s="9" t="s">
         <v>65</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>66</v>
       </c>
       <c r="I8" s="9" t="s">
         <v>53</v>
@@ -2067,7 +2088,7 @@
       <c r="L8" s="11"/>
       <c r="M8" s="11"/>
       <c r="N8" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O8" s="14">
         <v>42099697</v>
@@ -2089,14 +2110,14 @@
       <c r="X8" s="9"/>
       <c r="Y8" s="9"/>
       <c r="Z8" s="9" t="s">
-        <v>57</v>
+        <v>245</v>
       </c>
       <c r="AA8" s="9"/>
       <c r="AB8" s="9"/>
       <c r="AC8" s="9"/>
       <c r="AD8" s="9"/>
       <c r="AE8" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AF8" s="17">
         <v>2.1691999999999999E-2</v>
@@ -2134,10 +2155,10 @@
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="H9" s="9" t="s">
         <v>67</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>68</v>
       </c>
       <c r="I9" s="9" t="s">
         <v>53</v>
@@ -2149,7 +2170,7 @@
       <c r="L9" s="11"/>
       <c r="M9" s="11"/>
       <c r="N9" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O9" s="14">
         <v>5449000214744</v>
@@ -2171,14 +2192,14 @@
       <c r="X9" s="9"/>
       <c r="Y9" s="9"/>
       <c r="Z9" s="9" t="s">
-        <v>57</v>
+        <v>245</v>
       </c>
       <c r="AA9" s="9"/>
       <c r="AB9" s="9"/>
       <c r="AC9" s="9"/>
       <c r="AD9" s="9"/>
       <c r="AE9" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AF9" s="17">
         <v>2.1691999999999999E-2</v>
@@ -2216,10 +2237,10 @@
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10" s="9" t="s">
         <v>69</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>70</v>
       </c>
       <c r="I10" s="9" t="s">
         <v>53</v>
@@ -2231,7 +2252,7 @@
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
       <c r="N10" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O10" s="14">
         <v>5449000172228</v>
@@ -2253,14 +2274,14 @@
       <c r="X10" s="9"/>
       <c r="Y10" s="9"/>
       <c r="Z10" s="9" t="s">
-        <v>57</v>
+        <v>245</v>
       </c>
       <c r="AA10" s="9"/>
       <c r="AB10" s="9"/>
       <c r="AC10" s="9"/>
       <c r="AD10" s="9"/>
       <c r="AE10" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AF10" s="17">
         <v>2.1691999999999999E-2</v>
@@ -2298,10 +2319,10 @@
       </c>
       <c r="F11" s="9"/>
       <c r="G11" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="I11" s="9" t="s">
         <v>53</v>
@@ -2313,10 +2334,10 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
       <c r="N11" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="O11" s="14" t="s">
         <v>73</v>
-      </c>
-      <c r="O11" s="14" t="s">
-        <v>74</v>
       </c>
       <c r="P11" s="9"/>
       <c r="Q11" s="9"/>
@@ -2335,14 +2356,14 @@
       <c r="X11" s="9"/>
       <c r="Y11" s="9"/>
       <c r="Z11" s="9" t="s">
-        <v>57</v>
+        <v>245</v>
       </c>
       <c r="AA11" s="9"/>
       <c r="AB11" s="9"/>
       <c r="AC11" s="9"/>
       <c r="AD11" s="9"/>
       <c r="AE11" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AF11" s="12">
         <v>7.293E-3</v>
@@ -2376,14 +2397,14 @@
         <v>41</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="H12" s="9" t="s">
         <v>76</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>77</v>
       </c>
       <c r="I12" s="9" t="s">
         <v>48</v>
@@ -2424,7 +2445,7 @@
         <v>10</v>
       </c>
       <c r="AM12" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AN12" s="9">
         <v>300</v>
@@ -2444,14 +2465,14 @@
         <v>41</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F13" s="9"/>
       <c r="G13" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="H13" s="9" t="s">
         <v>79</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>80</v>
       </c>
       <c r="I13" s="9" t="s">
         <v>53</v>
@@ -2463,7 +2484,7 @@
       <c r="L13" s="11"/>
       <c r="M13" s="11"/>
       <c r="N13" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O13" s="14">
         <v>40822426</v>
@@ -2485,14 +2506,14 @@
       <c r="X13" s="9"/>
       <c r="Y13" s="9"/>
       <c r="Z13" s="9" t="s">
-        <v>57</v>
+        <v>245</v>
       </c>
       <c r="AA13" s="9"/>
       <c r="AB13" s="9"/>
       <c r="AC13" s="9"/>
       <c r="AD13" s="9"/>
       <c r="AE13" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AF13" s="17">
         <v>2.0908E-2</v>
@@ -2526,14 +2547,14 @@
         <v>41</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="H14" s="9" t="s">
         <v>81</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>82</v>
       </c>
       <c r="I14" s="9" t="s">
         <v>53</v>
@@ -2545,10 +2566,10 @@
       <c r="L14" s="11"/>
       <c r="M14" s="11"/>
       <c r="N14" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="O14" s="14" t="s">
         <v>83</v>
-      </c>
-      <c r="O14" s="14" t="s">
-        <v>84</v>
       </c>
       <c r="P14" s="14"/>
       <c r="Q14" s="14"/>
@@ -2567,14 +2588,14 @@
       <c r="X14" s="9"/>
       <c r="Y14" s="9"/>
       <c r="Z14" s="9" t="s">
-        <v>57</v>
+        <v>245</v>
       </c>
       <c r="AA14" s="9"/>
       <c r="AB14" s="9"/>
       <c r="AC14" s="9"/>
       <c r="AD14" s="9"/>
       <c r="AE14" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AF14" s="17">
         <v>1.1924000000000001E-2</v>
@@ -2608,14 +2629,14 @@
         <v>41</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F15" s="9"/>
       <c r="G15" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="H15" s="9" t="s">
         <v>85</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>86</v>
       </c>
       <c r="I15" s="9" t="s">
         <v>48</v>
@@ -2676,14 +2697,14 @@
         <v>41</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F16" s="9"/>
       <c r="G16" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="H16" s="9" t="s">
         <v>87</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>88</v>
       </c>
       <c r="I16" s="9" t="s">
         <v>53</v>
@@ -2695,10 +2716,10 @@
       <c r="L16" s="11"/>
       <c r="M16" s="11"/>
       <c r="N16" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O16" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P16" s="14"/>
       <c r="Q16" s="14"/>
@@ -2717,14 +2738,14 @@
       <c r="X16" s="9"/>
       <c r="Y16" s="9"/>
       <c r="Z16" s="9" t="s">
-        <v>57</v>
+        <v>245</v>
       </c>
       <c r="AA16" s="9"/>
       <c r="AB16" s="9"/>
       <c r="AC16" s="9"/>
       <c r="AD16" s="9"/>
       <c r="AE16" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AF16" s="17">
         <v>1.1924000000000001E-2</v>
@@ -2758,14 +2779,14 @@
         <v>41</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F17" s="9"/>
       <c r="G17" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="H17" s="9" t="s">
         <v>90</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>91</v>
       </c>
       <c r="I17" s="9" t="s">
         <v>48</v>
@@ -2806,7 +2827,7 @@
         <v>15</v>
       </c>
       <c r="AM17" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AN17" s="9">
         <v>300</v>
@@ -2826,14 +2847,14 @@
         <v>41</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="H18" s="14" t="s">
         <v>93</v>
-      </c>
-      <c r="H18" s="14" t="s">
-        <v>94</v>
       </c>
       <c r="I18" s="9" t="s">
         <v>53</v>
@@ -2845,10 +2866,10 @@
       <c r="L18" s="9"/>
       <c r="M18" s="9"/>
       <c r="N18" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O18" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P18" s="14"/>
       <c r="Q18" s="14"/>
@@ -2867,14 +2888,14 @@
       <c r="X18" s="9"/>
       <c r="Y18" s="9"/>
       <c r="Z18" s="9" t="s">
-        <v>57</v>
+        <v>245</v>
       </c>
       <c r="AA18" s="9"/>
       <c r="AB18" s="9"/>
       <c r="AC18" s="9"/>
       <c r="AD18" s="9"/>
       <c r="AE18" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AF18" s="12">
         <v>2.0892000000000001E-2</v>
@@ -2908,14 +2929,14 @@
         <v>41</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F19" s="9"/>
       <c r="G19" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="I19" s="9" t="s">
         <v>53</v>
@@ -2927,7 +2948,7 @@
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
       <c r="N19" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O19" s="14">
         <v>4607042430879</v>
@@ -2949,14 +2970,14 @@
       <c r="X19" s="9"/>
       <c r="Y19" s="9"/>
       <c r="Z19" s="9" t="s">
-        <v>57</v>
+        <v>245</v>
       </c>
       <c r="AA19" s="9"/>
       <c r="AB19" s="9"/>
       <c r="AC19" s="9"/>
       <c r="AD19" s="9"/>
       <c r="AE19" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AF19" s="12">
         <v>1.1924000000000001E-2</v>
@@ -2990,14 +3011,14 @@
         <v>41</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F20" s="9"/>
       <c r="G20" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="H20" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="I20" s="9" t="s">
         <v>53</v>
@@ -3009,10 +3030,10 @@
       <c r="L20" s="9"/>
       <c r="M20" s="9"/>
       <c r="N20" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O20" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P20" s="9"/>
       <c r="Q20" s="9"/>
@@ -3031,14 +3052,14 @@
       <c r="X20" s="9"/>
       <c r="Y20" s="9"/>
       <c r="Z20" s="9" t="s">
-        <v>57</v>
+        <v>245</v>
       </c>
       <c r="AA20" s="9"/>
       <c r="AB20" s="9"/>
       <c r="AC20" s="9"/>
       <c r="AD20" s="9"/>
       <c r="AE20" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AF20" s="12">
         <v>1.1924000000000001E-2</v>
@@ -3072,14 +3093,14 @@
         <v>41</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F21" s="9"/>
       <c r="G21" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="I21" s="9" t="s">
         <v>53</v>
@@ -3091,10 +3112,10 @@
       <c r="L21" s="9"/>
       <c r="M21" s="9"/>
       <c r="N21" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O21" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P21" s="9"/>
       <c r="Q21" s="9"/>
@@ -3113,14 +3134,14 @@
       <c r="X21" s="9"/>
       <c r="Y21" s="9"/>
       <c r="Z21" s="9" t="s">
-        <v>57</v>
+        <v>245</v>
       </c>
       <c r="AA21" s="9"/>
       <c r="AB21" s="9"/>
       <c r="AC21" s="9"/>
       <c r="AD21" s="9"/>
       <c r="AE21" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AF21" s="12">
         <v>1.1924000000000001E-2</v>
@@ -3154,14 +3175,14 @@
         <v>41</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F22" s="9"/>
       <c r="G22" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="H22" s="9" t="s">
         <v>105</v>
-      </c>
-      <c r="H22" s="9" t="s">
-        <v>106</v>
       </c>
       <c r="I22" s="9" t="s">
         <v>48</v>
@@ -3202,7 +3223,7 @@
         <v>20</v>
       </c>
       <c r="AM22" s="15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AN22" s="9">
         <v>300</v>
@@ -3222,14 +3243,14 @@
         <v>41</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F23" s="9"/>
       <c r="G23" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="H23" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="I23" s="9" t="s">
         <v>53</v>
@@ -3241,7 +3262,7 @@
       <c r="L23" s="9"/>
       <c r="M23" s="9"/>
       <c r="N23" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O23" s="14">
         <v>4607174577787</v>
@@ -3263,14 +3284,14 @@
       <c r="X23" s="9"/>
       <c r="Y23" s="9"/>
       <c r="Z23" s="9" t="s">
-        <v>57</v>
+        <v>245</v>
       </c>
       <c r="AA23" s="9"/>
       <c r="AB23" s="9"/>
       <c r="AC23" s="9"/>
       <c r="AD23" s="9"/>
       <c r="AE23" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AF23" s="12">
         <v>2.0892000000000001E-2</v>
@@ -3304,14 +3325,14 @@
         <v>41</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F24" s="9"/>
       <c r="G24" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="H24" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="I24" s="9" t="s">
         <v>53</v>
@@ -3323,7 +3344,7 @@
       <c r="L24" s="9"/>
       <c r="M24" s="9"/>
       <c r="N24" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O24" s="14">
         <v>4650075420980</v>
@@ -3345,14 +3366,14 @@
       <c r="X24" s="9"/>
       <c r="Y24" s="9"/>
       <c r="Z24" s="9" t="s">
-        <v>57</v>
+        <v>245</v>
       </c>
       <c r="AA24" s="9"/>
       <c r="AB24" s="9"/>
       <c r="AC24" s="9"/>
       <c r="AD24" s="9"/>
       <c r="AE24" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AF24" s="12">
         <v>7.4479999999999998E-3</v>
@@ -3386,14 +3407,14 @@
         <v>41</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F25" s="9"/>
       <c r="G25" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="H25" s="9" t="s">
         <v>112</v>
-      </c>
-      <c r="H25" s="9" t="s">
-        <v>113</v>
       </c>
       <c r="I25" s="9" t="s">
         <v>53</v>
@@ -3405,10 +3426,10 @@
       <c r="L25" s="11"/>
       <c r="M25" s="11"/>
       <c r="N25" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="O25" s="14" t="s">
         <v>114</v>
-      </c>
-      <c r="O25" s="14" t="s">
-        <v>115</v>
       </c>
       <c r="P25" s="14"/>
       <c r="Q25" s="14"/>
@@ -3427,14 +3448,14 @@
       <c r="X25" s="9"/>
       <c r="Y25" s="9"/>
       <c r="Z25" s="9" t="s">
-        <v>57</v>
+        <v>245</v>
       </c>
       <c r="AA25" s="9"/>
       <c r="AB25" s="9"/>
       <c r="AC25" s="9"/>
       <c r="AD25" s="9"/>
       <c r="AE25" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AF25" s="17">
         <v>7.4479999999999998E-3</v>
@@ -3468,14 +3489,14 @@
         <v>41</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F26" s="9"/>
       <c r="G26" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="H26" s="9" t="s">
         <v>116</v>
-      </c>
-      <c r="H26" s="9" t="s">
-        <v>117</v>
       </c>
       <c r="I26" s="9" t="s">
         <v>53</v>
@@ -3487,10 +3508,10 @@
       <c r="L26" s="11"/>
       <c r="M26" s="11"/>
       <c r="N26" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="O26" s="14" t="s">
         <v>118</v>
-      </c>
-      <c r="O26" s="14" t="s">
-        <v>119</v>
       </c>
       <c r="P26" s="14"/>
       <c r="Q26" s="14"/>
@@ -3509,14 +3530,14 @@
       <c r="X26" s="9"/>
       <c r="Y26" s="9"/>
       <c r="Z26" s="9" t="s">
-        <v>57</v>
+        <v>245</v>
       </c>
       <c r="AA26" s="9"/>
       <c r="AB26" s="9"/>
       <c r="AC26" s="9"/>
       <c r="AD26" s="9"/>
       <c r="AE26" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AF26" s="17">
         <v>7.4479999999999998E-3</v>
@@ -3550,14 +3571,14 @@
         <v>41</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F27" s="9"/>
       <c r="G27" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="H27" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="I27" s="9" t="s">
         <v>53</v>
@@ -3569,10 +3590,10 @@
       <c r="L27" s="9"/>
       <c r="M27" s="9"/>
       <c r="N27" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="O27" s="14" t="s">
         <v>122</v>
-      </c>
-      <c r="O27" s="14" t="s">
-        <v>123</v>
       </c>
       <c r="P27" s="9"/>
       <c r="Q27" s="9"/>
@@ -3591,14 +3612,14 @@
       <c r="X27" s="9"/>
       <c r="Y27" s="9"/>
       <c r="Z27" s="9" t="s">
-        <v>57</v>
+        <v>245</v>
       </c>
       <c r="AA27" s="9"/>
       <c r="AB27" s="9"/>
       <c r="AC27" s="9"/>
       <c r="AD27" s="9"/>
       <c r="AE27" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AF27" s="12">
         <v>7.4479999999999998E-3</v>
@@ -3632,14 +3653,14 @@
         <v>41</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F28" s="9"/>
       <c r="G28" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="H28" s="9" t="s">
         <v>124</v>
-      </c>
-      <c r="H28" s="9" t="s">
-        <v>125</v>
       </c>
       <c r="I28" s="9" t="s">
         <v>53</v>
@@ -3651,10 +3672,10 @@
       <c r="L28" s="11"/>
       <c r="M28" s="11"/>
       <c r="N28" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O28" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="P28" s="14"/>
       <c r="Q28" s="14"/>
@@ -3673,14 +3694,14 @@
       <c r="X28" s="9"/>
       <c r="Y28" s="9"/>
       <c r="Z28" s="9" t="s">
-        <v>57</v>
+        <v>245</v>
       </c>
       <c r="AA28" s="9"/>
       <c r="AB28" s="9"/>
       <c r="AC28" s="9"/>
       <c r="AD28" s="9"/>
       <c r="AE28" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AF28" s="17">
         <v>7.4479999999999998E-3</v>
@@ -3714,14 +3735,14 @@
         <v>41</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F29" s="9"/>
       <c r="G29" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="H29" s="9" t="s">
         <v>127</v>
-      </c>
-      <c r="H29" s="9" t="s">
-        <v>128</v>
       </c>
       <c r="I29" s="9" t="s">
         <v>53</v>
@@ -3733,10 +3754,10 @@
       <c r="L29" s="11"/>
       <c r="M29" s="11"/>
       <c r="N29" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O29" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P29" s="14"/>
       <c r="Q29" s="14"/>
@@ -3755,14 +3776,14 @@
       <c r="X29" s="9"/>
       <c r="Y29" s="9"/>
       <c r="Z29" s="9" t="s">
-        <v>57</v>
+        <v>245</v>
       </c>
       <c r="AA29" s="9"/>
       <c r="AB29" s="9"/>
       <c r="AC29" s="9"/>
       <c r="AD29" s="9"/>
       <c r="AE29" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AF29" s="17">
         <v>7.4479999999999998E-3</v>
@@ -3787,7 +3808,7 @@
         <v>37</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>40</v>
@@ -3798,10 +3819,10 @@
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
       <c r="G30" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="H30" s="10" t="s">
         <v>131</v>
-      </c>
-      <c r="H30" s="10" t="s">
-        <v>132</v>
       </c>
       <c r="I30" s="10" t="s">
         <v>41</v>
@@ -3840,7 +3861,7 @@
         <v>310</v>
       </c>
       <c r="AM30" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AN30" s="9"/>
     </row>
@@ -3849,7 +3870,7 @@
         <v>38</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C31" s="9" t="s">
         <v>40</v>
@@ -3860,10 +3881,10 @@
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
       <c r="G31" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="H31" s="10" t="s">
         <v>134</v>
-      </c>
-      <c r="H31" s="10" t="s">
-        <v>135</v>
       </c>
       <c r="I31" s="10" t="s">
         <v>41</v>
@@ -3913,7 +3934,7 @@
         <v>39</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C32" s="9" t="s">
         <v>40</v>
@@ -3922,17 +3943,17 @@
         <v>41</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F32" s="9"/>
       <c r="G32" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="H32" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="H32" s="9" t="s">
+      <c r="I32" s="9" t="s">
         <v>138</v>
-      </c>
-      <c r="I32" s="9" t="s">
-        <v>139</v>
       </c>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
@@ -3943,7 +3964,7 @@
       <c r="P32" s="14"/>
       <c r="Q32" s="14"/>
       <c r="R32" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="S32" s="9"/>
       <c r="T32" s="9"/>
@@ -3957,10 +3978,10 @@
       <c r="AB32" s="9"/>
       <c r="AC32" s="9"/>
       <c r="AD32" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="AE32" s="9" t="s">
         <v>141</v>
-      </c>
-      <c r="AE32" s="9" t="s">
-        <v>142</v>
       </c>
       <c r="AF32" s="12">
         <v>0.08</v>
@@ -3968,7 +3989,7 @@
       <c r="AG32" s="9"/>
       <c r="AH32" s="9"/>
       <c r="AI32" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AJ32" s="9"/>
       <c r="AK32" s="9">
@@ -3978,7 +3999,7 @@
         <v>26</v>
       </c>
       <c r="AM32" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AN32" s="9">
         <v>311</v>
@@ -3989,7 +4010,7 @@
         <v>40</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C33" s="9" t="s">
         <v>40</v>
@@ -3998,17 +4019,17 @@
         <v>41</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F33" s="9"/>
       <c r="G33" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="H33" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="H33" s="9" t="s">
+      <c r="I33" s="9" t="s">
         <v>146</v>
-      </c>
-      <c r="I33" s="9" t="s">
-        <v>147</v>
       </c>
       <c r="J33" s="9"/>
       <c r="K33" s="9">
@@ -4017,23 +4038,23 @@
       <c r="L33" s="9"/>
       <c r="M33" s="9"/>
       <c r="N33" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="O33" s="14" t="s">
         <v>148</v>
-      </c>
-      <c r="O33" s="14" t="s">
-        <v>149</v>
       </c>
       <c r="P33" s="14"/>
       <c r="Q33" s="14"/>
       <c r="R33" s="9"/>
       <c r="S33" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="T33" s="9"/>
       <c r="U33" s="9"/>
       <c r="V33" s="9"/>
       <c r="W33" s="9"/>
       <c r="X33" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Y33" s="9"/>
       <c r="Z33" s="9"/>
@@ -4041,16 +4062,16 @@
       <c r="AB33" s="9"/>
       <c r="AC33" s="9"/>
       <c r="AD33" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AE33" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AF33" s="12"/>
       <c r="AG33" s="9"/>
       <c r="AH33" s="9"/>
       <c r="AI33" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AJ33" s="9"/>
       <c r="AK33" s="9">
@@ -4069,7 +4090,7 @@
         <v>41</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C34" s="9" t="s">
         <v>40</v>
@@ -4078,17 +4099,17 @@
         <v>41</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F34" s="9"/>
       <c r="G34" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="H34" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="H34" s="9" t="s">
+      <c r="I34" s="9" t="s">
         <v>154</v>
-      </c>
-      <c r="I34" s="9" t="s">
-        <v>155</v>
       </c>
       <c r="J34" s="9"/>
       <c r="K34" s="9">
@@ -4097,23 +4118,23 @@
       <c r="L34" s="9"/>
       <c r="M34" s="9"/>
       <c r="N34" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="O34" s="14" t="s">
         <v>148</v>
-      </c>
-      <c r="O34" s="14" t="s">
-        <v>149</v>
       </c>
       <c r="P34" s="14"/>
       <c r="Q34" s="14"/>
       <c r="R34" s="9"/>
       <c r="S34" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="T34" s="9"/>
       <c r="U34" s="9"/>
       <c r="V34" s="9"/>
       <c r="W34" s="9"/>
       <c r="X34" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Y34" s="9"/>
       <c r="Z34" s="9"/>
@@ -4121,10 +4142,10 @@
       <c r="AB34" s="9"/>
       <c r="AC34" s="9"/>
       <c r="AD34" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AE34" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AF34" s="12"/>
       <c r="AG34" s="9"/>
@@ -4147,7 +4168,7 @@
         <v>42</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C35" s="9" t="s">
         <v>40</v>
@@ -4158,10 +4179,10 @@
       <c r="E35" s="9"/>
       <c r="F35" s="9"/>
       <c r="G35" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="H35" s="10" t="s">
         <v>157</v>
-      </c>
-      <c r="H35" s="10" t="s">
-        <v>158</v>
       </c>
       <c r="I35" s="10" t="s">
         <v>41</v>
@@ -4200,7 +4221,7 @@
         <v>312</v>
       </c>
       <c r="AM35" s="15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AN35" s="9">
         <v>310</v>
@@ -4211,7 +4232,7 @@
         <v>43</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C36" s="9" t="s">
         <v>40</v>
@@ -4220,17 +4241,17 @@
         <v>41</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F36" s="9"/>
       <c r="G36" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="H36" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="H36" s="9" t="s">
+      <c r="I36" s="9" t="s">
         <v>162</v>
-      </c>
-      <c r="I36" s="9" t="s">
-        <v>163</v>
       </c>
       <c r="J36" s="9"/>
       <c r="K36" s="9">
@@ -4240,13 +4261,13 @@
       <c r="M36" s="9"/>
       <c r="N36" s="9"/>
       <c r="O36" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P36" s="14"/>
       <c r="Q36" s="14"/>
       <c r="R36" s="9"/>
       <c r="S36" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="T36" s="9"/>
       <c r="U36" s="9"/>
@@ -4255,18 +4276,18 @@
       <c r="X36" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="Y36" s="9" t="s">
-        <v>164</v>
+      <c r="Y36" s="23" t="s">
+        <v>246</v>
       </c>
       <c r="Z36" s="9"/>
       <c r="AA36" s="9"/>
       <c r="AB36" s="9"/>
       <c r="AC36" s="9"/>
       <c r="AD36" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AE36" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AF36" s="12">
         <v>0.04</v>
@@ -4274,10 +4295,10 @@
       <c r="AG36" s="9"/>
       <c r="AH36" s="9"/>
       <c r="AI36" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AJ36" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AK36" s="9">
         <v>2</v>
@@ -4295,7 +4316,7 @@
         <v>44</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C37" s="9" t="s">
         <v>40</v>
@@ -4304,17 +4325,17 @@
         <v>41</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F37" s="9"/>
       <c r="G37" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="H37" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="H37" s="9" t="s">
+      <c r="I37" s="9" t="s">
         <v>168</v>
-      </c>
-      <c r="I37" s="9" t="s">
-        <v>169</v>
       </c>
       <c r="J37" s="9"/>
       <c r="K37" s="9">
@@ -4323,23 +4344,23 @@
       <c r="L37" s="9"/>
       <c r="M37" s="9"/>
       <c r="N37" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="O37" s="14" t="s">
         <v>148</v>
-      </c>
-      <c r="O37" s="14" t="s">
-        <v>149</v>
       </c>
       <c r="P37" s="14"/>
       <c r="Q37" s="14"/>
       <c r="R37" s="9"/>
       <c r="S37" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="T37" s="9"/>
       <c r="U37" s="9"/>
       <c r="V37" s="9"/>
       <c r="W37" s="9"/>
       <c r="X37" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Y37" s="9"/>
       <c r="Z37" s="9"/>
@@ -4347,10 +4368,10 @@
       <c r="AB37" s="9"/>
       <c r="AC37" s="9"/>
       <c r="AD37" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="AE37" s="9" t="s">
         <v>141</v>
-      </c>
-      <c r="AE37" s="9" t="s">
-        <v>142</v>
       </c>
       <c r="AF37" s="12">
         <v>0.04</v>
@@ -4358,10 +4379,10 @@
       <c r="AG37" s="9"/>
       <c r="AH37" s="9"/>
       <c r="AI37" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AJ37" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AK37" s="9">
         <v>2</v>
@@ -4379,7 +4400,7 @@
         <v>45</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C38" s="9" t="s">
         <v>40</v>
@@ -4388,17 +4409,17 @@
         <v>41</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F38" s="9"/>
       <c r="G38" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="H38" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="H38" s="9" t="s">
+      <c r="I38" s="9" t="s">
         <v>172</v>
-      </c>
-      <c r="I38" s="9" t="s">
-        <v>173</v>
       </c>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
@@ -4409,23 +4430,23 @@
         <v>15</v>
       </c>
       <c r="N38" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="O38" s="14" t="s">
         <v>148</v>
-      </c>
-      <c r="O38" s="14" t="s">
-        <v>149</v>
       </c>
       <c r="P38" s="14"/>
       <c r="Q38" s="14"/>
       <c r="R38" s="9"/>
       <c r="S38" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="T38" s="9"/>
       <c r="U38" s="9"/>
       <c r="V38" s="9"/>
       <c r="W38" s="9"/>
       <c r="X38" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Y38" s="9"/>
       <c r="Z38" s="9"/>
@@ -4433,10 +4454,10 @@
       <c r="AB38" s="9"/>
       <c r="AC38" s="9"/>
       <c r="AD38" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AE38" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AF38" s="12">
         <v>0.04</v>
@@ -4444,10 +4465,10 @@
       <c r="AG38" s="9"/>
       <c r="AH38" s="9"/>
       <c r="AI38" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AJ38" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AK38" s="9">
         <v>2</v>
@@ -4465,7 +4486,7 @@
         <v>46</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C39" s="9" t="s">
         <v>40</v>
@@ -4476,10 +4497,10 @@
       <c r="E39" s="9"/>
       <c r="F39" s="9"/>
       <c r="G39" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="H39" s="10" t="s">
         <v>174</v>
-      </c>
-      <c r="H39" s="10" t="s">
-        <v>175</v>
       </c>
       <c r="I39" s="10" t="s">
         <v>41</v>
@@ -4518,7 +4539,7 @@
         <v>400</v>
       </c>
       <c r="AM39" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AN39" s="9"/>
     </row>
@@ -4527,7 +4548,7 @@
         <v>48</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C40" s="9" t="s">
         <v>40</v>
@@ -4536,14 +4557,14 @@
         <v>41</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F40" s="9"/>
       <c r="G40" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="H40" s="9" t="s">
         <v>178</v>
-      </c>
-      <c r="H40" s="9" t="s">
-        <v>179</v>
       </c>
       <c r="I40" s="9" t="s">
         <v>53</v>
@@ -4555,10 +4576,10 @@
       <c r="L40" s="9"/>
       <c r="M40" s="9"/>
       <c r="N40" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="O40" s="9" t="s">
         <v>148</v>
-      </c>
-      <c r="O40" s="9" t="s">
-        <v>149</v>
       </c>
       <c r="P40" s="9"/>
       <c r="Q40" s="9"/>
@@ -4566,27 +4587,27 @@
         <v>54</v>
       </c>
       <c r="S40" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="T40" s="9"/>
       <c r="U40" s="9"/>
       <c r="V40" s="9"/>
       <c r="W40" s="9"/>
       <c r="X40" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="Y40" s="9" t="s">
-        <v>246</v>
+        <v>179</v>
+      </c>
+      <c r="Y40" s="23" t="s">
+        <v>247</v>
       </c>
       <c r="Z40" s="9"/>
       <c r="AA40" s="9"/>
       <c r="AB40" s="9"/>
       <c r="AC40" s="9"/>
       <c r="AD40" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AE40" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AF40" s="12">
         <v>0.05</v>
@@ -4611,7 +4632,7 @@
         <v>49</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C41" s="9" t="s">
         <v>40</v>
@@ -4620,17 +4641,17 @@
         <v>41</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F41" s="9"/>
       <c r="G41" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="H41" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="H41" s="9" t="s">
+      <c r="I41" s="9" t="s">
         <v>183</v>
-      </c>
-      <c r="I41" s="9" t="s">
-        <v>184</v>
       </c>
       <c r="J41" s="9"/>
       <c r="K41" s="9">
@@ -4643,7 +4664,7 @@
       <c r="P41" s="9"/>
       <c r="Q41" s="9"/>
       <c r="R41" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="S41" s="9"/>
       <c r="T41" s="9"/>
@@ -4651,20 +4672,20 @@
       <c r="V41" s="9"/>
       <c r="W41" s="9"/>
       <c r="X41" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="Y41" s="9" t="s">
-        <v>247</v>
+        <v>179</v>
+      </c>
+      <c r="Y41" s="23" t="s">
+        <v>248</v>
       </c>
       <c r="Z41" s="9"/>
       <c r="AA41" s="9"/>
       <c r="AB41" s="9"/>
       <c r="AC41" s="9"/>
       <c r="AD41" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AE41" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AF41" s="12">
         <v>0.28000000000000003</v>
@@ -4680,7 +4701,7 @@
         <v>34</v>
       </c>
       <c r="AM41" s="15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AN41" s="9">
         <v>400</v>
@@ -4691,7 +4712,7 @@
         <v>50</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C42" s="9" t="s">
         <v>40</v>
@@ -4700,14 +4721,14 @@
         <v>41</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F42" s="9"/>
       <c r="G42" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="H42" s="9" t="s">
         <v>187</v>
-      </c>
-      <c r="H42" s="9" t="s">
-        <v>188</v>
       </c>
       <c r="I42" s="9" t="s">
         <v>53</v>
@@ -4719,10 +4740,10 @@
       <c r="L42" s="9"/>
       <c r="M42" s="9"/>
       <c r="N42" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="O42" s="9" t="s">
         <v>189</v>
-      </c>
-      <c r="O42" s="9" t="s">
-        <v>190</v>
       </c>
       <c r="P42" s="9"/>
       <c r="Q42" s="9"/>
@@ -4737,20 +4758,20 @@
       <c r="V42" s="9"/>
       <c r="W42" s="9"/>
       <c r="X42" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="Y42" s="9" t="s">
-        <v>247</v>
+        <v>179</v>
+      </c>
+      <c r="Y42" s="23" t="s">
+        <v>248</v>
       </c>
       <c r="Z42" s="9"/>
       <c r="AA42" s="9"/>
       <c r="AB42" s="9"/>
       <c r="AC42" s="9"/>
       <c r="AD42" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AE42" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AF42" s="12"/>
       <c r="AG42" s="9"/>
@@ -4773,7 +4794,7 @@
         <v>51</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C43" s="9" t="s">
         <v>40</v>
@@ -4782,14 +4803,14 @@
         <v>41</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F43" s="9"/>
       <c r="G43" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="H43" s="9" t="s">
         <v>191</v>
-      </c>
-      <c r="H43" s="9" t="s">
-        <v>192</v>
       </c>
       <c r="I43" s="9" t="s">
         <v>53</v>
@@ -4801,13 +4822,13 @@
       <c r="L43" s="9"/>
       <c r="M43" s="9"/>
       <c r="N43" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="O43" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="O43" s="9" t="s">
+      <c r="P43" s="9" t="s">
         <v>194</v>
-      </c>
-      <c r="P43" s="9" t="s">
-        <v>195</v>
       </c>
       <c r="Q43" s="9"/>
       <c r="R43" s="9" t="s">
@@ -4821,26 +4842,26 @@
       <c r="V43" s="9"/>
       <c r="W43" s="9"/>
       <c r="X43" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="Y43" s="9" t="s">
-        <v>247</v>
+        <v>179</v>
+      </c>
+      <c r="Y43" s="23" t="s">
+        <v>248</v>
       </c>
       <c r="Z43" s="9"/>
       <c r="AA43" s="9"/>
       <c r="AB43" s="9"/>
       <c r="AC43" s="9"/>
       <c r="AD43" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AE43" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AF43" s="12"/>
       <c r="AG43" s="9"/>
       <c r="AH43" s="9"/>
       <c r="AI43" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AJ43" s="9"/>
       <c r="AK43" s="9">
@@ -4859,7 +4880,7 @@
         <v>52</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C44" s="9" t="s">
         <v>40</v>
@@ -4868,17 +4889,17 @@
         <v>41</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F44" s="9"/>
       <c r="G44" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="H44" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="H44" s="9" t="s">
-        <v>199</v>
-      </c>
       <c r="I44" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J44" s="9"/>
       <c r="K44" s="9">
@@ -4891,7 +4912,7 @@
       <c r="P44" s="9"/>
       <c r="Q44" s="14"/>
       <c r="R44" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="S44" s="9"/>
       <c r="T44" s="9"/>
@@ -4899,10 +4920,10 @@
       <c r="V44" s="9"/>
       <c r="W44" s="9"/>
       <c r="X44" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="Y44" s="9" t="s">
-        <v>247</v>
+        <v>179</v>
+      </c>
+      <c r="Y44" s="23" t="s">
+        <v>248</v>
       </c>
       <c r="Z44" s="9"/>
       <c r="AA44" s="9"/>
@@ -4910,7 +4931,7 @@
       <c r="AC44" s="9"/>
       <c r="AD44" s="9"/>
       <c r="AE44" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AF44" s="17">
         <v>7.0000000000000007E-2</v>
@@ -4937,7 +4958,7 @@
         <v>56</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C45" s="9" t="s">
         <v>40</v>
@@ -4946,17 +4967,17 @@
         <v>41</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F45" s="9"/>
       <c r="G45" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="H45" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="H45" s="9" t="s">
+      <c r="I45" s="9" t="s">
         <v>201</v>
-      </c>
-      <c r="I45" s="9" t="s">
-        <v>202</v>
       </c>
       <c r="J45" s="9"/>
       <c r="K45" s="9">
@@ -4969,7 +4990,7 @@
       <c r="P45" s="14"/>
       <c r="Q45" s="9"/>
       <c r="R45" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="S45" s="9"/>
       <c r="T45" s="9"/>
@@ -4977,20 +4998,20 @@
       <c r="V45" s="9"/>
       <c r="W45" s="9"/>
       <c r="X45" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="Y45" s="9" t="s">
-        <v>247</v>
+        <v>179</v>
+      </c>
+      <c r="Y45" s="23" t="s">
+        <v>248</v>
       </c>
       <c r="Z45" s="9"/>
       <c r="AA45" s="9"/>
       <c r="AB45" s="9"/>
       <c r="AC45" s="9"/>
       <c r="AD45" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AE45" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AF45" s="17"/>
       <c r="AG45" s="9"/>
@@ -5004,7 +5025,7 @@
         <v>769</v>
       </c>
       <c r="AM45" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AN45" s="9">
         <v>680</v>
@@ -5015,7 +5036,7 @@
         <v>57</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C46" s="9" t="s">
         <v>40</v>
@@ -5024,16 +5045,16 @@
         <v>41</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F46" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="G46" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="G46" s="9" t="s">
+      <c r="H46" s="9" t="s">
         <v>205</v>
-      </c>
-      <c r="H46" s="9" t="s">
-        <v>206</v>
       </c>
       <c r="I46" s="9" t="s">
         <v>53</v>
@@ -5045,42 +5066,42 @@
       <c r="L46" s="9"/>
       <c r="M46" s="9"/>
       <c r="N46" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O46" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="P46" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Q46" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="R46" s="9" t="s">
         <v>54</v>
       </c>
       <c r="S46" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="T46" s="9"/>
       <c r="U46" s="9"/>
       <c r="V46" s="9"/>
       <c r="W46" s="9"/>
       <c r="X46" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="Y46" s="9" t="s">
-        <v>247</v>
+        <v>179</v>
+      </c>
+      <c r="Y46" s="23" t="s">
+        <v>248</v>
       </c>
       <c r="Z46" s="9"/>
       <c r="AA46" s="9"/>
       <c r="AB46" s="9"/>
       <c r="AC46" s="9"/>
       <c r="AD46" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AE46" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AF46" s="17"/>
       <c r="AG46" s="9"/>
@@ -5103,7 +5124,7 @@
         <v>58</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C47" s="9" t="s">
         <v>40</v>
@@ -5112,16 +5133,16 @@
         <v>41</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F47" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="G47" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="G47" s="9" t="s">
+      <c r="H47" s="9" t="s">
         <v>210</v>
-      </c>
-      <c r="H47" s="9" t="s">
-        <v>211</v>
       </c>
       <c r="I47" s="9" t="s">
         <v>53</v>
@@ -5133,13 +5154,13 @@
       <c r="L47" s="9"/>
       <c r="M47" s="9"/>
       <c r="N47" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="O47" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="O47" s="9" t="s">
+      <c r="P47" s="9" t="s">
         <v>194</v>
-      </c>
-      <c r="P47" s="9" t="s">
-        <v>195</v>
       </c>
       <c r="Q47" s="9"/>
       <c r="R47" s="9" t="s">
@@ -5153,26 +5174,26 @@
       <c r="V47" s="9"/>
       <c r="W47" s="9"/>
       <c r="X47" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="Y47" s="9" t="s">
-        <v>247</v>
+        <v>179</v>
+      </c>
+      <c r="Y47" s="23" t="s">
+        <v>248</v>
       </c>
       <c r="Z47" s="9"/>
       <c r="AA47" s="9"/>
       <c r="AB47" s="9"/>
       <c r="AC47" s="9"/>
       <c r="AD47" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AE47" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AF47" s="17"/>
       <c r="AG47" s="9"/>
       <c r="AH47" s="9"/>
       <c r="AI47" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AJ47" s="9"/>
       <c r="AK47" s="9">
@@ -5191,29 +5212,29 @@
         <v>59</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C48" s="9" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="E48" s="19" t="s">
         <v>212</v>
-      </c>
-      <c r="E48" s="19" t="s">
-        <v>213</v>
       </c>
       <c r="F48" s="19"/>
       <c r="G48" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="H48" s="19" t="s">
         <v>214</v>
       </c>
-      <c r="H48" s="19" t="s">
+      <c r="I48" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="I48" s="9" t="s">
+      <c r="J48" s="9" t="s">
         <v>216</v>
-      </c>
-      <c r="J48" s="9" t="s">
-        <v>217</v>
       </c>
       <c r="K48" s="9"/>
       <c r="L48" s="9"/>
@@ -5224,7 +5245,7 @@
       <c r="Q48" s="9"/>
       <c r="R48" s="9"/>
       <c r="S48" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="T48" s="9"/>
       <c r="U48" s="9"/>
@@ -5248,7 +5269,7 @@
         <v>37</v>
       </c>
       <c r="AM48" s="15" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AN48" s="9"/>
     </row>
@@ -5257,42 +5278,42 @@
         <v>60</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C49" s="9" t="s">
         <v>40</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E49" s="19" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F49" s="19"/>
       <c r="G49" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="H49" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="H49" s="19" t="s">
+      <c r="I49" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="I49" s="9" t="s">
+      <c r="J49" s="9" t="s">
         <v>223</v>
-      </c>
-      <c r="J49" s="9" t="s">
-        <v>224</v>
       </c>
       <c r="K49" s="9"/>
       <c r="L49" s="9"/>
       <c r="M49" s="9"/>
       <c r="N49" s="9"/>
       <c r="O49" s="15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="P49" s="9"/>
       <c r="Q49" s="9"/>
       <c r="R49" s="9"/>
       <c r="S49" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="T49" s="9"/>
       <c r="U49" s="9"/>
@@ -5325,42 +5346,42 @@
         <v>61</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C50" s="9" t="s">
         <v>40</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E50" s="19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F50" s="19"/>
       <c r="G50" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="H50" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="H50" s="19" t="s">
-        <v>227</v>
-      </c>
       <c r="I50" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="J50" s="9" t="s">
         <v>223</v>
-      </c>
-      <c r="J50" s="9" t="s">
-        <v>224</v>
       </c>
       <c r="K50" s="9"/>
       <c r="L50" s="9"/>
       <c r="M50" s="9"/>
       <c r="N50" s="9"/>
       <c r="O50" s="15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P50" s="9"/>
       <c r="Q50" s="9"/>
       <c r="R50" s="9"/>
       <c r="S50" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="T50" s="9"/>
       <c r="U50" s="9"/>
@@ -5393,44 +5414,44 @@
         <v>62</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C51" s="9" t="s">
         <v>40</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E51" s="19" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F51" s="19"/>
       <c r="G51" s="19" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H51" s="19" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I51" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="J51" s="9" t="s">
         <v>223</v>
-      </c>
-      <c r="J51" s="9" t="s">
-        <v>224</v>
       </c>
       <c r="K51" s="9"/>
       <c r="L51" s="9"/>
       <c r="M51" s="9"/>
       <c r="N51" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="O51" s="15" t="s">
         <v>231</v>
-      </c>
-      <c r="O51" s="15" t="s">
-        <v>232</v>
       </c>
       <c r="P51" s="9"/>
       <c r="Q51" s="9"/>
       <c r="R51" s="9"/>
       <c r="S51" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="T51" s="9"/>
       <c r="U51" s="9"/>
@@ -5463,44 +5484,44 @@
         <v>63</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C52" s="9" t="s">
         <v>40</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F52" s="9"/>
       <c r="G52" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="H52" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="H52" s="19" t="s">
-        <v>234</v>
-      </c>
       <c r="I52" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="J52" s="9" t="s">
         <v>223</v>
-      </c>
-      <c r="J52" s="9" t="s">
-        <v>224</v>
       </c>
       <c r="K52" s="9"/>
       <c r="L52" s="9"/>
       <c r="M52" s="9"/>
       <c r="N52" s="9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O52" s="15" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="P52" s="9"/>
       <c r="Q52" s="9"/>
       <c r="R52" s="9"/>
       <c r="S52" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="T52" s="9"/>
       <c r="U52" s="9"/>
@@ -5524,7 +5545,7 @@
         <v>42</v>
       </c>
       <c r="AM52" s="15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AN52" s="9"/>
     </row>
@@ -5533,49 +5554,49 @@
         <v>64</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C53" s="9" t="s">
         <v>40</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E53" s="19" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F53" s="19"/>
       <c r="G53" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="H53" s="19" t="s">
         <v>238</v>
       </c>
-      <c r="H53" s="19" t="s">
+      <c r="I53" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="I53" s="9" t="s">
-        <v>240</v>
-      </c>
       <c r="J53" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K53" s="11"/>
       <c r="L53" s="11"/>
       <c r="M53" s="11"/>
       <c r="N53" s="9"/>
       <c r="O53" s="20" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="P53" s="9"/>
       <c r="Q53" s="9"/>
       <c r="R53" s="9"/>
       <c r="S53" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="T53" s="9"/>
       <c r="U53" s="9"/>
       <c r="V53" s="9"/>
       <c r="W53" s="9"/>
       <c r="X53" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Y53" s="15"/>
       <c r="Z53" s="9"/>
@@ -5601,27 +5622,27 @@
         <v>65</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C54" s="9" t="s">
         <v>40</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E54" s="19"/>
       <c r="F54" s="19"/>
       <c r="G54" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="H54" s="19" t="s">
         <v>243</v>
       </c>
-      <c r="H54" s="19" t="s">
+      <c r="I54" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="J54" s="9" t="s">
         <v>244</v>
-      </c>
-      <c r="I54" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="J54" s="9" t="s">
-        <v>245</v>
       </c>
       <c r="K54" s="11"/>
       <c r="L54" s="11"/>
@@ -5632,7 +5653,7 @@
       <c r="Q54" s="9"/>
       <c r="R54" s="9"/>
       <c r="S54" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="T54" s="9"/>
       <c r="U54" s="9"/>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC Cinema - REG.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC Cinema - REG.xlsx
@@ -5,22 +5,22 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My folder\RED\POS\POS_2019-10-21\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yuri\Downloads\CCRU new KPI\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14E54354-B64D-4CB4-B4B4-AF10567B031F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8AB01E65-F712-4462-AD6C-438634271832}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="529" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="529" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cinema" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">Cinema!$A$1:$AN$54</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="0">Cinema!$A$1:$AN$54</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Cinema!$A$1:$AO$54</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="0">Cinema!$A$1:$AO$54</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="254">
   <si>
     <t>Sorting</t>
   </si>
@@ -684,9 +684,6 @@
 771</t>
   </si>
   <si>
-    <t>Coke and meal: Image</t>
-  </si>
-  <si>
     <t>Juice and meal: Image</t>
   </si>
   <si>
@@ -697,9 +694,6 @@
   </si>
   <si>
     <t>BRAND</t>
-  </si>
-  <si>
-    <t>Coke and meal: Food</t>
   </si>
   <si>
     <t>Juice and meal: Food</t>
@@ -832,6 +826,27 @@
   </si>
   <si>
     <t>Menu Board, Cash Zone, SS_Cash Zone - Canteen, QSR, SS_Menu Board - Canteen, QSR</t>
+  </si>
+  <si>
+    <t>Category KPI Type</t>
+  </si>
+  <si>
+    <t>Category KPI Value</t>
+  </si>
+  <si>
+    <t>SSD</t>
+  </si>
+  <si>
+    <t>Water</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>ice tea</t>
+  </si>
+  <si>
+    <t>Juices</t>
   </si>
 </sst>
 </file>
@@ -886,7 +901,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -897,6 +912,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -974,7 +995,7 @@
       <alignment horizontal="left" vertical="center" indent="15"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1040,6 +1061,12 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1426,58 +1453,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMK54"/>
+  <dimension ref="A1:AML54"/>
   <sheetViews>
-    <sheetView windowProtection="1" tabSelected="1" topLeftCell="U1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y41" sqref="Y41:Y47"/>
+    <sheetView windowProtection="1" tabSelected="1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="7"/>
-    <col min="2" max="2" width="11.6640625" style="7"/>
-    <col min="3" max="3" width="11.77734375" style="7"/>
-    <col min="4" max="4" width="11.21875" style="7"/>
-    <col min="5" max="5" width="16.109375" style="7"/>
-    <col min="6" max="6" width="8.88671875" style="7"/>
-    <col min="7" max="7" width="84.6640625" style="7"/>
-    <col min="8" max="8" width="79.88671875" style="7"/>
-    <col min="9" max="9" width="44.33203125" style="7"/>
-    <col min="10" max="10" width="16.33203125" style="7"/>
-    <col min="11" max="11" width="8.88671875" style="7"/>
-    <col min="12" max="13" width="13.33203125" style="7"/>
-    <col min="14" max="15" width="57.33203125" style="7"/>
-    <col min="16" max="16" width="19.6640625" style="7"/>
-    <col min="17" max="17" width="11.21875" style="7"/>
-    <col min="18" max="18" width="18.88671875" style="7"/>
-    <col min="19" max="19" width="13.77734375" style="7"/>
-    <col min="20" max="20" width="7" style="7"/>
-    <col min="21" max="21" width="14.6640625" style="7"/>
-    <col min="22" max="22" width="18.109375" style="7"/>
-    <col min="23" max="23" width="23" style="7"/>
-    <col min="24" max="24" width="22.6640625" style="7"/>
-    <col min="25" max="25" width="23.88671875" style="7"/>
-    <col min="26" max="26" width="20.33203125" style="7"/>
-    <col min="27" max="27" width="26.33203125" style="7"/>
-    <col min="28" max="28" width="27" style="7"/>
-    <col min="29" max="29" width="16.109375" style="7"/>
-    <col min="30" max="30" width="13.44140625" style="7"/>
-    <col min="31" max="31" width="17.21875" style="7"/>
-    <col min="32" max="32" width="13.33203125" style="7"/>
-    <col min="33" max="33" width="13" style="7"/>
-    <col min="34" max="34" width="13.33203125" style="7"/>
-    <col min="35" max="35" width="64.6640625" style="7"/>
-    <col min="36" max="36" width="23.109375" style="7"/>
-    <col min="37" max="37" width="7.6640625" style="7"/>
-    <col min="38" max="38" width="8.88671875" style="7"/>
-    <col min="39" max="39" width="11" style="7"/>
-    <col min="40" max="40" width="9" style="7"/>
-    <col min="41" max="1025" width="9.109375" style="7"/>
-    <col min="1026" max="16384" width="8.88671875" style="8"/>
+    <col min="1" max="1" width="10.28515625" style="7"/>
+    <col min="2" max="3" width="11.7109375" style="7"/>
+    <col min="4" max="4" width="11.28515625" style="7"/>
+    <col min="5" max="5" width="16.140625" style="7"/>
+    <col min="6" max="6" width="84.7109375" style="7"/>
+    <col min="7" max="7" width="79.85546875" style="7"/>
+    <col min="8" max="8" width="44.28515625" style="7"/>
+    <col min="9" max="9" width="25" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.28515625" style="7"/>
+    <col min="12" max="12" width="8.85546875" style="7"/>
+    <col min="13" max="14" width="13.28515625" style="7"/>
+    <col min="15" max="16" width="57.28515625" style="7"/>
+    <col min="17" max="17" width="19.7109375" style="7"/>
+    <col min="18" max="18" width="11.28515625" style="7"/>
+    <col min="19" max="19" width="18.85546875" style="7"/>
+    <col min="20" max="20" width="13.7109375" style="7"/>
+    <col min="21" max="21" width="7" style="7"/>
+    <col min="22" max="22" width="14.7109375" style="7"/>
+    <col min="23" max="23" width="18.140625" style="7"/>
+    <col min="24" max="24" width="23" style="7"/>
+    <col min="25" max="25" width="22.7109375" style="7"/>
+    <col min="26" max="26" width="23.85546875" style="7"/>
+    <col min="27" max="27" width="20.28515625" style="7"/>
+    <col min="28" max="28" width="26.28515625" style="7"/>
+    <col min="29" max="29" width="27" style="7"/>
+    <col min="30" max="30" width="16.140625" style="7"/>
+    <col min="31" max="31" width="13.42578125" style="7"/>
+    <col min="32" max="32" width="17.28515625" style="7"/>
+    <col min="33" max="33" width="13.28515625" style="7"/>
+    <col min="34" max="34" width="13" style="7"/>
+    <col min="35" max="35" width="13.28515625" style="7"/>
+    <col min="36" max="36" width="64.7109375" style="7"/>
+    <col min="37" max="37" width="23.140625" style="7"/>
+    <col min="38" max="38" width="7.7109375" style="7"/>
+    <col min="39" max="39" width="8.85546875" style="7"/>
+    <col min="40" max="40" width="11" style="7"/>
+    <col min="41" max="41" width="9" style="7"/>
+    <col min="42" max="1026" width="9.140625" style="7" customWidth="1"/>
+    <col min="1027" max="16384" width="8.85546875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1493,111 +1520,116 @@
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3"/>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="G1" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="I1" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="J1" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="6" t="s">
+      <c r="AG1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AH1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AI1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AK1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" s="3" t="s">
+      <c r="AL1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AL1" s="3" t="s">
+      <c r="AM1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AM1" s="3" t="s">
+      <c r="AN1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AN1" s="3" t="s">
+      <c r="AO1" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:40" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -1611,19 +1643,19 @@
         <v>41</v>
       </c>
       <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="10" t="s">
+      <c r="F2" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="G2" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="H2" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="J2" s="9"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="9"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="11"/>
       <c r="M2" s="9"/>
       <c r="N2" s="9"/>
       <c r="O2" s="9"/>
@@ -1643,23 +1675,24 @@
       <c r="AC2" s="9"/>
       <c r="AD2" s="9"/>
       <c r="AE2" s="9"/>
-      <c r="AF2" s="12"/>
-      <c r="AG2" s="13"/>
-      <c r="AH2" s="9"/>
+      <c r="AF2" s="9"/>
+      <c r="AG2" s="12"/>
+      <c r="AH2" s="13"/>
       <c r="AI2" s="9"/>
       <c r="AJ2" s="9"/>
-      <c r="AK2" s="14">
+      <c r="AK2" s="9"/>
+      <c r="AL2" s="14">
         <v>1</v>
       </c>
-      <c r="AL2" s="14">
+      <c r="AM2" s="14">
         <v>300</v>
       </c>
-      <c r="AM2" s="15" t="s">
+      <c r="AN2" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="AN2" s="9"/>
+      <c r="AO2" s="9"/>
     </row>
-    <row r="3" spans="1:40" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -1675,25 +1708,29 @@
       <c r="E3" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="9"/>
+      <c r="F3" s="9" t="s">
+        <v>46</v>
+      </c>
       <c r="G3" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="J3" s="9"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="9"/>
+      <c r="I3" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" s="25" t="s">
+        <v>249</v>
+      </c>
+      <c r="K3" s="9"/>
+      <c r="L3" s="11"/>
       <c r="M3" s="9"/>
       <c r="N3" s="9"/>
-      <c r="O3" s="14"/>
+      <c r="O3" s="9"/>
       <c r="P3" s="14"/>
       <c r="Q3" s="14"/>
-      <c r="R3" s="9"/>
+      <c r="R3" s="14"/>
       <c r="S3" s="9"/>
       <c r="T3" s="9"/>
       <c r="U3" s="9"/>
@@ -1706,28 +1743,29 @@
       <c r="AB3" s="9"/>
       <c r="AC3" s="9"/>
       <c r="AD3" s="9"/>
-      <c r="AE3" s="9" t="s">
+      <c r="AE3" s="9"/>
+      <c r="AF3" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="AF3" s="12"/>
-      <c r="AG3" s="9"/>
+      <c r="AG3" s="12"/>
       <c r="AH3" s="9"/>
       <c r="AI3" s="9"/>
       <c r="AJ3" s="9"/>
-      <c r="AK3" s="9">
+      <c r="AK3" s="9"/>
+      <c r="AL3" s="9">
         <v>2</v>
       </c>
-      <c r="AL3" s="9">
+      <c r="AM3" s="9">
         <v>1</v>
       </c>
-      <c r="AM3" s="15" t="s">
+      <c r="AN3" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="AN3" s="9">
+      <c r="AO3" s="9">
         <v>300</v>
       </c>
     </row>
-    <row r="4" spans="1:40" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>3</v>
       </c>
@@ -1743,73 +1781,74 @@
       <c r="E4" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F4" s="9"/>
+      <c r="F4" s="9" t="s">
+        <v>51</v>
+      </c>
       <c r="G4" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="11">
+        <v>1</v>
+      </c>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="H4" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="J4" s="9"/>
-      <c r="K4" s="11">
-        <v>1</v>
-      </c>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="O4" s="14">
+      <c r="P4" s="14">
         <v>54491472</v>
       </c>
-      <c r="P4" s="14"/>
       <c r="Q4" s="14"/>
-      <c r="R4" s="9" t="s">
+      <c r="R4" s="14"/>
+      <c r="S4" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="S4" s="9" t="s">
+      <c r="T4" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="T4" s="16"/>
-      <c r="U4" s="9"/>
+      <c r="U4" s="16"/>
       <c r="V4" s="9"/>
-      <c r="W4" s="9" t="s">
+      <c r="W4" s="9"/>
+      <c r="X4" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="X4" s="9"/>
       <c r="Y4" s="9"/>
-      <c r="Z4" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="AA4" s="9"/>
+      <c r="Z4" s="9"/>
+      <c r="AA4" s="9" t="s">
+        <v>243</v>
+      </c>
       <c r="AB4" s="9"/>
       <c r="AC4" s="9"/>
       <c r="AD4" s="9"/>
-      <c r="AE4" s="9" t="s">
+      <c r="AE4" s="9"/>
+      <c r="AF4" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AF4" s="17">
+      <c r="AG4" s="17">
         <v>4.0169999999999997E-2</v>
       </c>
-      <c r="AG4" s="9"/>
       <c r="AH4" s="9"/>
       <c r="AI4" s="9"/>
       <c r="AJ4" s="9"/>
-      <c r="AK4" s="9">
+      <c r="AK4" s="9"/>
+      <c r="AL4" s="9">
         <v>3</v>
       </c>
-      <c r="AL4" s="9">
+      <c r="AM4" s="9">
         <v>2</v>
       </c>
-      <c r="AM4" s="9"/>
-      <c r="AN4" s="9">
+      <c r="AN4" s="9"/>
+      <c r="AO4" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:40" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>4</v>
       </c>
@@ -1825,73 +1864,74 @@
       <c r="E5" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F5" s="9"/>
+      <c r="F5" s="9" t="s">
+        <v>58</v>
+      </c>
       <c r="G5" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="11">
+        <v>1</v>
+      </c>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="H5" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="J5" s="9"/>
-      <c r="K5" s="11">
-        <v>1</v>
-      </c>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="O5" s="14">
+      <c r="P5" s="14">
         <v>5449000131836</v>
       </c>
-      <c r="P5" s="14"/>
       <c r="Q5" s="14"/>
-      <c r="R5" s="9" t="s">
+      <c r="R5" s="14"/>
+      <c r="S5" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="S5" s="9" t="s">
+      <c r="T5" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="T5" s="16"/>
-      <c r="U5" s="9"/>
+      <c r="U5" s="16"/>
       <c r="V5" s="9"/>
-      <c r="W5" s="9" t="s">
+      <c r="W5" s="9"/>
+      <c r="X5" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="X5" s="9"/>
       <c r="Y5" s="9"/>
-      <c r="Z5" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="AA5" s="9"/>
+      <c r="Z5" s="9"/>
+      <c r="AA5" s="9" t="s">
+        <v>243</v>
+      </c>
       <c r="AB5" s="9"/>
       <c r="AC5" s="9"/>
       <c r="AD5" s="9"/>
-      <c r="AE5" s="9" t="s">
+      <c r="AE5" s="9"/>
+      <c r="AF5" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AF5" s="17">
+      <c r="AG5" s="17">
         <v>4.0169000000000003E-2</v>
       </c>
-      <c r="AG5" s="9"/>
       <c r="AH5" s="9"/>
       <c r="AI5" s="9"/>
       <c r="AJ5" s="9"/>
-      <c r="AK5" s="9">
-        <v>3</v>
-      </c>
+      <c r="AK5" s="9"/>
       <c r="AL5" s="9">
         <v>3</v>
       </c>
-      <c r="AM5" s="9"/>
-      <c r="AN5" s="9">
+      <c r="AM5" s="9">
+        <v>3</v>
+      </c>
+      <c r="AN5" s="9"/>
+      <c r="AO5" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:40" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>5</v>
       </c>
@@ -1907,73 +1947,74 @@
       <c r="E6" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F6" s="9"/>
+      <c r="F6" s="9" t="s">
+        <v>60</v>
+      </c>
       <c r="G6" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="11">
+        <v>1</v>
+      </c>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="H6" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="J6" s="9"/>
-      <c r="K6" s="11">
-        <v>1</v>
-      </c>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="O6" s="14">
+      <c r="P6" s="14">
         <v>40822938</v>
       </c>
-      <c r="P6" s="14"/>
       <c r="Q6" s="14"/>
-      <c r="R6" s="9" t="s">
+      <c r="R6" s="14"/>
+      <c r="S6" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="S6" s="9" t="s">
+      <c r="T6" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="T6" s="16"/>
-      <c r="U6" s="9"/>
+      <c r="U6" s="16"/>
       <c r="V6" s="9"/>
-      <c r="W6" s="9" t="s">
+      <c r="W6" s="9"/>
+      <c r="X6" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="X6" s="9"/>
       <c r="Y6" s="9"/>
-      <c r="Z6" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="AA6" s="9"/>
+      <c r="Z6" s="9"/>
+      <c r="AA6" s="9" t="s">
+        <v>243</v>
+      </c>
       <c r="AB6" s="9"/>
       <c r="AC6" s="9"/>
       <c r="AD6" s="9"/>
-      <c r="AE6" s="9" t="s">
+      <c r="AE6" s="9"/>
+      <c r="AF6" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AF6" s="17">
+      <c r="AG6" s="17">
         <v>4.0146000000000001E-2</v>
       </c>
-      <c r="AG6" s="9"/>
       <c r="AH6" s="9"/>
       <c r="AI6" s="9"/>
       <c r="AJ6" s="9"/>
-      <c r="AK6" s="9">
+      <c r="AK6" s="9"/>
+      <c r="AL6" s="9">
         <v>3</v>
       </c>
-      <c r="AL6" s="9">
+      <c r="AM6" s="9">
         <v>4</v>
       </c>
-      <c r="AM6" s="9"/>
-      <c r="AN6" s="9">
+      <c r="AN6" s="9"/>
+      <c r="AO6" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:40" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>6</v>
       </c>
@@ -1989,73 +2030,74 @@
       <c r="E7" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="9"/>
+      <c r="F7" s="9" t="s">
+        <v>62</v>
+      </c>
       <c r="G7" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="11">
+        <v>1</v>
+      </c>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="H7" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="J7" s="9"/>
-      <c r="K7" s="11">
-        <v>1</v>
-      </c>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="O7" s="14">
+      <c r="P7" s="14">
         <v>54491069</v>
       </c>
-      <c r="P7" s="14"/>
       <c r="Q7" s="14"/>
-      <c r="R7" s="9" t="s">
+      <c r="R7" s="14"/>
+      <c r="S7" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="S7" s="9" t="s">
+      <c r="T7" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="T7" s="16"/>
-      <c r="U7" s="9"/>
+      <c r="U7" s="16"/>
       <c r="V7" s="9"/>
-      <c r="W7" s="9" t="s">
+      <c r="W7" s="9"/>
+      <c r="X7" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="X7" s="9"/>
       <c r="Y7" s="9"/>
-      <c r="Z7" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="AA7" s="9"/>
+      <c r="Z7" s="9"/>
+      <c r="AA7" s="9" t="s">
+        <v>243</v>
+      </c>
       <c r="AB7" s="9"/>
       <c r="AC7" s="9"/>
       <c r="AD7" s="9"/>
-      <c r="AE7" s="9" t="s">
+      <c r="AE7" s="9"/>
+      <c r="AF7" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AF7" s="17">
+      <c r="AG7" s="17">
         <v>4.0146000000000001E-2</v>
       </c>
-      <c r="AG7" s="9"/>
       <c r="AH7" s="9"/>
       <c r="AI7" s="9"/>
       <c r="AJ7" s="9"/>
-      <c r="AK7" s="9">
+      <c r="AK7" s="9"/>
+      <c r="AL7" s="9">
         <v>3</v>
       </c>
-      <c r="AL7" s="9">
+      <c r="AM7" s="9">
         <v>5</v>
       </c>
-      <c r="AM7" s="9"/>
-      <c r="AN7" s="9">
+      <c r="AN7" s="9"/>
+      <c r="AO7" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:40" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>7</v>
       </c>
@@ -2071,73 +2113,74 @@
       <c r="E8" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F8" s="9"/>
+      <c r="F8" s="9" t="s">
+        <v>64</v>
+      </c>
       <c r="G8" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="11">
+        <v>1</v>
+      </c>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="H8" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="J8" s="9"/>
-      <c r="K8" s="11">
-        <v>1</v>
-      </c>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="O8" s="14">
+      <c r="P8" s="14">
         <v>42099697</v>
       </c>
-      <c r="P8" s="14"/>
       <c r="Q8" s="14"/>
-      <c r="R8" s="9" t="s">
+      <c r="R8" s="14"/>
+      <c r="S8" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="S8" s="9" t="s">
+      <c r="T8" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="T8" s="16"/>
-      <c r="U8" s="9"/>
+      <c r="U8" s="16"/>
       <c r="V8" s="9"/>
-      <c r="W8" s="9" t="s">
+      <c r="W8" s="9"/>
+      <c r="X8" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="X8" s="9"/>
       <c r="Y8" s="9"/>
-      <c r="Z8" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="AA8" s="9"/>
+      <c r="Z8" s="9"/>
+      <c r="AA8" s="9" t="s">
+        <v>243</v>
+      </c>
       <c r="AB8" s="9"/>
       <c r="AC8" s="9"/>
       <c r="AD8" s="9"/>
-      <c r="AE8" s="9" t="s">
+      <c r="AE8" s="9"/>
+      <c r="AF8" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AF8" s="17">
+      <c r="AG8" s="17">
         <v>2.1691999999999999E-2</v>
       </c>
-      <c r="AG8" s="9"/>
       <c r="AH8" s="9"/>
       <c r="AI8" s="9"/>
       <c r="AJ8" s="9"/>
-      <c r="AK8" s="9">
+      <c r="AK8" s="9"/>
+      <c r="AL8" s="9">
         <v>3</v>
       </c>
-      <c r="AL8" s="9">
+      <c r="AM8" s="9">
         <v>6</v>
       </c>
-      <c r="AM8" s="9"/>
-      <c r="AN8" s="9">
+      <c r="AN8" s="9"/>
+      <c r="AO8" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:40" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>8</v>
       </c>
@@ -2153,73 +2196,74 @@
       <c r="E9" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F9" s="9"/>
+      <c r="F9" s="9" t="s">
+        <v>66</v>
+      </c>
       <c r="G9" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="11">
+        <v>1</v>
+      </c>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="H9" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="J9" s="9"/>
-      <c r="K9" s="11">
-        <v>1</v>
-      </c>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="O9" s="14">
+      <c r="P9" s="14">
         <v>5449000214744</v>
       </c>
-      <c r="P9" s="14"/>
       <c r="Q9" s="14"/>
-      <c r="R9" s="9" t="s">
+      <c r="R9" s="14"/>
+      <c r="S9" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="S9" s="9" t="s">
+      <c r="T9" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="T9" s="16"/>
-      <c r="U9" s="9"/>
+      <c r="U9" s="16"/>
       <c r="V9" s="9"/>
-      <c r="W9" s="9" t="s">
+      <c r="W9" s="9"/>
+      <c r="X9" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="X9" s="9"/>
       <c r="Y9" s="9"/>
-      <c r="Z9" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="AA9" s="9"/>
+      <c r="Z9" s="9"/>
+      <c r="AA9" s="9" t="s">
+        <v>243</v>
+      </c>
       <c r="AB9" s="9"/>
       <c r="AC9" s="9"/>
       <c r="AD9" s="9"/>
-      <c r="AE9" s="9" t="s">
+      <c r="AE9" s="9"/>
+      <c r="AF9" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AF9" s="17">
+      <c r="AG9" s="17">
         <v>2.1691999999999999E-2</v>
       </c>
-      <c r="AG9" s="9"/>
       <c r="AH9" s="9"/>
       <c r="AI9" s="9"/>
       <c r="AJ9" s="9"/>
-      <c r="AK9" s="9">
+      <c r="AK9" s="9"/>
+      <c r="AL9" s="9">
         <v>3</v>
       </c>
-      <c r="AL9" s="9">
+      <c r="AM9" s="9">
         <v>7</v>
       </c>
-      <c r="AM9" s="9"/>
-      <c r="AN9" s="9">
+      <c r="AN9" s="9"/>
+      <c r="AO9" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:40" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>9</v>
       </c>
@@ -2235,73 +2279,74 @@
       <c r="E10" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F10" s="9"/>
+      <c r="F10" s="9" t="s">
+        <v>68</v>
+      </c>
       <c r="G10" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="11">
+        <v>1</v>
+      </c>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="H10" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="J10" s="9"/>
-      <c r="K10" s="11">
-        <v>1</v>
-      </c>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="O10" s="14">
+      <c r="P10" s="14">
         <v>5449000172228</v>
       </c>
-      <c r="P10" s="14"/>
       <c r="Q10" s="14"/>
-      <c r="R10" s="9" t="s">
+      <c r="R10" s="14"/>
+      <c r="S10" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="S10" s="9" t="s">
+      <c r="T10" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="T10" s="16"/>
-      <c r="U10" s="9"/>
+      <c r="U10" s="16"/>
       <c r="V10" s="9"/>
-      <c r="W10" s="9" t="s">
+      <c r="W10" s="9"/>
+      <c r="X10" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="X10" s="9"/>
       <c r="Y10" s="9"/>
-      <c r="Z10" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="AA10" s="9"/>
+      <c r="Z10" s="9"/>
+      <c r="AA10" s="9" t="s">
+        <v>243</v>
+      </c>
       <c r="AB10" s="9"/>
       <c r="AC10" s="9"/>
       <c r="AD10" s="9"/>
-      <c r="AE10" s="9" t="s">
+      <c r="AE10" s="9"/>
+      <c r="AF10" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AF10" s="17">
+      <c r="AG10" s="17">
         <v>2.1691999999999999E-2</v>
       </c>
-      <c r="AG10" s="9"/>
       <c r="AH10" s="9"/>
       <c r="AI10" s="9"/>
       <c r="AJ10" s="9"/>
-      <c r="AK10" s="9">
+      <c r="AK10" s="9"/>
+      <c r="AL10" s="9">
         <v>3</v>
       </c>
-      <c r="AL10" s="9">
+      <c r="AM10" s="9">
         <v>8</v>
       </c>
-      <c r="AM10" s="9"/>
-      <c r="AN10" s="9">
+      <c r="AN10" s="9"/>
+      <c r="AO10" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:40" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>10</v>
       </c>
@@ -2317,73 +2362,74 @@
       <c r="E11" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9" t="s">
+      <c r="F11" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I11" s="9" t="s">
+      <c r="H11" s="9" t="s">
         <v>53</v>
       </c>
+      <c r="I11" s="9"/>
       <c r="J11" s="9"/>
-      <c r="K11" s="11">
+      <c r="K11" s="9"/>
+      <c r="L11" s="11">
         <v>1</v>
       </c>
-      <c r="L11" s="9"/>
       <c r="M11" s="9"/>
-      <c r="N11" s="9" t="s">
+      <c r="N11" s="9"/>
+      <c r="O11" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="O11" s="14" t="s">
+      <c r="P11" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="P11" s="9"/>
       <c r="Q11" s="9"/>
-      <c r="R11" s="9" t="s">
+      <c r="R11" s="9"/>
+      <c r="S11" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="S11" s="9" t="s">
+      <c r="T11" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="T11" s="16"/>
-      <c r="U11" s="9"/>
+      <c r="U11" s="16"/>
       <c r="V11" s="9"/>
-      <c r="W11" s="9" t="s">
+      <c r="W11" s="9"/>
+      <c r="X11" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="X11" s="9"/>
       <c r="Y11" s="9"/>
-      <c r="Z11" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="AA11" s="9"/>
+      <c r="Z11" s="9"/>
+      <c r="AA11" s="9" t="s">
+        <v>243</v>
+      </c>
       <c r="AB11" s="9"/>
       <c r="AC11" s="9"/>
       <c r="AD11" s="9"/>
-      <c r="AE11" s="9" t="s">
+      <c r="AE11" s="9"/>
+      <c r="AF11" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AF11" s="12">
+      <c r="AG11" s="12">
         <v>7.293E-3</v>
       </c>
-      <c r="AG11" s="9"/>
       <c r="AH11" s="9"/>
       <c r="AI11" s="9"/>
       <c r="AJ11" s="9"/>
-      <c r="AK11" s="9">
+      <c r="AK11" s="9"/>
+      <c r="AL11" s="9">
         <v>3</v>
       </c>
-      <c r="AL11" s="9">
+      <c r="AM11" s="9">
         <v>9</v>
       </c>
-      <c r="AM11" s="9"/>
-      <c r="AN11" s="9">
+      <c r="AN11" s="9"/>
+      <c r="AO11" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:40" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>11</v>
       </c>
@@ -2399,28 +2445,32 @@
       <c r="E12" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F12" s="9"/>
+      <c r="F12" s="9" t="s">
+        <v>75</v>
+      </c>
       <c r="G12" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="I12" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="J12" s="9"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="9"/>
+      <c r="I12" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="J12" s="25" t="s">
+        <v>250</v>
+      </c>
+      <c r="K12" s="9"/>
+      <c r="L12" s="11"/>
       <c r="M12" s="9"/>
       <c r="N12" s="9"/>
-      <c r="O12" s="14"/>
+      <c r="O12" s="9"/>
       <c r="P12" s="14"/>
       <c r="Q12" s="14"/>
-      <c r="R12" s="9"/>
+      <c r="R12" s="14"/>
       <c r="S12" s="9"/>
-      <c r="T12" s="16"/>
-      <c r="U12" s="9"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="16"/>
       <c r="V12" s="9"/>
       <c r="W12" s="9"/>
       <c r="X12" s="9"/>
@@ -2430,28 +2480,29 @@
       <c r="AB12" s="9"/>
       <c r="AC12" s="9"/>
       <c r="AD12" s="9"/>
-      <c r="AE12" s="9" t="s">
+      <c r="AE12" s="9"/>
+      <c r="AF12" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="AF12" s="12"/>
-      <c r="AG12" s="9"/>
+      <c r="AG12" s="12"/>
       <c r="AH12" s="9"/>
       <c r="AI12" s="9"/>
       <c r="AJ12" s="9"/>
-      <c r="AK12" s="9">
+      <c r="AK12" s="9"/>
+      <c r="AL12" s="9">
         <v>2</v>
       </c>
-      <c r="AL12" s="9">
+      <c r="AM12" s="9">
         <v>10</v>
       </c>
-      <c r="AM12" s="15" t="s">
+      <c r="AN12" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="AN12" s="9">
+      <c r="AO12" s="9">
         <v>300</v>
       </c>
     </row>
-    <row r="13" spans="1:40" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>12</v>
       </c>
@@ -2467,73 +2518,74 @@
       <c r="E13" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F13" s="9"/>
+      <c r="F13" s="9" t="s">
+        <v>78</v>
+      </c>
       <c r="G13" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="11">
+        <v>1</v>
+      </c>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="H13" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="J13" s="9"/>
-      <c r="K13" s="11">
-        <v>1</v>
-      </c>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="O13" s="14">
+      <c r="P13" s="14">
         <v>40822426</v>
       </c>
-      <c r="P13" s="14"/>
       <c r="Q13" s="14"/>
-      <c r="R13" s="9" t="s">
+      <c r="R13" s="14"/>
+      <c r="S13" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="S13" s="9" t="s">
+      <c r="T13" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="T13" s="16"/>
-      <c r="U13" s="9"/>
+      <c r="U13" s="16"/>
       <c r="V13" s="9"/>
-      <c r="W13" s="9" t="s">
+      <c r="W13" s="9"/>
+      <c r="X13" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="X13" s="9"/>
       <c r="Y13" s="9"/>
-      <c r="Z13" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="AA13" s="9"/>
+      <c r="Z13" s="9"/>
+      <c r="AA13" s="9" t="s">
+        <v>243</v>
+      </c>
       <c r="AB13" s="9"/>
       <c r="AC13" s="9"/>
       <c r="AD13" s="9"/>
-      <c r="AE13" s="9" t="s">
+      <c r="AE13" s="9"/>
+      <c r="AF13" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AF13" s="17">
+      <c r="AG13" s="17">
         <v>2.0908E-2</v>
       </c>
-      <c r="AG13" s="9"/>
       <c r="AH13" s="9"/>
       <c r="AI13" s="9"/>
       <c r="AJ13" s="9"/>
-      <c r="AK13" s="9">
+      <c r="AK13" s="9"/>
+      <c r="AL13" s="9">
         <v>3</v>
       </c>
-      <c r="AL13" s="9">
+      <c r="AM13" s="9">
         <v>11</v>
       </c>
-      <c r="AM13" s="9"/>
-      <c r="AN13" s="9">
+      <c r="AN13" s="9"/>
+      <c r="AO13" s="9">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:40" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>13</v>
       </c>
@@ -2549,73 +2601,74 @@
       <c r="E14" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F14" s="9"/>
+      <c r="F14" s="9" t="s">
+        <v>80</v>
+      </c>
       <c r="G14" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="I14" s="9" t="s">
         <v>53</v>
       </c>
+      <c r="I14" s="9"/>
       <c r="J14" s="9"/>
-      <c r="K14" s="11">
+      <c r="K14" s="9"/>
+      <c r="L14" s="11">
         <v>1</v>
       </c>
-      <c r="L14" s="11"/>
       <c r="M14" s="11"/>
-      <c r="N14" s="9" t="s">
+      <c r="N14" s="11"/>
+      <c r="O14" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="O14" s="14" t="s">
+      <c r="P14" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="P14" s="14"/>
       <c r="Q14" s="14"/>
-      <c r="R14" s="9" t="s">
+      <c r="R14" s="14"/>
+      <c r="S14" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="S14" s="9" t="s">
+      <c r="T14" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="T14" s="16"/>
-      <c r="U14" s="9"/>
+      <c r="U14" s="16"/>
       <c r="V14" s="9"/>
-      <c r="W14" s="9" t="s">
+      <c r="W14" s="9"/>
+      <c r="X14" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="X14" s="9"/>
       <c r="Y14" s="9"/>
-      <c r="Z14" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="AA14" s="9"/>
+      <c r="Z14" s="9"/>
+      <c r="AA14" s="9" t="s">
+        <v>243</v>
+      </c>
       <c r="AB14" s="9"/>
       <c r="AC14" s="9"/>
       <c r="AD14" s="9"/>
-      <c r="AE14" s="9" t="s">
+      <c r="AE14" s="9"/>
+      <c r="AF14" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AF14" s="17">
+      <c r="AG14" s="17">
         <v>1.1924000000000001E-2</v>
       </c>
-      <c r="AG14" s="9"/>
       <c r="AH14" s="9"/>
       <c r="AI14" s="9"/>
       <c r="AJ14" s="9"/>
-      <c r="AK14" s="9">
+      <c r="AK14" s="9"/>
+      <c r="AL14" s="9">
         <v>3</v>
       </c>
-      <c r="AL14" s="9">
+      <c r="AM14" s="9">
         <v>12</v>
       </c>
-      <c r="AM14" s="9"/>
-      <c r="AN14" s="9">
+      <c r="AN14" s="9"/>
+      <c r="AO14" s="9">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:40" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <v>14</v>
       </c>
@@ -2631,28 +2684,32 @@
       <c r="E15" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F15" s="9"/>
+      <c r="F15" s="9" t="s">
+        <v>84</v>
+      </c>
       <c r="G15" s="9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="I15" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="J15" s="9"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="9"/>
+      <c r="I15" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="J15" s="25" t="s">
+        <v>251</v>
+      </c>
+      <c r="K15" s="9"/>
+      <c r="L15" s="11"/>
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
-      <c r="O15" s="14"/>
+      <c r="O15" s="9"/>
       <c r="P15" s="14"/>
       <c r="Q15" s="14"/>
-      <c r="R15" s="9"/>
+      <c r="R15" s="14"/>
       <c r="S15" s="9"/>
-      <c r="T15" s="16"/>
-      <c r="U15" s="9"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="16"/>
       <c r="V15" s="9"/>
       <c r="W15" s="9"/>
       <c r="X15" s="9"/>
@@ -2662,28 +2719,29 @@
       <c r="AB15" s="9"/>
       <c r="AC15" s="9"/>
       <c r="AD15" s="9"/>
-      <c r="AE15" s="9" t="s">
+      <c r="AE15" s="9"/>
+      <c r="AF15" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="AF15" s="12"/>
-      <c r="AG15" s="9"/>
+      <c r="AG15" s="12"/>
       <c r="AH15" s="9"/>
       <c r="AI15" s="9"/>
       <c r="AJ15" s="9"/>
-      <c r="AK15" s="9">
+      <c r="AK15" s="9"/>
+      <c r="AL15" s="9">
         <v>2</v>
       </c>
-      <c r="AL15" s="9">
+      <c r="AM15" s="9">
         <v>13</v>
       </c>
-      <c r="AM15" s="15">
+      <c r="AN15" s="15">
         <v>14</v>
       </c>
-      <c r="AN15" s="9">
+      <c r="AO15" s="9">
         <v>300</v>
       </c>
     </row>
-    <row r="16" spans="1:40" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
         <v>15</v>
       </c>
@@ -2699,73 +2757,74 @@
       <c r="E16" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F16" s="9"/>
+      <c r="F16" s="9" t="s">
+        <v>86</v>
+      </c>
       <c r="G16" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="11">
+        <v>1</v>
+      </c>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="H16" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="I16" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="J16" s="9"/>
-      <c r="K16" s="11">
-        <v>1</v>
-      </c>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="O16" s="14" t="s">
+      <c r="P16" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="P16" s="14"/>
       <c r="Q16" s="14"/>
-      <c r="R16" s="9" t="s">
+      <c r="R16" s="14"/>
+      <c r="S16" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="S16" s="9" t="s">
+      <c r="T16" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="T16" s="16"/>
-      <c r="U16" s="9"/>
+      <c r="U16" s="16"/>
       <c r="V16" s="9"/>
-      <c r="W16" s="9" t="s">
+      <c r="W16" s="9"/>
+      <c r="X16" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="X16" s="9"/>
       <c r="Y16" s="9"/>
-      <c r="Z16" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="AA16" s="9"/>
+      <c r="Z16" s="9"/>
+      <c r="AA16" s="9" t="s">
+        <v>243</v>
+      </c>
       <c r="AB16" s="9"/>
       <c r="AC16" s="9"/>
       <c r="AD16" s="9"/>
-      <c r="AE16" s="9" t="s">
+      <c r="AE16" s="9"/>
+      <c r="AF16" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AF16" s="17">
+      <c r="AG16" s="17">
         <v>1.1924000000000001E-2</v>
       </c>
-      <c r="AG16" s="9"/>
       <c r="AH16" s="9"/>
       <c r="AI16" s="9"/>
       <c r="AJ16" s="9"/>
-      <c r="AK16" s="9">
+      <c r="AK16" s="9"/>
+      <c r="AL16" s="9">
         <v>3</v>
       </c>
-      <c r="AL16" s="9">
+      <c r="AM16" s="9">
         <v>14</v>
       </c>
-      <c r="AM16" s="9"/>
-      <c r="AN16" s="9">
+      <c r="AN16" s="9"/>
+      <c r="AO16" s="9">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:40" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <v>16</v>
       </c>
@@ -2781,28 +2840,32 @@
       <c r="E17" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F17" s="9"/>
+      <c r="F17" s="9" t="s">
+        <v>89</v>
+      </c>
       <c r="G17" s="9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="I17" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="J17" s="9"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="9"/>
+      <c r="I17" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="J17" s="25" t="s">
+        <v>252</v>
+      </c>
+      <c r="K17" s="9"/>
+      <c r="L17" s="11"/>
       <c r="M17" s="9"/>
       <c r="N17" s="9"/>
-      <c r="O17" s="14"/>
+      <c r="O17" s="9"/>
       <c r="P17" s="14"/>
       <c r="Q17" s="14"/>
-      <c r="R17" s="9"/>
+      <c r="R17" s="14"/>
       <c r="S17" s="9"/>
-      <c r="T17" s="16"/>
-      <c r="U17" s="9"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="16"/>
       <c r="V17" s="9"/>
       <c r="W17" s="9"/>
       <c r="X17" s="9"/>
@@ -2812,28 +2875,29 @@
       <c r="AB17" s="9"/>
       <c r="AC17" s="9"/>
       <c r="AD17" s="9"/>
-      <c r="AE17" s="9" t="s">
+      <c r="AE17" s="9"/>
+      <c r="AF17" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="AF17" s="12"/>
-      <c r="AG17" s="9"/>
+      <c r="AG17" s="12"/>
       <c r="AH17" s="9"/>
       <c r="AI17" s="9"/>
       <c r="AJ17" s="9"/>
-      <c r="AK17" s="9">
+      <c r="AK17" s="9"/>
+      <c r="AL17" s="9">
         <v>2</v>
       </c>
-      <c r="AL17" s="9">
+      <c r="AM17" s="9">
         <v>15</v>
       </c>
-      <c r="AM17" s="15" t="s">
+      <c r="AN17" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="AN17" s="9">
+      <c r="AO17" s="9">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="1:40" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
         <v>17</v>
       </c>
@@ -2849,73 +2913,74 @@
       <c r="E18" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9" t="s">
+      <c r="F18" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="H18" s="14" t="s">
+      <c r="G18" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="I18" s="9" t="s">
+      <c r="H18" s="9" t="s">
         <v>53</v>
       </c>
+      <c r="I18" s="9"/>
       <c r="J18" s="9"/>
-      <c r="K18" s="11">
+      <c r="K18" s="9"/>
+      <c r="L18" s="11">
         <v>1</v>
       </c>
-      <c r="L18" s="9"/>
       <c r="M18" s="9"/>
-      <c r="N18" s="9" t="s">
+      <c r="N18" s="9"/>
+      <c r="O18" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="O18" s="18" t="s">
+      <c r="P18" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="P18" s="14"/>
       <c r="Q18" s="14"/>
-      <c r="R18" s="9" t="s">
+      <c r="R18" s="14"/>
+      <c r="S18" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="S18" s="9" t="s">
+      <c r="T18" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="T18" s="16"/>
-      <c r="U18" s="9"/>
+      <c r="U18" s="16"/>
       <c r="V18" s="9"/>
-      <c r="W18" s="9" t="s">
+      <c r="W18" s="9"/>
+      <c r="X18" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="X18" s="9"/>
       <c r="Y18" s="9"/>
-      <c r="Z18" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="AA18" s="9"/>
+      <c r="Z18" s="9"/>
+      <c r="AA18" s="9" t="s">
+        <v>243</v>
+      </c>
       <c r="AB18" s="9"/>
       <c r="AC18" s="9"/>
       <c r="AD18" s="9"/>
-      <c r="AE18" s="9" t="s">
+      <c r="AE18" s="9"/>
+      <c r="AF18" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AF18" s="12">
+      <c r="AG18" s="12">
         <v>2.0892000000000001E-2</v>
       </c>
-      <c r="AG18" s="9"/>
       <c r="AH18" s="9"/>
       <c r="AI18" s="9"/>
       <c r="AJ18" s="9"/>
-      <c r="AK18" s="9">
+      <c r="AK18" s="9"/>
+      <c r="AL18" s="9">
         <v>3</v>
       </c>
-      <c r="AL18" s="9">
+      <c r="AM18" s="9">
         <v>16</v>
       </c>
-      <c r="AM18" s="9"/>
-      <c r="AN18" s="9">
+      <c r="AN18" s="9"/>
+      <c r="AO18" s="9">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:40" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
         <v>18</v>
       </c>
@@ -2931,73 +2996,74 @@
       <c r="E19" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9" t="s">
+      <c r="F19" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="G19" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="I19" s="9" t="s">
+      <c r="H19" s="9" t="s">
         <v>53</v>
       </c>
+      <c r="I19" s="9"/>
       <c r="J19" s="9"/>
-      <c r="K19" s="11">
+      <c r="K19" s="9"/>
+      <c r="L19" s="11">
         <v>1</v>
       </c>
-      <c r="L19" s="9"/>
       <c r="M19" s="9"/>
-      <c r="N19" s="9" t="s">
+      <c r="N19" s="9"/>
+      <c r="O19" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="O19" s="14">
+      <c r="P19" s="14">
         <v>4607042430879</v>
       </c>
-      <c r="P19" s="9"/>
       <c r="Q19" s="9"/>
-      <c r="R19" s="9" t="s">
+      <c r="R19" s="9"/>
+      <c r="S19" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="S19" s="9" t="s">
+      <c r="T19" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="T19" s="16"/>
-      <c r="U19" s="9"/>
+      <c r="U19" s="16"/>
       <c r="V19" s="9"/>
-      <c r="W19" s="9" t="s">
+      <c r="W19" s="9"/>
+      <c r="X19" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="X19" s="9"/>
       <c r="Y19" s="9"/>
-      <c r="Z19" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="AA19" s="9"/>
+      <c r="Z19" s="9"/>
+      <c r="AA19" s="9" t="s">
+        <v>243</v>
+      </c>
       <c r="AB19" s="9"/>
       <c r="AC19" s="9"/>
       <c r="AD19" s="9"/>
-      <c r="AE19" s="9" t="s">
+      <c r="AE19" s="9"/>
+      <c r="AF19" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AF19" s="12">
+      <c r="AG19" s="12">
         <v>1.1924000000000001E-2</v>
       </c>
-      <c r="AG19" s="9"/>
       <c r="AH19" s="9"/>
       <c r="AI19" s="9"/>
       <c r="AJ19" s="9"/>
-      <c r="AK19" s="9">
+      <c r="AK19" s="9"/>
+      <c r="AL19" s="9">
         <v>3</v>
       </c>
-      <c r="AL19" s="9">
+      <c r="AM19" s="9">
         <v>17</v>
       </c>
-      <c r="AM19" s="9"/>
-      <c r="AN19" s="9">
+      <c r="AN19" s="9"/>
+      <c r="AO19" s="9">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:40" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
         <v>19</v>
       </c>
@@ -3013,73 +3079,74 @@
       <c r="E20" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9" t="s">
+      <c r="F20" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="G20" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="I20" s="9" t="s">
+      <c r="H20" s="9" t="s">
         <v>53</v>
       </c>
+      <c r="I20" s="9"/>
       <c r="J20" s="9"/>
-      <c r="K20" s="11">
+      <c r="K20" s="9"/>
+      <c r="L20" s="11">
         <v>1</v>
       </c>
-      <c r="L20" s="9"/>
       <c r="M20" s="9"/>
-      <c r="N20" s="9" t="s">
+      <c r="N20" s="9"/>
+      <c r="O20" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="O20" s="14" t="s">
+      <c r="P20" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="P20" s="9"/>
       <c r="Q20" s="9"/>
-      <c r="R20" s="9" t="s">
+      <c r="R20" s="9"/>
+      <c r="S20" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="S20" s="9" t="s">
+      <c r="T20" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="T20" s="16"/>
-      <c r="U20" s="9"/>
+      <c r="U20" s="16"/>
       <c r="V20" s="9"/>
-      <c r="W20" s="9" t="s">
+      <c r="W20" s="9"/>
+      <c r="X20" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="X20" s="9"/>
       <c r="Y20" s="9"/>
-      <c r="Z20" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="AA20" s="9"/>
+      <c r="Z20" s="9"/>
+      <c r="AA20" s="9" t="s">
+        <v>243</v>
+      </c>
       <c r="AB20" s="9"/>
       <c r="AC20" s="9"/>
       <c r="AD20" s="9"/>
-      <c r="AE20" s="9" t="s">
+      <c r="AE20" s="9"/>
+      <c r="AF20" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AF20" s="12">
+      <c r="AG20" s="12">
         <v>1.1924000000000001E-2</v>
       </c>
-      <c r="AG20" s="9"/>
       <c r="AH20" s="9"/>
       <c r="AI20" s="9"/>
       <c r="AJ20" s="9"/>
-      <c r="AK20" s="9">
+      <c r="AK20" s="9"/>
+      <c r="AL20" s="9">
         <v>3</v>
       </c>
-      <c r="AL20" s="9">
+      <c r="AM20" s="9">
         <v>18</v>
       </c>
-      <c r="AM20" s="9"/>
-      <c r="AN20" s="9">
+      <c r="AN20" s="9"/>
+      <c r="AO20" s="9">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:40" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9">
         <v>20</v>
       </c>
@@ -3095,73 +3162,74 @@
       <c r="E21" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9" t="s">
+      <c r="F21" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="G21" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="I21" s="9" t="s">
+      <c r="H21" s="9" t="s">
         <v>53</v>
       </c>
+      <c r="I21" s="9"/>
       <c r="J21" s="9"/>
-      <c r="K21" s="11">
+      <c r="K21" s="9"/>
+      <c r="L21" s="11">
         <v>1</v>
       </c>
-      <c r="L21" s="9"/>
       <c r="M21" s="9"/>
-      <c r="N21" s="9" t="s">
+      <c r="N21" s="9"/>
+      <c r="O21" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="O21" s="14" t="s">
+      <c r="P21" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="P21" s="9"/>
       <c r="Q21" s="9"/>
-      <c r="R21" s="9" t="s">
+      <c r="R21" s="9"/>
+      <c r="S21" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="S21" s="9" t="s">
+      <c r="T21" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="T21" s="16"/>
-      <c r="U21" s="9"/>
+      <c r="U21" s="16"/>
       <c r="V21" s="9"/>
-      <c r="W21" s="9" t="s">
+      <c r="W21" s="9"/>
+      <c r="X21" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="X21" s="9"/>
       <c r="Y21" s="9"/>
-      <c r="Z21" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="AA21" s="9"/>
+      <c r="Z21" s="9"/>
+      <c r="AA21" s="9" t="s">
+        <v>243</v>
+      </c>
       <c r="AB21" s="9"/>
       <c r="AC21" s="9"/>
       <c r="AD21" s="9"/>
-      <c r="AE21" s="9" t="s">
+      <c r="AE21" s="9"/>
+      <c r="AF21" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AF21" s="12">
+      <c r="AG21" s="12">
         <v>1.1924000000000001E-2</v>
       </c>
-      <c r="AG21" s="9"/>
       <c r="AH21" s="9"/>
       <c r="AI21" s="9"/>
       <c r="AJ21" s="9"/>
-      <c r="AK21" s="9">
+      <c r="AK21" s="9"/>
+      <c r="AL21" s="9">
         <v>3</v>
       </c>
-      <c r="AL21" s="9">
+      <c r="AM21" s="9">
         <v>19</v>
       </c>
-      <c r="AM21" s="9"/>
-      <c r="AN21" s="9">
+      <c r="AN21" s="9"/>
+      <c r="AO21" s="9">
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:40" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
         <v>21</v>
       </c>
@@ -3177,28 +3245,32 @@
       <c r="E22" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F22" s="9"/>
+      <c r="F22" s="9" t="s">
+        <v>104</v>
+      </c>
       <c r="G22" s="9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="I22" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="J22" s="9"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="9"/>
+      <c r="I22" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="J22" s="25" t="s">
+        <v>253</v>
+      </c>
+      <c r="K22" s="9"/>
+      <c r="L22" s="11"/>
       <c r="M22" s="9"/>
       <c r="N22" s="9"/>
-      <c r="O22" s="14"/>
-      <c r="P22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="14"/>
       <c r="Q22" s="9"/>
       <c r="R22" s="9"/>
       <c r="S22" s="9"/>
-      <c r="T22" s="16"/>
-      <c r="U22" s="9"/>
+      <c r="T22" s="9"/>
+      <c r="U22" s="16"/>
       <c r="V22" s="9"/>
       <c r="W22" s="9"/>
       <c r="X22" s="9"/>
@@ -3208,28 +3280,29 @@
       <c r="AB22" s="9"/>
       <c r="AC22" s="9"/>
       <c r="AD22" s="9"/>
-      <c r="AE22" s="9" t="s">
+      <c r="AE22" s="9"/>
+      <c r="AF22" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="AF22" s="12"/>
-      <c r="AG22" s="9"/>
+      <c r="AG22" s="12"/>
       <c r="AH22" s="9"/>
       <c r="AI22" s="9"/>
       <c r="AJ22" s="9"/>
-      <c r="AK22" s="9">
+      <c r="AK22" s="9"/>
+      <c r="AL22" s="9">
         <v>2</v>
       </c>
-      <c r="AL22" s="9">
+      <c r="AM22" s="9">
         <v>20</v>
       </c>
-      <c r="AM22" s="15" t="s">
+      <c r="AN22" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="AN22" s="9">
+      <c r="AO22" s="9">
         <v>300</v>
       </c>
     </row>
-    <row r="23" spans="1:40" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
         <v>22</v>
       </c>
@@ -3245,73 +3318,74 @@
       <c r="E23" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9" t="s">
+      <c r="F23" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="G23" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="I23" s="9" t="s">
+      <c r="H23" s="9" t="s">
         <v>53</v>
       </c>
+      <c r="I23" s="9"/>
       <c r="J23" s="9"/>
-      <c r="K23" s="11">
+      <c r="K23" s="9"/>
+      <c r="L23" s="11">
         <v>1</v>
       </c>
-      <c r="L23" s="9"/>
       <c r="M23" s="9"/>
-      <c r="N23" s="9" t="s">
+      <c r="N23" s="9"/>
+      <c r="O23" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="O23" s="14">
+      <c r="P23" s="14">
         <v>4607174577787</v>
       </c>
-      <c r="P23" s="9"/>
       <c r="Q23" s="9"/>
-      <c r="R23" s="9" t="s">
+      <c r="R23" s="9"/>
+      <c r="S23" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="S23" s="9" t="s">
+      <c r="T23" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="T23" s="16"/>
-      <c r="U23" s="9"/>
+      <c r="U23" s="16"/>
       <c r="V23" s="9"/>
-      <c r="W23" s="9" t="s">
+      <c r="W23" s="9"/>
+      <c r="X23" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="X23" s="9"/>
       <c r="Y23" s="9"/>
-      <c r="Z23" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="AA23" s="9"/>
+      <c r="Z23" s="9"/>
+      <c r="AA23" s="9" t="s">
+        <v>243</v>
+      </c>
       <c r="AB23" s="9"/>
       <c r="AC23" s="9"/>
       <c r="AD23" s="9"/>
-      <c r="AE23" s="9" t="s">
+      <c r="AE23" s="9"/>
+      <c r="AF23" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AF23" s="12">
+      <c r="AG23" s="12">
         <v>2.0892000000000001E-2</v>
       </c>
-      <c r="AG23" s="9"/>
       <c r="AH23" s="9"/>
       <c r="AI23" s="9"/>
       <c r="AJ23" s="9"/>
-      <c r="AK23" s="9">
+      <c r="AK23" s="9"/>
+      <c r="AL23" s="9">
         <v>3</v>
       </c>
-      <c r="AL23" s="9">
+      <c r="AM23" s="9">
         <v>21</v>
       </c>
-      <c r="AM23" s="9"/>
-      <c r="AN23" s="9">
+      <c r="AN23" s="9"/>
+      <c r="AO23" s="9">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:40" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9">
         <v>23</v>
       </c>
@@ -3327,73 +3401,74 @@
       <c r="E24" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9" t="s">
+      <c r="F24" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="G24" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="I24" s="9" t="s">
+      <c r="H24" s="9" t="s">
         <v>53</v>
       </c>
+      <c r="I24" s="9"/>
       <c r="J24" s="9"/>
-      <c r="K24" s="11">
+      <c r="K24" s="9"/>
+      <c r="L24" s="11">
         <v>1</v>
       </c>
-      <c r="L24" s="9"/>
       <c r="M24" s="9"/>
-      <c r="N24" s="9" t="s">
+      <c r="N24" s="9"/>
+      <c r="O24" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="O24" s="14">
+      <c r="P24" s="14">
         <v>4650075420980</v>
       </c>
-      <c r="P24" s="9"/>
       <c r="Q24" s="9"/>
-      <c r="R24" s="9" t="s">
+      <c r="R24" s="9"/>
+      <c r="S24" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="S24" s="9" t="s">
+      <c r="T24" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="T24" s="16"/>
-      <c r="U24" s="9"/>
+      <c r="U24" s="16"/>
       <c r="V24" s="9"/>
-      <c r="W24" s="9" t="s">
+      <c r="W24" s="9"/>
+      <c r="X24" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="X24" s="9"/>
       <c r="Y24" s="9"/>
-      <c r="Z24" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="AA24" s="9"/>
+      <c r="Z24" s="9"/>
+      <c r="AA24" s="9" t="s">
+        <v>243</v>
+      </c>
       <c r="AB24" s="9"/>
       <c r="AC24" s="9"/>
       <c r="AD24" s="9"/>
-      <c r="AE24" s="9" t="s">
+      <c r="AE24" s="9"/>
+      <c r="AF24" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AF24" s="12">
+      <c r="AG24" s="12">
         <v>7.4479999999999998E-3</v>
       </c>
-      <c r="AG24" s="9"/>
       <c r="AH24" s="9"/>
       <c r="AI24" s="9"/>
       <c r="AJ24" s="9"/>
-      <c r="AK24" s="9">
+      <c r="AK24" s="9"/>
+      <c r="AL24" s="9">
         <v>3</v>
       </c>
-      <c r="AL24" s="9">
+      <c r="AM24" s="9">
         <v>22</v>
       </c>
-      <c r="AM24" s="9"/>
-      <c r="AN24" s="9">
+      <c r="AN24" s="9"/>
+      <c r="AO24" s="9">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:40" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9">
         <v>24</v>
       </c>
@@ -3409,73 +3484,74 @@
       <c r="E25" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F25" s="9"/>
+      <c r="F25" s="9" t="s">
+        <v>111</v>
+      </c>
       <c r="G25" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="I25" s="9" t="s">
         <v>53</v>
       </c>
+      <c r="I25" s="9"/>
       <c r="J25" s="9"/>
-      <c r="K25" s="11">
+      <c r="K25" s="9"/>
+      <c r="L25" s="11">
         <v>1</v>
       </c>
-      <c r="L25" s="11"/>
       <c r="M25" s="11"/>
-      <c r="N25" s="9" t="s">
+      <c r="N25" s="11"/>
+      <c r="O25" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="O25" s="14" t="s">
+      <c r="P25" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="P25" s="14"/>
       <c r="Q25" s="14"/>
-      <c r="R25" s="9" t="s">
+      <c r="R25" s="14"/>
+      <c r="S25" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="S25" s="9" t="s">
+      <c r="T25" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="T25" s="16"/>
-      <c r="U25" s="9"/>
+      <c r="U25" s="16"/>
       <c r="V25" s="9"/>
-      <c r="W25" s="9" t="s">
+      <c r="W25" s="9"/>
+      <c r="X25" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="X25" s="9"/>
       <c r="Y25" s="9"/>
-      <c r="Z25" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="AA25" s="9"/>
+      <c r="Z25" s="9"/>
+      <c r="AA25" s="9" t="s">
+        <v>243</v>
+      </c>
       <c r="AB25" s="9"/>
       <c r="AC25" s="9"/>
       <c r="AD25" s="9"/>
-      <c r="AE25" s="9" t="s">
+      <c r="AE25" s="9"/>
+      <c r="AF25" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AF25" s="17">
+      <c r="AG25" s="17">
         <v>7.4479999999999998E-3</v>
       </c>
-      <c r="AG25" s="9"/>
       <c r="AH25" s="9"/>
       <c r="AI25" s="9"/>
       <c r="AJ25" s="9"/>
-      <c r="AK25" s="9">
+      <c r="AK25" s="9"/>
+      <c r="AL25" s="9">
         <v>3</v>
       </c>
-      <c r="AL25" s="9">
+      <c r="AM25" s="9">
         <v>23</v>
       </c>
-      <c r="AM25" s="9"/>
-      <c r="AN25" s="9">
+      <c r="AN25" s="9"/>
+      <c r="AO25" s="9">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:40" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9">
         <v>25</v>
       </c>
@@ -3491,73 +3567,74 @@
       <c r="E26" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F26" s="9"/>
+      <c r="F26" s="9" t="s">
+        <v>115</v>
+      </c>
       <c r="G26" s="9" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="I26" s="9" t="s">
         <v>53</v>
       </c>
+      <c r="I26" s="9"/>
       <c r="J26" s="9"/>
-      <c r="K26" s="11">
+      <c r="K26" s="9"/>
+      <c r="L26" s="11">
         <v>1</v>
       </c>
-      <c r="L26" s="11"/>
       <c r="M26" s="11"/>
-      <c r="N26" s="9" t="s">
+      <c r="N26" s="11"/>
+      <c r="O26" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="O26" s="14" t="s">
+      <c r="P26" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="P26" s="14"/>
       <c r="Q26" s="14"/>
-      <c r="R26" s="9" t="s">
+      <c r="R26" s="14"/>
+      <c r="S26" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="S26" s="9" t="s">
+      <c r="T26" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="T26" s="16"/>
-      <c r="U26" s="9"/>
+      <c r="U26" s="16"/>
       <c r="V26" s="9"/>
-      <c r="W26" s="9" t="s">
+      <c r="W26" s="9"/>
+      <c r="X26" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="X26" s="9"/>
       <c r="Y26" s="9"/>
-      <c r="Z26" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="AA26" s="9"/>
+      <c r="Z26" s="9"/>
+      <c r="AA26" s="9" t="s">
+        <v>243</v>
+      </c>
       <c r="AB26" s="9"/>
       <c r="AC26" s="9"/>
       <c r="AD26" s="9"/>
-      <c r="AE26" s="9" t="s">
+      <c r="AE26" s="9"/>
+      <c r="AF26" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AF26" s="17">
+      <c r="AG26" s="17">
         <v>7.4479999999999998E-3</v>
       </c>
-      <c r="AG26" s="9"/>
       <c r="AH26" s="9"/>
       <c r="AI26" s="9"/>
       <c r="AJ26" s="9"/>
-      <c r="AK26" s="9">
+      <c r="AK26" s="9"/>
+      <c r="AL26" s="9">
         <v>3</v>
       </c>
-      <c r="AL26" s="9">
+      <c r="AM26" s="9">
         <v>24</v>
       </c>
-      <c r="AM26" s="9"/>
-      <c r="AN26" s="9">
+      <c r="AN26" s="9"/>
+      <c r="AO26" s="9">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:40" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9">
         <v>26</v>
       </c>
@@ -3573,73 +3650,74 @@
       <c r="E27" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9" t="s">
+      <c r="F27" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="G27" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="I27" s="9" t="s">
+      <c r="H27" s="9" t="s">
         <v>53</v>
       </c>
+      <c r="I27" s="9"/>
       <c r="J27" s="9"/>
-      <c r="K27" s="11">
+      <c r="K27" s="9"/>
+      <c r="L27" s="11">
         <v>1</v>
       </c>
-      <c r="L27" s="9"/>
       <c r="M27" s="9"/>
-      <c r="N27" s="9" t="s">
+      <c r="N27" s="9"/>
+      <c r="O27" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="O27" s="14" t="s">
+      <c r="P27" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="P27" s="9"/>
       <c r="Q27" s="9"/>
-      <c r="R27" s="9" t="s">
+      <c r="R27" s="9"/>
+      <c r="S27" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="S27" s="9" t="s">
+      <c r="T27" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="T27" s="16"/>
-      <c r="U27" s="9"/>
+      <c r="U27" s="16"/>
       <c r="V27" s="9"/>
-      <c r="W27" s="9" t="s">
+      <c r="W27" s="9"/>
+      <c r="X27" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="X27" s="9"/>
       <c r="Y27" s="9"/>
-      <c r="Z27" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="AA27" s="9"/>
+      <c r="Z27" s="9"/>
+      <c r="AA27" s="9" t="s">
+        <v>243</v>
+      </c>
       <c r="AB27" s="9"/>
       <c r="AC27" s="9"/>
       <c r="AD27" s="9"/>
-      <c r="AE27" s="9" t="s">
+      <c r="AE27" s="9"/>
+      <c r="AF27" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AF27" s="12">
+      <c r="AG27" s="12">
         <v>7.4479999999999998E-3</v>
       </c>
-      <c r="AG27" s="9"/>
       <c r="AH27" s="9"/>
       <c r="AI27" s="9"/>
       <c r="AJ27" s="9"/>
-      <c r="AK27" s="9">
+      <c r="AK27" s="9"/>
+      <c r="AL27" s="9">
         <v>3</v>
       </c>
-      <c r="AL27" s="9">
+      <c r="AM27" s="9">
         <v>925</v>
       </c>
-      <c r="AM27" s="9"/>
-      <c r="AN27" s="9">
+      <c r="AN27" s="9"/>
+      <c r="AO27" s="9">
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:40" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9">
         <v>27</v>
       </c>
@@ -3655,73 +3733,74 @@
       <c r="E28" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F28" s="9"/>
+      <c r="F28" s="9" t="s">
+        <v>123</v>
+      </c>
       <c r="G28" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="11">
+        <v>1</v>
+      </c>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="H28" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="I28" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="J28" s="9"/>
-      <c r="K28" s="11">
-        <v>1</v>
-      </c>
-      <c r="L28" s="11"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="O28" s="14" t="s">
+      <c r="P28" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="P28" s="14"/>
       <c r="Q28" s="14"/>
-      <c r="R28" s="9" t="s">
+      <c r="R28" s="14"/>
+      <c r="S28" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="S28" s="9" t="s">
+      <c r="T28" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="T28" s="16"/>
-      <c r="U28" s="9"/>
+      <c r="U28" s="16"/>
       <c r="V28" s="9"/>
-      <c r="W28" s="9" t="s">
+      <c r="W28" s="9"/>
+      <c r="X28" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="X28" s="9"/>
       <c r="Y28" s="9"/>
-      <c r="Z28" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="AA28" s="9"/>
+      <c r="Z28" s="9"/>
+      <c r="AA28" s="9" t="s">
+        <v>243</v>
+      </c>
       <c r="AB28" s="9"/>
       <c r="AC28" s="9"/>
       <c r="AD28" s="9"/>
-      <c r="AE28" s="9" t="s">
+      <c r="AE28" s="9"/>
+      <c r="AF28" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AF28" s="17">
+      <c r="AG28" s="17">
         <v>7.4479999999999998E-3</v>
       </c>
-      <c r="AG28" s="9"/>
       <c r="AH28" s="9"/>
       <c r="AI28" s="9"/>
       <c r="AJ28" s="9"/>
-      <c r="AK28" s="9">
+      <c r="AK28" s="9"/>
+      <c r="AL28" s="9">
         <v>3</v>
       </c>
-      <c r="AL28" s="9">
+      <c r="AM28" s="9">
         <v>926</v>
       </c>
-      <c r="AM28" s="9"/>
-      <c r="AN28" s="9">
+      <c r="AN28" s="9"/>
+      <c r="AO28" s="9">
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:40" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9">
         <v>28</v>
       </c>
@@ -3737,73 +3816,74 @@
       <c r="E29" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F29" s="9"/>
+      <c r="F29" s="9" t="s">
+        <v>126</v>
+      </c>
       <c r="G29" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="11">
+        <v>1</v>
+      </c>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="H29" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="I29" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="J29" s="9"/>
-      <c r="K29" s="11">
-        <v>1</v>
-      </c>
-      <c r="L29" s="11"/>
-      <c r="M29" s="11"/>
-      <c r="N29" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="O29" s="14" t="s">
+      <c r="P29" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="P29" s="14"/>
       <c r="Q29" s="14"/>
-      <c r="R29" s="9" t="s">
+      <c r="R29" s="14"/>
+      <c r="S29" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="S29" s="9" t="s">
+      <c r="T29" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="T29" s="16"/>
-      <c r="U29" s="9"/>
+      <c r="U29" s="16"/>
       <c r="V29" s="9"/>
-      <c r="W29" s="9" t="s">
+      <c r="W29" s="9"/>
+      <c r="X29" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="X29" s="9"/>
       <c r="Y29" s="9"/>
-      <c r="Z29" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="AA29" s="9"/>
+      <c r="Z29" s="9"/>
+      <c r="AA29" s="9" t="s">
+        <v>243</v>
+      </c>
       <c r="AB29" s="9"/>
       <c r="AC29" s="9"/>
       <c r="AD29" s="9"/>
-      <c r="AE29" s="9" t="s">
+      <c r="AE29" s="9"/>
+      <c r="AF29" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AF29" s="17">
+      <c r="AG29" s="17">
         <v>7.4479999999999998E-3</v>
       </c>
-      <c r="AG29" s="9"/>
       <c r="AH29" s="9"/>
       <c r="AI29" s="9"/>
       <c r="AJ29" s="9"/>
-      <c r="AK29" s="9">
+      <c r="AK29" s="9"/>
+      <c r="AL29" s="9">
         <v>3</v>
       </c>
-      <c r="AL29" s="9">
+      <c r="AM29" s="9">
         <v>927</v>
       </c>
-      <c r="AM29" s="9"/>
-      <c r="AN29" s="9">
+      <c r="AN29" s="9"/>
+      <c r="AO29" s="9">
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:40" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9">
         <v>37</v>
       </c>
@@ -3817,17 +3897,17 @@
         <v>41</v>
       </c>
       <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
+      <c r="F30" s="10" t="s">
+        <v>130</v>
+      </c>
       <c r="G30" s="10" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="I30" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="J30" s="9"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
       <c r="K30" s="9"/>
       <c r="L30" s="9"/>
       <c r="M30" s="9"/>
@@ -3849,23 +3929,24 @@
       <c r="AC30" s="9"/>
       <c r="AD30" s="9"/>
       <c r="AE30" s="9"/>
-      <c r="AF30" s="12"/>
-      <c r="AG30" s="13"/>
-      <c r="AH30" s="9"/>
+      <c r="AF30" s="9"/>
+      <c r="AG30" s="12"/>
+      <c r="AH30" s="13"/>
       <c r="AI30" s="9"/>
       <c r="AJ30" s="9"/>
-      <c r="AK30" s="14">
+      <c r="AK30" s="9"/>
+      <c r="AL30" s="14">
         <v>1</v>
       </c>
-      <c r="AL30" s="14">
+      <c r="AM30" s="14">
         <v>310</v>
       </c>
-      <c r="AM30" s="15" t="s">
+      <c r="AN30" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="AN30" s="9"/>
+      <c r="AO30" s="9"/>
     </row>
-    <row r="31" spans="1:40" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9">
         <v>38</v>
       </c>
@@ -3879,17 +3960,17 @@
         <v>41</v>
       </c>
       <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
+      <c r="F31" s="10" t="s">
+        <v>133</v>
+      </c>
       <c r="G31" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="I31" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="J31" s="9"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
       <c r="K31" s="9"/>
       <c r="L31" s="9"/>
       <c r="M31" s="9"/>
@@ -3911,25 +3992,26 @@
       <c r="AC31" s="9"/>
       <c r="AD31" s="9"/>
       <c r="AE31" s="9"/>
-      <c r="AF31" s="12"/>
-      <c r="AG31" s="13"/>
-      <c r="AH31" s="9"/>
+      <c r="AF31" s="9"/>
+      <c r="AG31" s="12"/>
+      <c r="AH31" s="13"/>
       <c r="AI31" s="9"/>
       <c r="AJ31" s="9"/>
-      <c r="AK31" s="14">
+      <c r="AK31" s="9"/>
+      <c r="AL31" s="14">
         <v>1</v>
       </c>
-      <c r="AL31" s="14">
+      <c r="AM31" s="14">
         <v>311</v>
       </c>
-      <c r="AM31" s="9">
+      <c r="AN31" s="9">
         <v>26</v>
       </c>
-      <c r="AN31" s="9">
+      <c r="AO31" s="9">
         <v>310</v>
       </c>
     </row>
-    <row r="32" spans="1:40" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9">
         <v>39</v>
       </c>
@@ -3945,28 +4027,28 @@
       <c r="E32" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="F32" s="9"/>
+      <c r="F32" s="9" t="s">
+        <v>136</v>
+      </c>
       <c r="G32" s="9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="I32" s="9" t="s">
         <v>138</v>
       </c>
+      <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c r="L32" s="9"/>
       <c r="M32" s="9"/>
       <c r="N32" s="9"/>
-      <c r="O32" s="14"/>
+      <c r="O32" s="9"/>
       <c r="P32" s="14"/>
       <c r="Q32" s="14"/>
-      <c r="R32" s="9" t="s">
+      <c r="R32" s="14"/>
+      <c r="S32" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="S32" s="9"/>
       <c r="T32" s="9"/>
       <c r="U32" s="9"/>
       <c r="V32" s="9"/>
@@ -3977,35 +4059,36 @@
       <c r="AA32" s="9"/>
       <c r="AB32" s="9"/>
       <c r="AC32" s="9"/>
-      <c r="AD32" s="9" t="s">
+      <c r="AD32" s="9"/>
+      <c r="AE32" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="AE32" s="9" t="s">
+      <c r="AF32" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="AF32" s="12">
+      <c r="AG32" s="12">
         <v>0.08</v>
       </c>
-      <c r="AG32" s="9"/>
       <c r="AH32" s="9"/>
-      <c r="AI32" s="9" t="s">
+      <c r="AI32" s="9"/>
+      <c r="AJ32" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="AJ32" s="9"/>
-      <c r="AK32" s="9">
+      <c r="AK32" s="9"/>
+      <c r="AL32" s="9">
         <v>2</v>
       </c>
-      <c r="AL32" s="9">
+      <c r="AM32" s="9">
         <v>26</v>
       </c>
-      <c r="AM32" s="15" t="s">
+      <c r="AN32" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="AN32" s="9">
+      <c r="AO32" s="9">
         <v>311</v>
       </c>
     </row>
-    <row r="33" spans="1:40" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="9">
         <v>40</v>
       </c>
@@ -4021,71 +4104,72 @@
       <c r="E33" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="F33" s="9"/>
+      <c r="F33" s="9" t="s">
+        <v>144</v>
+      </c>
       <c r="G33" s="9" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H33" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="I33" s="9" t="s">
         <v>146</v>
       </c>
+      <c r="I33" s="9"/>
       <c r="J33" s="9"/>
-      <c r="K33" s="9">
+      <c r="K33" s="9"/>
+      <c r="L33" s="9">
         <v>1</v>
       </c>
-      <c r="L33" s="9"/>
       <c r="M33" s="9"/>
-      <c r="N33" s="9" t="s">
+      <c r="N33" s="9"/>
+      <c r="O33" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="O33" s="14" t="s">
+      <c r="P33" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="P33" s="14"/>
       <c r="Q33" s="14"/>
-      <c r="R33" s="9"/>
-      <c r="S33" s="9" t="s">
+      <c r="R33" s="14"/>
+      <c r="S33" s="9"/>
+      <c r="T33" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="T33" s="9"/>
       <c r="U33" s="9"/>
       <c r="V33" s="9"/>
       <c r="W33" s="9"/>
-      <c r="X33" s="9" t="s">
+      <c r="X33" s="9"/>
+      <c r="Y33" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="Y33" s="9"/>
       <c r="Z33" s="9"/>
       <c r="AA33" s="9"/>
       <c r="AB33" s="9"/>
       <c r="AC33" s="9"/>
-      <c r="AD33" s="9" t="s">
+      <c r="AD33" s="9"/>
+      <c r="AE33" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="AE33" s="9" t="s">
+      <c r="AF33" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AF33" s="12"/>
-      <c r="AG33" s="9"/>
+      <c r="AG33" s="12"/>
       <c r="AH33" s="9"/>
-      <c r="AI33" s="9" t="s">
+      <c r="AI33" s="9"/>
+      <c r="AJ33" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="AJ33" s="9"/>
-      <c r="AK33" s="9">
+      <c r="AK33" s="9"/>
+      <c r="AL33" s="9">
         <v>3</v>
       </c>
-      <c r="AL33" s="9">
+      <c r="AM33" s="9">
         <v>27</v>
       </c>
-      <c r="AM33" s="9"/>
-      <c r="AN33" s="9">
+      <c r="AN33" s="9"/>
+      <c r="AO33" s="9">
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:40" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="9">
         <v>41</v>
       </c>
@@ -4101,69 +4185,70 @@
       <c r="E34" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="F34" s="9"/>
+      <c r="F34" s="9" t="s">
+        <v>152</v>
+      </c>
       <c r="G34" s="9" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="I34" s="9" t="s">
         <v>154</v>
       </c>
+      <c r="I34" s="9"/>
       <c r="J34" s="9"/>
-      <c r="K34" s="9">
+      <c r="K34" s="9"/>
+      <c r="L34" s="9">
         <v>0.01</v>
       </c>
-      <c r="L34" s="9"/>
       <c r="M34" s="9"/>
-      <c r="N34" s="9" t="s">
+      <c r="N34" s="9"/>
+      <c r="O34" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="O34" s="14" t="s">
+      <c r="P34" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="P34" s="14"/>
       <c r="Q34" s="14"/>
-      <c r="R34" s="9"/>
-      <c r="S34" s="9" t="s">
+      <c r="R34" s="14"/>
+      <c r="S34" s="9"/>
+      <c r="T34" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="T34" s="9"/>
       <c r="U34" s="9"/>
       <c r="V34" s="9"/>
       <c r="W34" s="9"/>
-      <c r="X34" s="9" t="s">
+      <c r="X34" s="9"/>
+      <c r="Y34" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="Y34" s="9"/>
       <c r="Z34" s="9"/>
       <c r="AA34" s="9"/>
       <c r="AB34" s="9"/>
       <c r="AC34" s="9"/>
-      <c r="AD34" s="9" t="s">
+      <c r="AD34" s="9"/>
+      <c r="AE34" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="AE34" s="9" t="s">
+      <c r="AF34" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AF34" s="12"/>
-      <c r="AG34" s="9"/>
+      <c r="AG34" s="12"/>
       <c r="AH34" s="9"/>
       <c r="AI34" s="9"/>
       <c r="AJ34" s="9"/>
-      <c r="AK34" s="9">
+      <c r="AK34" s="9"/>
+      <c r="AL34" s="9">
         <v>3</v>
       </c>
-      <c r="AL34" s="9">
+      <c r="AM34" s="9">
         <v>28</v>
       </c>
-      <c r="AM34" s="9"/>
-      <c r="AN34" s="9">
+      <c r="AN34" s="9"/>
+      <c r="AO34" s="9">
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:40" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="9">
         <v>42</v>
       </c>
@@ -4177,17 +4262,17 @@
         <v>41</v>
       </c>
       <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
+      <c r="F35" s="10" t="s">
+        <v>156</v>
+      </c>
       <c r="G35" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H35" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="I35" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="J35" s="9"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
       <c r="K35" s="9"/>
       <c r="L35" s="9"/>
       <c r="M35" s="9"/>
@@ -4209,25 +4294,26 @@
       <c r="AC35" s="9"/>
       <c r="AD35" s="9"/>
       <c r="AE35" s="9"/>
-      <c r="AF35" s="12"/>
-      <c r="AG35" s="13"/>
-      <c r="AH35" s="9"/>
+      <c r="AF35" s="9"/>
+      <c r="AG35" s="12"/>
+      <c r="AH35" s="13"/>
       <c r="AI35" s="9"/>
       <c r="AJ35" s="9"/>
-      <c r="AK35" s="14">
+      <c r="AK35" s="9"/>
+      <c r="AL35" s="14">
         <v>1</v>
       </c>
-      <c r="AL35" s="14">
+      <c r="AM35" s="14">
         <v>312</v>
       </c>
-      <c r="AM35" s="15" t="s">
+      <c r="AN35" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="AN35" s="9">
+      <c r="AO35" s="9">
         <v>310</v>
       </c>
     </row>
-    <row r="36" spans="1:40" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="9">
         <v>43</v>
       </c>
@@ -4243,75 +4329,76 @@
       <c r="E36" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="F36" s="9"/>
+      <c r="F36" s="9" t="s">
+        <v>160</v>
+      </c>
       <c r="G36" s="9" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="I36" s="9" t="s">
         <v>162</v>
       </c>
+      <c r="I36" s="9"/>
       <c r="J36" s="9"/>
-      <c r="K36" s="9">
+      <c r="K36" s="9"/>
+      <c r="L36" s="9">
         <v>1</v>
       </c>
-      <c r="L36" s="9"/>
       <c r="M36" s="9"/>
       <c r="N36" s="9"/>
-      <c r="O36" s="9" t="s">
+      <c r="O36" s="9"/>
+      <c r="P36" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="P36" s="14"/>
       <c r="Q36" s="14"/>
-      <c r="R36" s="9"/>
-      <c r="S36" s="9" t="s">
+      <c r="R36" s="14"/>
+      <c r="S36" s="9"/>
+      <c r="T36" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="T36" s="9"/>
       <c r="U36" s="9"/>
       <c r="V36" s="9"/>
       <c r="W36" s="9"/>
-      <c r="X36" s="9" t="s">
+      <c r="X36" s="9"/>
+      <c r="Y36" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="Y36" s="23" t="s">
-        <v>246</v>
-      </c>
-      <c r="Z36" s="9"/>
+      <c r="Z36" s="23" t="s">
+        <v>244</v>
+      </c>
       <c r="AA36" s="9"/>
       <c r="AB36" s="9"/>
       <c r="AC36" s="9"/>
-      <c r="AD36" s="9" t="s">
+      <c r="AD36" s="9"/>
+      <c r="AE36" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="AE36" s="9" t="s">
+      <c r="AF36" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AF36" s="12">
+      <c r="AG36" s="12">
         <v>0.04</v>
       </c>
-      <c r="AG36" s="9"/>
       <c r="AH36" s="9"/>
-      <c r="AI36" s="9" t="s">
+      <c r="AI36" s="9"/>
+      <c r="AJ36" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="AJ36" s="9" t="s">
+      <c r="AK36" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="AK36" s="9">
+      <c r="AL36" s="9">
         <v>2</v>
       </c>
-      <c r="AL36" s="9">
+      <c r="AM36" s="9">
         <v>29</v>
       </c>
-      <c r="AM36" s="9"/>
-      <c r="AN36" s="19">
+      <c r="AN36" s="9"/>
+      <c r="AO36" s="19">
         <v>312</v>
       </c>
     </row>
-    <row r="37" spans="1:40" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="9">
         <v>44</v>
       </c>
@@ -4327,75 +4414,76 @@
       <c r="E37" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="F37" s="9"/>
+      <c r="F37" s="9" t="s">
+        <v>166</v>
+      </c>
       <c r="G37" s="9" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="I37" s="9" t="s">
         <v>168</v>
       </c>
+      <c r="I37" s="9"/>
       <c r="J37" s="9"/>
-      <c r="K37" s="9">
+      <c r="K37" s="9"/>
+      <c r="L37" s="9">
         <v>1</v>
       </c>
-      <c r="L37" s="9"/>
       <c r="M37" s="9"/>
-      <c r="N37" s="9" t="s">
+      <c r="N37" s="9"/>
+      <c r="O37" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="O37" s="14" t="s">
+      <c r="P37" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="P37" s="14"/>
       <c r="Q37" s="14"/>
-      <c r="R37" s="9"/>
-      <c r="S37" s="9" t="s">
+      <c r="R37" s="14"/>
+      <c r="S37" s="9"/>
+      <c r="T37" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="T37" s="9"/>
       <c r="U37" s="9"/>
       <c r="V37" s="9"/>
       <c r="W37" s="9"/>
-      <c r="X37" s="9" t="s">
+      <c r="X37" s="9"/>
+      <c r="Y37" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="Y37" s="9"/>
       <c r="Z37" s="9"/>
       <c r="AA37" s="9"/>
       <c r="AB37" s="9"/>
       <c r="AC37" s="9"/>
-      <c r="AD37" s="9" t="s">
+      <c r="AD37" s="9"/>
+      <c r="AE37" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="AE37" s="9" t="s">
+      <c r="AF37" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="AF37" s="12">
+      <c r="AG37" s="12">
         <v>0.04</v>
       </c>
-      <c r="AG37" s="9"/>
       <c r="AH37" s="9"/>
-      <c r="AI37" s="9" t="s">
+      <c r="AI37" s="9"/>
+      <c r="AJ37" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="AJ37" s="9" t="s">
+      <c r="AK37" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="AK37" s="9">
+      <c r="AL37" s="9">
         <v>2</v>
       </c>
-      <c r="AL37" s="9">
+      <c r="AM37" s="9">
         <v>30</v>
       </c>
-      <c r="AM37" s="9"/>
-      <c r="AN37" s="19">
+      <c r="AN37" s="9"/>
+      <c r="AO37" s="19">
         <v>312</v>
       </c>
     </row>
-    <row r="38" spans="1:40" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="9">
         <v>45</v>
       </c>
@@ -4411,77 +4499,78 @@
       <c r="E38" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="F38" s="9"/>
+      <c r="F38" s="9" t="s">
+        <v>170</v>
+      </c>
       <c r="G38" s="9" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="I38" s="9" t="s">
         <v>172</v>
       </c>
+      <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
-      <c r="L38" s="9">
+      <c r="L38" s="9"/>
+      <c r="M38" s="9">
         <v>1</v>
       </c>
-      <c r="M38" s="9">
+      <c r="N38" s="9">
         <v>15</v>
       </c>
-      <c r="N38" s="9" t="s">
+      <c r="O38" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="O38" s="14" t="s">
+      <c r="P38" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="P38" s="14"/>
       <c r="Q38" s="14"/>
-      <c r="R38" s="9"/>
-      <c r="S38" s="9" t="s">
+      <c r="R38" s="14"/>
+      <c r="S38" s="9"/>
+      <c r="T38" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="T38" s="9"/>
       <c r="U38" s="9"/>
       <c r="V38" s="9"/>
       <c r="W38" s="9"/>
-      <c r="X38" s="9" t="s">
+      <c r="X38" s="9"/>
+      <c r="Y38" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="Y38" s="9"/>
       <c r="Z38" s="9"/>
       <c r="AA38" s="9"/>
       <c r="AB38" s="9"/>
       <c r="AC38" s="9"/>
-      <c r="AD38" s="9" t="s">
+      <c r="AD38" s="9"/>
+      <c r="AE38" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="AE38" s="9" t="s">
+      <c r="AF38" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AF38" s="12">
+      <c r="AG38" s="12">
         <v>0.04</v>
       </c>
-      <c r="AG38" s="9"/>
       <c r="AH38" s="9"/>
-      <c r="AI38" s="9" t="s">
+      <c r="AI38" s="9"/>
+      <c r="AJ38" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="AJ38" s="9" t="s">
+      <c r="AK38" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="AK38" s="9">
+      <c r="AL38" s="9">
         <v>2</v>
       </c>
-      <c r="AL38" s="9">
+      <c r="AM38" s="9">
         <v>31</v>
       </c>
-      <c r="AM38" s="9"/>
-      <c r="AN38" s="19">
+      <c r="AN38" s="9"/>
+      <c r="AO38" s="19">
         <v>312</v>
       </c>
     </row>
-    <row r="39" spans="1:40" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="9">
         <v>46</v>
       </c>
@@ -4495,17 +4584,17 @@
         <v>41</v>
       </c>
       <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
+      <c r="F39" s="10" t="s">
+        <v>173</v>
+      </c>
       <c r="G39" s="10" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H39" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="I39" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="J39" s="9"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
       <c r="K39" s="9"/>
       <c r="L39" s="9"/>
       <c r="M39" s="9"/>
@@ -4527,23 +4616,24 @@
       <c r="AC39" s="9"/>
       <c r="AD39" s="9"/>
       <c r="AE39" s="9"/>
-      <c r="AF39" s="12"/>
-      <c r="AG39" s="13"/>
-      <c r="AH39" s="9"/>
+      <c r="AF39" s="9"/>
+      <c r="AG39" s="12"/>
+      <c r="AH39" s="13"/>
       <c r="AI39" s="9"/>
       <c r="AJ39" s="9"/>
-      <c r="AK39" s="14">
+      <c r="AK39" s="9"/>
+      <c r="AL39" s="14">
         <v>1</v>
       </c>
-      <c r="AL39" s="14">
+      <c r="AM39" s="14">
         <v>400</v>
       </c>
-      <c r="AM39" s="15" t="s">
+      <c r="AN39" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="AN39" s="9"/>
+      <c r="AO39" s="9"/>
     </row>
-    <row r="40" spans="1:40" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="9">
         <v>48</v>
       </c>
@@ -4559,75 +4649,76 @@
       <c r="E40" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="F40" s="9"/>
+      <c r="F40" s="9" t="s">
+        <v>177</v>
+      </c>
       <c r="G40" s="9" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H40" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="I40" s="9" t="s">
         <v>53</v>
       </c>
+      <c r="I40" s="9"/>
       <c r="J40" s="9"/>
-      <c r="K40" s="9">
+      <c r="K40" s="9"/>
+      <c r="L40" s="9">
         <v>4</v>
       </c>
-      <c r="L40" s="9"/>
       <c r="M40" s="9"/>
-      <c r="N40" s="9" t="s">
+      <c r="N40" s="9"/>
+      <c r="O40" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="O40" s="9" t="s">
+      <c r="P40" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="P40" s="9"/>
       <c r="Q40" s="9"/>
-      <c r="R40" s="9" t="s">
+      <c r="R40" s="9"/>
+      <c r="S40" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="S40" s="9" t="s">
+      <c r="T40" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="T40" s="9"/>
       <c r="U40" s="9"/>
       <c r="V40" s="9"/>
       <c r="W40" s="9"/>
-      <c r="X40" s="9" t="s">
+      <c r="X40" s="9"/>
+      <c r="Y40" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="Y40" s="23" t="s">
-        <v>247</v>
-      </c>
-      <c r="Z40" s="9"/>
+      <c r="Z40" s="23" t="s">
+        <v>245</v>
+      </c>
       <c r="AA40" s="9"/>
       <c r="AB40" s="9"/>
       <c r="AC40" s="9"/>
-      <c r="AD40" s="9" t="s">
+      <c r="AD40" s="9"/>
+      <c r="AE40" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="AE40" s="9" t="s">
+      <c r="AF40" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AF40" s="12">
+      <c r="AG40" s="12">
         <v>0.05</v>
       </c>
-      <c r="AG40" s="9"/>
       <c r="AH40" s="9"/>
       <c r="AI40" s="9"/>
       <c r="AJ40" s="9"/>
-      <c r="AK40" s="9">
+      <c r="AK40" s="9"/>
+      <c r="AL40" s="9">
         <v>2</v>
       </c>
-      <c r="AL40" s="9">
+      <c r="AM40" s="9">
         <v>33</v>
       </c>
-      <c r="AM40" s="9"/>
-      <c r="AN40" s="9">
+      <c r="AN40" s="9"/>
+      <c r="AO40" s="9">
         <v>400</v>
       </c>
     </row>
-    <row r="41" spans="1:40" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="9">
         <v>49</v>
       </c>
@@ -4643,71 +4734,72 @@
       <c r="E41" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="F41" s="9"/>
+      <c r="F41" s="9" t="s">
+        <v>181</v>
+      </c>
       <c r="G41" s="9" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H41" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="I41" s="9" t="s">
         <v>183</v>
       </c>
+      <c r="I41" s="9"/>
       <c r="J41" s="9"/>
-      <c r="K41" s="9">
+      <c r="K41" s="9"/>
+      <c r="L41" s="9">
         <v>2</v>
       </c>
-      <c r="L41" s="9"/>
       <c r="M41" s="9"/>
       <c r="N41" s="9"/>
       <c r="O41" s="9"/>
       <c r="P41" s="9"/>
       <c r="Q41" s="9"/>
-      <c r="R41" s="9" t="s">
+      <c r="R41" s="9"/>
+      <c r="S41" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="S41" s="9"/>
       <c r="T41" s="9"/>
       <c r="U41" s="9"/>
       <c r="V41" s="9"/>
       <c r="W41" s="9"/>
-      <c r="X41" s="9" t="s">
+      <c r="X41" s="9"/>
+      <c r="Y41" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="Y41" s="23" t="s">
-        <v>248</v>
-      </c>
-      <c r="Z41" s="9"/>
+      <c r="Z41" s="23" t="s">
+        <v>246</v>
+      </c>
       <c r="AA41" s="9"/>
       <c r="AB41" s="9"/>
       <c r="AC41" s="9"/>
-      <c r="AD41" s="9" t="s">
+      <c r="AD41" s="9"/>
+      <c r="AE41" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="AE41" s="9" t="s">
+      <c r="AF41" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AF41" s="12">
+      <c r="AG41" s="12">
         <v>0.28000000000000003</v>
       </c>
-      <c r="AG41" s="9"/>
       <c r="AH41" s="9"/>
       <c r="AI41" s="9"/>
       <c r="AJ41" s="9"/>
-      <c r="AK41" s="9">
+      <c r="AK41" s="9"/>
+      <c r="AL41" s="9">
         <v>2</v>
       </c>
-      <c r="AL41" s="9">
+      <c r="AM41" s="9">
         <v>34</v>
       </c>
-      <c r="AM41" s="15" t="s">
+      <c r="AN41" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="AN41" s="9">
+      <c r="AO41" s="9">
         <v>400</v>
       </c>
     </row>
-    <row r="42" spans="1:40" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="9">
         <v>50</v>
       </c>
@@ -4723,73 +4815,74 @@
       <c r="E42" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="F42" s="9"/>
+      <c r="F42" s="9" t="s">
+        <v>186</v>
+      </c>
       <c r="G42" s="9" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H42" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="I42" s="9" t="s">
         <v>53</v>
       </c>
+      <c r="I42" s="9"/>
       <c r="J42" s="9"/>
-      <c r="K42" s="9">
+      <c r="K42" s="9"/>
+      <c r="L42" s="9">
         <v>1</v>
       </c>
-      <c r="L42" s="9"/>
       <c r="M42" s="9"/>
-      <c r="N42" s="9" t="s">
+      <c r="N42" s="9"/>
+      <c r="O42" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="O42" s="9" t="s">
+      <c r="P42" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="P42" s="9"/>
       <c r="Q42" s="9"/>
-      <c r="R42" s="9" t="s">
+      <c r="R42" s="9"/>
+      <c r="S42" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="S42" s="9" t="s">
+      <c r="T42" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="T42" s="9"/>
       <c r="U42" s="9"/>
       <c r="V42" s="9"/>
       <c r="W42" s="9"/>
-      <c r="X42" s="9" t="s">
+      <c r="X42" s="9"/>
+      <c r="Y42" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="Y42" s="23" t="s">
-        <v>248</v>
-      </c>
-      <c r="Z42" s="9"/>
+      <c r="Z42" s="23" t="s">
+        <v>246</v>
+      </c>
       <c r="AA42" s="9"/>
       <c r="AB42" s="9"/>
       <c r="AC42" s="9"/>
-      <c r="AD42" s="9" t="s">
+      <c r="AD42" s="9"/>
+      <c r="AE42" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="AE42" s="9" t="s">
+      <c r="AF42" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AF42" s="12"/>
-      <c r="AG42" s="9"/>
+      <c r="AG42" s="12"/>
       <c r="AH42" s="9"/>
       <c r="AI42" s="9"/>
       <c r="AJ42" s="9"/>
-      <c r="AK42" s="9">
+      <c r="AK42" s="9"/>
+      <c r="AL42" s="9">
         <v>3</v>
       </c>
-      <c r="AL42" s="9">
+      <c r="AM42" s="9">
         <v>35</v>
       </c>
-      <c r="AM42" s="9"/>
-      <c r="AN42" s="9">
+      <c r="AN42" s="9"/>
+      <c r="AO42" s="9">
         <v>34</v>
       </c>
     </row>
-    <row r="43" spans="1:40" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="9">
         <v>51</v>
       </c>
@@ -4805,77 +4898,78 @@
       <c r="E43" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="F43" s="9"/>
+      <c r="F43" s="9" t="s">
+        <v>190</v>
+      </c>
       <c r="G43" s="9" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H43" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="I43" s="9" t="s">
         <v>53</v>
       </c>
+      <c r="I43" s="9"/>
       <c r="J43" s="9"/>
-      <c r="K43" s="9">
+      <c r="K43" s="9"/>
+      <c r="L43" s="9">
         <v>1</v>
       </c>
-      <c r="L43" s="9"/>
       <c r="M43" s="9"/>
-      <c r="N43" s="2" t="s">
+      <c r="N43" s="9"/>
+      <c r="O43" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="O43" s="9" t="s">
+      <c r="P43" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="P43" s="9" t="s">
+      <c r="Q43" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="Q43" s="9"/>
-      <c r="R43" s="9" t="s">
+      <c r="R43" s="9"/>
+      <c r="S43" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="S43" s="9" t="s">
+      <c r="T43" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="T43" s="9"/>
       <c r="U43" s="9"/>
       <c r="V43" s="9"/>
       <c r="W43" s="9"/>
-      <c r="X43" s="9" t="s">
+      <c r="X43" s="9"/>
+      <c r="Y43" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="Y43" s="23" t="s">
-        <v>248</v>
-      </c>
-      <c r="Z43" s="9"/>
+      <c r="Z43" s="23" t="s">
+        <v>246</v>
+      </c>
       <c r="AA43" s="9"/>
       <c r="AB43" s="9"/>
       <c r="AC43" s="9"/>
-      <c r="AD43" s="9" t="s">
+      <c r="AD43" s="9"/>
+      <c r="AE43" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="AE43" s="9" t="s">
+      <c r="AF43" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AF43" s="12"/>
-      <c r="AG43" s="9"/>
+      <c r="AG43" s="12"/>
       <c r="AH43" s="9"/>
-      <c r="AI43" s="9" t="s">
+      <c r="AI43" s="9"/>
+      <c r="AJ43" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="AJ43" s="9"/>
-      <c r="AK43" s="9">
+      <c r="AK43" s="9"/>
+      <c r="AL43" s="9">
         <v>3</v>
       </c>
-      <c r="AL43" s="9">
+      <c r="AM43" s="9">
         <v>36</v>
       </c>
-      <c r="AM43" s="9"/>
-      <c r="AN43" s="9">
+      <c r="AN43" s="9"/>
+      <c r="AO43" s="9">
         <v>34</v>
       </c>
     </row>
-    <row r="44" spans="1:40" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="9">
         <v>52</v>
       </c>
@@ -4891,69 +4985,70 @@
       <c r="E44" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="F44" s="9"/>
+      <c r="F44" s="9" t="s">
+        <v>197</v>
+      </c>
       <c r="G44" s="9" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H44" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="I44" s="9" t="s">
         <v>183</v>
       </c>
+      <c r="I44" s="9"/>
       <c r="J44" s="9"/>
-      <c r="K44" s="9">
+      <c r="K44" s="9"/>
+      <c r="L44" s="9">
         <v>1</v>
       </c>
-      <c r="L44" s="9"/>
       <c r="M44" s="9"/>
       <c r="N44" s="9"/>
-      <c r="O44" s="14"/>
-      <c r="P44" s="9"/>
-      <c r="Q44" s="14"/>
-      <c r="R44" s="9" t="s">
+      <c r="O44" s="9"/>
+      <c r="P44" s="14"/>
+      <c r="Q44" s="9"/>
+      <c r="R44" s="14"/>
+      <c r="S44" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="S44" s="9"/>
       <c r="T44" s="9"/>
       <c r="U44" s="9"/>
       <c r="V44" s="9"/>
       <c r="W44" s="9"/>
-      <c r="X44" s="9" t="s">
+      <c r="X44" s="9"/>
+      <c r="Y44" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="Y44" s="23" t="s">
-        <v>248</v>
-      </c>
-      <c r="Z44" s="9"/>
+      <c r="Z44" s="23" t="s">
+        <v>246</v>
+      </c>
       <c r="AA44" s="9"/>
       <c r="AB44" s="9"/>
       <c r="AC44" s="9"/>
       <c r="AD44" s="9"/>
-      <c r="AE44" s="9" t="s">
+      <c r="AE44" s="9"/>
+      <c r="AF44" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AF44" s="17">
+      <c r="AG44" s="17">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AG44" s="9"/>
       <c r="AH44" s="9"/>
       <c r="AI44" s="9"/>
       <c r="AJ44" s="9"/>
-      <c r="AK44" s="9">
+      <c r="AK44" s="9"/>
+      <c r="AL44" s="9">
         <v>2</v>
       </c>
-      <c r="AL44" s="9">
+      <c r="AM44" s="9">
         <v>680</v>
       </c>
-      <c r="AM44" s="15">
+      <c r="AN44" s="15">
         <v>769</v>
       </c>
-      <c r="AN44" s="19">
+      <c r="AO44" s="19">
         <v>400</v>
       </c>
     </row>
-    <row r="45" spans="1:40" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="9">
         <v>56</v>
       </c>
@@ -4969,69 +5064,70 @@
       <c r="E45" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="F45" s="9"/>
+      <c r="F45" s="9" t="s">
+        <v>199</v>
+      </c>
       <c r="G45" s="9" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H45" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="I45" s="9" t="s">
         <v>201</v>
       </c>
+      <c r="I45" s="9"/>
       <c r="J45" s="9"/>
-      <c r="K45" s="9">
+      <c r="K45" s="9"/>
+      <c r="L45" s="9">
         <v>2</v>
       </c>
-      <c r="L45" s="9"/>
       <c r="M45" s="9"/>
       <c r="N45" s="9"/>
       <c r="O45" s="9"/>
-      <c r="P45" s="14"/>
-      <c r="Q45" s="9"/>
-      <c r="R45" s="9" t="s">
+      <c r="P45" s="9"/>
+      <c r="Q45" s="14"/>
+      <c r="R45" s="9"/>
+      <c r="S45" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="S45" s="9"/>
       <c r="T45" s="9"/>
       <c r="U45" s="9"/>
       <c r="V45" s="9"/>
       <c r="W45" s="9"/>
-      <c r="X45" s="9" t="s">
+      <c r="X45" s="9"/>
+      <c r="Y45" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="Y45" s="23" t="s">
-        <v>248</v>
-      </c>
-      <c r="Z45" s="9"/>
+      <c r="Z45" s="23" t="s">
+        <v>246</v>
+      </c>
       <c r="AA45" s="9"/>
       <c r="AB45" s="9"/>
       <c r="AC45" s="9"/>
-      <c r="AD45" s="9" t="s">
+      <c r="AD45" s="9"/>
+      <c r="AE45" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="AE45" s="9" t="s">
+      <c r="AF45" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AF45" s="17"/>
-      <c r="AG45" s="9"/>
+      <c r="AG45" s="17"/>
       <c r="AH45" s="9"/>
       <c r="AI45" s="9"/>
       <c r="AJ45" s="9"/>
-      <c r="AK45" s="9">
+      <c r="AK45" s="9"/>
+      <c r="AL45" s="9">
         <v>3</v>
       </c>
-      <c r="AL45" s="9">
+      <c r="AM45" s="9">
         <v>769</v>
       </c>
-      <c r="AM45" s="15" t="s">
+      <c r="AN45" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="AN45" s="9">
+      <c r="AO45" s="9">
         <v>680</v>
       </c>
     </row>
-    <row r="46" spans="1:40" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="9">
         <v>57</v>
       </c>
@@ -5054,72 +5150,71 @@
         <v>204</v>
       </c>
       <c r="H46" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c r="L46" s="9">
+        <v>1</v>
+      </c>
+      <c r="M46" s="9"/>
+      <c r="N46" s="9"/>
+      <c r="O46" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="I46" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="J46" s="9"/>
-      <c r="K46" s="9">
-        <v>1</v>
-      </c>
-      <c r="L46" s="9"/>
-      <c r="M46" s="9"/>
-      <c r="N46" s="9" t="s">
+      <c r="P46" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q46" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="R46" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="S46" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="T46" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="O46" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="P46" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q46" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="R46" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="S46" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="T46" s="9"/>
       <c r="U46" s="9"/>
       <c r="V46" s="9"/>
       <c r="W46" s="9"/>
-      <c r="X46" s="9" t="s">
+      <c r="X46" s="9"/>
+      <c r="Y46" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="Y46" s="23" t="s">
-        <v>248</v>
-      </c>
-      <c r="Z46" s="9"/>
+      <c r="Z46" s="23" t="s">
+        <v>246</v>
+      </c>
       <c r="AA46" s="9"/>
       <c r="AB46" s="9"/>
       <c r="AC46" s="9"/>
-      <c r="AD46" s="9" t="s">
+      <c r="AD46" s="9"/>
+      <c r="AE46" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="AE46" s="9" t="s">
+      <c r="AF46" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AF46" s="17"/>
-      <c r="AG46" s="9"/>
+      <c r="AG46" s="17"/>
       <c r="AH46" s="9"/>
       <c r="AI46" s="9"/>
       <c r="AJ46" s="9"/>
-      <c r="AK46" s="9">
+      <c r="AK46" s="9"/>
+      <c r="AL46" s="9">
         <v>4</v>
       </c>
-      <c r="AL46" s="9">
+      <c r="AM46" s="9">
         <v>770</v>
       </c>
-      <c r="AM46" s="9"/>
-      <c r="AN46" s="9">
+      <c r="AN46" s="9"/>
+      <c r="AO46" s="9">
         <v>769</v>
       </c>
     </row>
-    <row r="47" spans="1:40" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="9">
         <v>58</v>
       </c>
@@ -5136,78 +5231,77 @@
         <v>180</v>
       </c>
       <c r="F47" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="G47" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="G47" s="9" t="s">
-        <v>209</v>
-      </c>
       <c r="H47" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="I47" s="9" t="s">
         <v>53</v>
       </c>
+      <c r="I47" s="9"/>
       <c r="J47" s="9"/>
-      <c r="K47" s="9">
+      <c r="K47" s="9"/>
+      <c r="L47" s="9">
         <v>1</v>
       </c>
-      <c r="L47" s="9"/>
       <c r="M47" s="9"/>
-      <c r="N47" s="2" t="s">
+      <c r="N47" s="9"/>
+      <c r="O47" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="O47" s="9" t="s">
+      <c r="P47" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="P47" s="9" t="s">
+      <c r="Q47" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="Q47" s="9"/>
-      <c r="R47" s="9" t="s">
+      <c r="R47" s="9"/>
+      <c r="S47" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="S47" s="9" t="s">
+      <c r="T47" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="T47" s="9"/>
       <c r="U47" s="9"/>
       <c r="V47" s="9"/>
       <c r="W47" s="9"/>
-      <c r="X47" s="9" t="s">
+      <c r="X47" s="9"/>
+      <c r="Y47" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="Y47" s="23" t="s">
-        <v>248</v>
-      </c>
-      <c r="Z47" s="9"/>
+      <c r="Z47" s="23" t="s">
+        <v>246</v>
+      </c>
       <c r="AA47" s="9"/>
       <c r="AB47" s="9"/>
       <c r="AC47" s="9"/>
-      <c r="AD47" s="9" t="s">
+      <c r="AD47" s="9"/>
+      <c r="AE47" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="AE47" s="9" t="s">
+      <c r="AF47" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AF47" s="17"/>
-      <c r="AG47" s="9"/>
+      <c r="AG47" s="17"/>
       <c r="AH47" s="9"/>
-      <c r="AI47" s="9" t="s">
+      <c r="AI47" s="9"/>
+      <c r="AJ47" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="AJ47" s="9"/>
-      <c r="AK47" s="9">
+      <c r="AK47" s="9"/>
+      <c r="AL47" s="9">
         <v>4</v>
       </c>
-      <c r="AL47" s="9">
+      <c r="AM47" s="9">
         <v>771</v>
       </c>
-      <c r="AM47" s="9"/>
-      <c r="AN47" s="9">
+      <c r="AN47" s="9"/>
+      <c r="AO47" s="9">
         <v>769</v>
       </c>
     </row>
-    <row r="48" spans="1:40" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="9">
         <v>59</v>
       </c>
@@ -5218,25 +5312,25 @@
         <v>40</v>
       </c>
       <c r="D48" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="E48" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="F48" s="19" t="s">
         <v>211</v>
       </c>
-      <c r="E48" s="19" t="s">
+      <c r="G48" s="19" t="s">
         <v>212</v>
       </c>
-      <c r="F48" s="19"/>
-      <c r="G48" s="19" t="s">
+      <c r="H48" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="H48" s="19" t="s">
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="I48" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="J48" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="K48" s="9"/>
       <c r="L48" s="9"/>
       <c r="M48" s="9"/>
       <c r="N48" s="9"/>
@@ -5244,10 +5338,10 @@
       <c r="P48" s="9"/>
       <c r="Q48" s="9"/>
       <c r="R48" s="9"/>
-      <c r="S48" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="T48" s="9"/>
+      <c r="S48" s="9"/>
+      <c r="T48" s="9" t="s">
+        <v>215</v>
+      </c>
       <c r="U48" s="9"/>
       <c r="V48" s="9"/>
       <c r="W48" s="9"/>
@@ -5259,21 +5353,22 @@
       <c r="AC48" s="9"/>
       <c r="AD48" s="9"/>
       <c r="AE48" s="9"/>
-      <c r="AF48" s="12"/>
-      <c r="AG48" s="9"/>
+      <c r="AF48" s="9"/>
+      <c r="AG48" s="12"/>
       <c r="AH48" s="9"/>
       <c r="AI48" s="9"/>
       <c r="AJ48" s="9"/>
       <c r="AK48" s="9"/>
-      <c r="AL48" s="9">
+      <c r="AL48" s="9"/>
+      <c r="AM48" s="9">
         <v>37</v>
       </c>
-      <c r="AM48" s="15" t="s">
-        <v>218</v>
-      </c>
-      <c r="AN48" s="9"/>
+      <c r="AN48" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="AO48" s="9"/>
     </row>
-    <row r="49" spans="1:40" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="9">
         <v>60</v>
       </c>
@@ -5284,38 +5379,38 @@
         <v>40</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E49" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="F49" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="G49" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="F49" s="19"/>
-      <c r="G49" s="19" t="s">
+      <c r="H49" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="H49" s="19" t="s">
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="I49" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="J49" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="K49" s="9"/>
       <c r="L49" s="9"/>
       <c r="M49" s="9"/>
       <c r="N49" s="9"/>
-      <c r="O49" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="P49" s="9"/>
+      <c r="O49" s="9"/>
+      <c r="P49" s="15" t="s">
+        <v>222</v>
+      </c>
       <c r="Q49" s="9"/>
       <c r="R49" s="9"/>
-      <c r="S49" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="T49" s="9"/>
+      <c r="S49" s="9"/>
+      <c r="T49" s="9" t="s">
+        <v>215</v>
+      </c>
       <c r="U49" s="9"/>
       <c r="V49" s="9"/>
       <c r="W49" s="9"/>
@@ -5327,21 +5422,22 @@
       <c r="AC49" s="9"/>
       <c r="AD49" s="9"/>
       <c r="AE49" s="9"/>
-      <c r="AF49" s="12"/>
-      <c r="AG49" s="9"/>
+      <c r="AF49" s="9"/>
+      <c r="AG49" s="12"/>
       <c r="AH49" s="9"/>
       <c r="AI49" s="9"/>
       <c r="AJ49" s="9"/>
       <c r="AK49" s="9"/>
-      <c r="AL49" s="9">
+      <c r="AL49" s="9"/>
+      <c r="AM49" s="9">
         <v>38</v>
       </c>
-      <c r="AM49" s="9">
+      <c r="AN49" s="9">
         <v>32</v>
       </c>
-      <c r="AN49" s="9"/>
+      <c r="AO49" s="9"/>
     </row>
-    <row r="50" spans="1:40" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="9">
         <v>61</v>
       </c>
@@ -5352,38 +5448,38 @@
         <v>40</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E50" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="F50" s="19"/>
+      <c r="F50" s="19" t="s">
+        <v>223</v>
+      </c>
       <c r="G50" s="19" t="s">
-        <v>225</v>
-      </c>
-      <c r="H50" s="19" t="s">
-        <v>226</v>
-      </c>
-      <c r="I50" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="J50" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="K50" s="9"/>
+        <v>224</v>
+      </c>
+      <c r="H50" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9" t="s">
+        <v>221</v>
+      </c>
       <c r="L50" s="9"/>
       <c r="M50" s="9"/>
       <c r="N50" s="9"/>
-      <c r="O50" s="15" t="s">
-        <v>227</v>
-      </c>
-      <c r="P50" s="9"/>
+      <c r="O50" s="9"/>
+      <c r="P50" s="15" t="s">
+        <v>225</v>
+      </c>
       <c r="Q50" s="9"/>
       <c r="R50" s="9"/>
-      <c r="S50" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="T50" s="9"/>
+      <c r="S50" s="9"/>
+      <c r="T50" s="9" t="s">
+        <v>215</v>
+      </c>
       <c r="U50" s="9"/>
       <c r="V50" s="9"/>
       <c r="W50" s="9"/>
@@ -5395,21 +5491,22 @@
       <c r="AC50" s="9"/>
       <c r="AD50" s="9"/>
       <c r="AE50" s="9"/>
-      <c r="AF50" s="12"/>
-      <c r="AG50" s="9"/>
+      <c r="AF50" s="9"/>
+      <c r="AG50" s="12"/>
       <c r="AH50" s="9"/>
       <c r="AI50" s="9"/>
       <c r="AJ50" s="9"/>
       <c r="AK50" s="9"/>
-      <c r="AL50" s="9">
+      <c r="AL50" s="9"/>
+      <c r="AM50" s="9">
         <v>39</v>
       </c>
-      <c r="AM50" s="9">
+      <c r="AN50" s="9">
         <v>33</v>
       </c>
-      <c r="AN50" s="9"/>
+      <c r="AO50" s="9"/>
     </row>
-    <row r="51" spans="1:40" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="9">
         <v>62</v>
       </c>
@@ -5420,40 +5517,40 @@
         <v>40</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E51" s="19" t="s">
-        <v>228</v>
-      </c>
-      <c r="F51" s="19"/>
+        <v>226</v>
+      </c>
+      <c r="F51" s="19" t="s">
+        <v>227</v>
+      </c>
       <c r="G51" s="19" t="s">
-        <v>229</v>
-      </c>
-      <c r="H51" s="19" t="s">
-        <v>229</v>
-      </c>
-      <c r="I51" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="J51" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="K51" s="9"/>
+        <v>227</v>
+      </c>
+      <c r="H51" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9" t="s">
+        <v>221</v>
+      </c>
       <c r="L51" s="9"/>
       <c r="M51" s="9"/>
-      <c r="N51" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="O51" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="P51" s="9"/>
+      <c r="N51" s="9"/>
+      <c r="O51" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="P51" s="15" t="s">
+        <v>229</v>
+      </c>
       <c r="Q51" s="9"/>
       <c r="R51" s="9"/>
-      <c r="S51" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="T51" s="9"/>
+      <c r="S51" s="9"/>
+      <c r="T51" s="9" t="s">
+        <v>215</v>
+      </c>
       <c r="U51" s="9"/>
       <c r="V51" s="9"/>
       <c r="W51" s="9"/>
@@ -5465,21 +5562,22 @@
       <c r="AC51" s="9"/>
       <c r="AD51" s="9"/>
       <c r="AE51" s="9"/>
-      <c r="AF51" s="12"/>
-      <c r="AG51" s="9"/>
+      <c r="AF51" s="9"/>
+      <c r="AG51" s="12"/>
       <c r="AH51" s="9"/>
       <c r="AI51" s="9"/>
       <c r="AJ51" s="9"/>
       <c r="AK51" s="9"/>
-      <c r="AL51" s="9">
+      <c r="AL51" s="9"/>
+      <c r="AM51" s="9">
         <v>40</v>
       </c>
-      <c r="AM51" s="9">
+      <c r="AN51" s="9">
         <v>34</v>
       </c>
-      <c r="AN51" s="9"/>
+      <c r="AO51" s="9"/>
     </row>
-    <row r="52" spans="1:40" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="9">
         <v>63</v>
       </c>
@@ -5490,40 +5588,40 @@
         <v>40</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E52" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="F52" s="9"/>
+      <c r="F52" s="19" t="s">
+        <v>230</v>
+      </c>
       <c r="G52" s="19" t="s">
-        <v>232</v>
-      </c>
-      <c r="H52" s="19" t="s">
-        <v>233</v>
-      </c>
-      <c r="I52" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="J52" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="K52" s="9"/>
+        <v>231</v>
+      </c>
+      <c r="H52" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9" t="s">
+        <v>221</v>
+      </c>
       <c r="L52" s="9"/>
       <c r="M52" s="9"/>
-      <c r="N52" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="O52" s="15" t="s">
-        <v>234</v>
-      </c>
-      <c r="P52" s="9"/>
+      <c r="N52" s="9"/>
+      <c r="O52" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="P52" s="15" t="s">
+        <v>232</v>
+      </c>
       <c r="Q52" s="9"/>
       <c r="R52" s="9"/>
-      <c r="S52" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="T52" s="9"/>
+      <c r="S52" s="9"/>
+      <c r="T52" s="9" t="s">
+        <v>215</v>
+      </c>
       <c r="U52" s="9"/>
       <c r="V52" s="9"/>
       <c r="W52" s="9"/>
@@ -5535,21 +5633,22 @@
       <c r="AC52" s="9"/>
       <c r="AD52" s="9"/>
       <c r="AE52" s="9"/>
-      <c r="AF52" s="12"/>
-      <c r="AG52" s="9"/>
-      <c r="AH52" s="13"/>
-      <c r="AI52" s="9"/>
+      <c r="AF52" s="9"/>
+      <c r="AG52" s="12"/>
+      <c r="AH52" s="9"/>
+      <c r="AI52" s="13"/>
       <c r="AJ52" s="9"/>
       <c r="AK52" s="9"/>
-      <c r="AL52" s="9">
+      <c r="AL52" s="9"/>
+      <c r="AM52" s="9">
         <v>42</v>
       </c>
-      <c r="AM52" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="AN52" s="9"/>
+      <c r="AN52" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="AO52" s="9"/>
     </row>
-    <row r="53" spans="1:40" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="9">
         <v>64</v>
       </c>
@@ -5560,64 +5659,65 @@
         <v>40</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E53" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="F53" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="G53" s="19" t="s">
         <v>236</v>
       </c>
-      <c r="F53" s="19"/>
-      <c r="G53" s="19" t="s">
+      <c r="H53" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="H53" s="19" t="s">
-        <v>238</v>
-      </c>
-      <c r="I53" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="J53" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="K53" s="11"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9" t="s">
+        <v>214</v>
+      </c>
       <c r="L53" s="11"/>
       <c r="M53" s="11"/>
-      <c r="N53" s="9"/>
-      <c r="O53" s="20" t="s">
-        <v>240</v>
-      </c>
-      <c r="P53" s="9"/>
+      <c r="N53" s="11"/>
+      <c r="O53" s="9"/>
+      <c r="P53" s="20" t="s">
+        <v>238</v>
+      </c>
       <c r="Q53" s="9"/>
       <c r="R53" s="9"/>
-      <c r="S53" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="T53" s="9"/>
+      <c r="S53" s="9"/>
+      <c r="T53" s="9" t="s">
+        <v>239</v>
+      </c>
       <c r="U53" s="9"/>
       <c r="V53" s="9"/>
       <c r="W53" s="9"/>
-      <c r="X53" s="9" t="s">
+      <c r="X53" s="9"/>
+      <c r="Y53" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="Y53" s="15"/>
-      <c r="Z53" s="9"/>
+      <c r="Z53" s="15"/>
       <c r="AA53" s="9"/>
       <c r="AB53" s="9"/>
       <c r="AC53" s="9"/>
       <c r="AD53" s="9"/>
-      <c r="AE53" s="17"/>
-      <c r="AF53" s="9"/>
+      <c r="AE53" s="9"/>
+      <c r="AF53" s="17"/>
       <c r="AG53" s="9"/>
       <c r="AH53" s="9"/>
       <c r="AI53" s="9"/>
       <c r="AJ53" s="9"/>
       <c r="AK53" s="9"/>
-      <c r="AL53" s="9">
+      <c r="AL53" s="9"/>
+      <c r="AM53" s="9">
         <v>43</v>
       </c>
-      <c r="AM53" s="9"/>
-      <c r="AN53" s="8"/>
+      <c r="AN53" s="9"/>
+      <c r="AO53" s="8"/>
     </row>
-    <row r="54" spans="1:40" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="9">
         <v>65</v>
       </c>
@@ -5628,34 +5728,34 @@
         <v>40</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E54" s="19"/>
-      <c r="F54" s="19"/>
+      <c r="F54" s="19" t="s">
+        <v>240</v>
+      </c>
       <c r="G54" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="H54" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="H54" s="19" t="s">
-        <v>243</v>
-      </c>
-      <c r="I54" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="J54" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="K54" s="11"/>
       <c r="L54" s="11"/>
       <c r="M54" s="11"/>
-      <c r="N54" s="9"/>
-      <c r="O54" s="21"/>
-      <c r="P54" s="9"/>
+      <c r="N54" s="11"/>
+      <c r="O54" s="9"/>
+      <c r="P54" s="21"/>
       <c r="Q54" s="9"/>
       <c r="R54" s="9"/>
-      <c r="S54" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="T54" s="9"/>
+      <c r="S54" s="9"/>
+      <c r="T54" s="9" t="s">
+        <v>215</v>
+      </c>
       <c r="U54" s="9"/>
       <c r="V54" s="9"/>
       <c r="W54" s="9"/>
@@ -5666,21 +5766,22 @@
       <c r="AB54" s="9"/>
       <c r="AC54" s="9"/>
       <c r="AD54" s="9"/>
-      <c r="AE54" s="17"/>
-      <c r="AF54" s="9"/>
+      <c r="AE54" s="9"/>
+      <c r="AF54" s="17"/>
       <c r="AG54" s="9"/>
       <c r="AH54" s="9"/>
       <c r="AI54" s="9"/>
-      <c r="AJ54" s="22"/>
-      <c r="AK54" s="9"/>
-      <c r="AL54" s="9">
+      <c r="AJ54" s="9"/>
+      <c r="AK54" s="22"/>
+      <c r="AL54" s="9"/>
+      <c r="AM54" s="9">
         <v>401</v>
       </c>
-      <c r="AM54" s="9"/>
       <c r="AN54" s="9"/>
+      <c r="AO54" s="9"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN54" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:AO54" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC Cinema - REG.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC Cinema - REG.xlsx
@@ -5,13 +5,13 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yuri\Downloads\CCRU new KPI\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My folder\RED\POS 2019\POS_2019-12-04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8AB01E65-F712-4462-AD6C-438634271832}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EE47994-9AF1-418A-A8BA-F59A4A574156}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="529" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="529" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cinema" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Cinema!$A$1:$AO$54</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="0">Cinema!$A$1:$AO$54</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -822,9 +822,6 @@
     <t>Panoramic photo of Cooler, SS_Panoramic photo of Cooler - Horeca</t>
   </si>
   <si>
-    <t>Cash Zone, SS_Cash Zone - Canteen, QSR</t>
-  </si>
-  <si>
     <t>Menu Board, Cash Zone, SS_Cash Zone - Canteen, QSR, SS_Menu Board - Canteen, QSR</t>
   </si>
   <si>
@@ -847,6 +844,9 @@
   </si>
   <si>
     <t>Juices</t>
+  </si>
+  <si>
+    <t>Cash Zone, SS_Cash Zone - Canteen, QSR, Promo SSD Display IC</t>
   </si>
 </sst>
 </file>
@@ -916,8 +916,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -995,7 +995,7 @@
       <alignment horizontal="left" vertical="center" indent="15"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1063,10 +1063,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1455,56 +1458,56 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AML54"/>
   <sheetViews>
-    <sheetView windowProtection="1" tabSelected="1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J22" sqref="J22"/>
+    <sheetView windowProtection="1" tabSelected="1" topLeftCell="P1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Z40" sqref="Z40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="7"/>
-    <col min="2" max="3" width="11.7109375" style="7"/>
-    <col min="4" max="4" width="11.28515625" style="7"/>
-    <col min="5" max="5" width="16.140625" style="7"/>
-    <col min="6" max="6" width="84.7109375" style="7"/>
-    <col min="7" max="7" width="79.85546875" style="7"/>
-    <col min="8" max="8" width="44.28515625" style="7"/>
+    <col min="1" max="1" width="10.33203125" style="7"/>
+    <col min="2" max="3" width="11.6640625" style="7"/>
+    <col min="4" max="4" width="11.33203125" style="7"/>
+    <col min="5" max="5" width="16.109375" style="7"/>
+    <col min="6" max="6" width="84.6640625" style="7"/>
+    <col min="7" max="7" width="79.88671875" style="7"/>
+    <col min="8" max="8" width="44.33203125" style="7"/>
     <col min="9" max="9" width="25" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.28515625" style="7"/>
-    <col min="12" max="12" width="8.85546875" style="7"/>
-    <col min="13" max="14" width="13.28515625" style="7"/>
-    <col min="15" max="16" width="57.28515625" style="7"/>
-    <col min="17" max="17" width="19.7109375" style="7"/>
-    <col min="18" max="18" width="11.28515625" style="7"/>
-    <col min="19" max="19" width="18.85546875" style="7"/>
-    <col min="20" max="20" width="13.7109375" style="7"/>
+    <col min="10" max="10" width="25.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.33203125" style="7"/>
+    <col min="12" max="12" width="8.88671875" style="7"/>
+    <col min="13" max="14" width="13.33203125" style="7"/>
+    <col min="15" max="16" width="57.33203125" style="7"/>
+    <col min="17" max="17" width="19.6640625" style="7"/>
+    <col min="18" max="18" width="11.33203125" style="7"/>
+    <col min="19" max="19" width="18.88671875" style="7"/>
+    <col min="20" max="20" width="13.6640625" style="7"/>
     <col min="21" max="21" width="7" style="7"/>
-    <col min="22" max="22" width="14.7109375" style="7"/>
-    <col min="23" max="23" width="18.140625" style="7"/>
+    <col min="22" max="22" width="14.6640625" style="7"/>
+    <col min="23" max="23" width="18.109375" style="7"/>
     <col min="24" max="24" width="23" style="7"/>
-    <col min="25" max="25" width="22.7109375" style="7"/>
-    <col min="26" max="26" width="23.85546875" style="7"/>
-    <col min="27" max="27" width="20.28515625" style="7"/>
-    <col min="28" max="28" width="26.28515625" style="7"/>
+    <col min="25" max="25" width="22.6640625" style="7"/>
+    <col min="26" max="26" width="23.88671875" style="7"/>
+    <col min="27" max="27" width="20.33203125" style="7"/>
+    <col min="28" max="28" width="26.33203125" style="7"/>
     <col min="29" max="29" width="27" style="7"/>
-    <col min="30" max="30" width="16.140625" style="7"/>
-    <col min="31" max="31" width="13.42578125" style="7"/>
-    <col min="32" max="32" width="17.28515625" style="7"/>
-    <col min="33" max="33" width="13.28515625" style="7"/>
+    <col min="30" max="30" width="16.109375" style="7"/>
+    <col min="31" max="31" width="13.44140625" style="7"/>
+    <col min="32" max="32" width="17.33203125" style="7"/>
+    <col min="33" max="33" width="13.33203125" style="7"/>
     <col min="34" max="34" width="13" style="7"/>
-    <col min="35" max="35" width="13.28515625" style="7"/>
-    <col min="36" max="36" width="64.7109375" style="7"/>
-    <col min="37" max="37" width="23.140625" style="7"/>
-    <col min="38" max="38" width="7.7109375" style="7"/>
-    <col min="39" max="39" width="8.85546875" style="7"/>
+    <col min="35" max="35" width="13.33203125" style="7"/>
+    <col min="36" max="36" width="64.6640625" style="7"/>
+    <col min="37" max="37" width="23.109375" style="7"/>
+    <col min="38" max="38" width="7.6640625" style="7"/>
+    <col min="39" max="39" width="8.88671875" style="7"/>
     <col min="40" max="40" width="11" style="7"/>
     <col min="41" max="41" width="9" style="7"/>
-    <col min="42" max="1026" width="9.140625" style="7" customWidth="1"/>
-    <col min="1027" max="16384" width="8.85546875" style="8"/>
+    <col min="42" max="1026" width="9.109375" style="7" customWidth="1"/>
+    <col min="1027" max="16384" width="8.88671875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1530,10 +1533,10 @@
         <v>7</v>
       </c>
       <c r="I1" s="24" t="s">
+        <v>246</v>
+      </c>
+      <c r="J1" s="24" t="s">
         <v>247</v>
-      </c>
-      <c r="J1" s="24" t="s">
-        <v>248</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>8</v>
@@ -1629,7 +1632,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -1692,7 +1695,7 @@
       </c>
       <c r="AO2" s="9"/>
     </row>
-    <row r="3" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -1721,7 +1724,7 @@
         <v>42</v>
       </c>
       <c r="J3" s="25" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K3" s="9"/>
       <c r="L3" s="11"/>
@@ -1765,7 +1768,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="4" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>3</v>
       </c>
@@ -1848,7 +1851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>4</v>
       </c>
@@ -1931,7 +1934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>5</v>
       </c>
@@ -2014,7 +2017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>6</v>
       </c>
@@ -2097,7 +2100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>7</v>
       </c>
@@ -2180,7 +2183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>8</v>
       </c>
@@ -2263,7 +2266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>9</v>
       </c>
@@ -2346,7 +2349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>10</v>
       </c>
@@ -2429,7 +2432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>11</v>
       </c>
@@ -2458,7 +2461,7 @@
         <v>42</v>
       </c>
       <c r="J12" s="25" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K12" s="9"/>
       <c r="L12" s="11"/>
@@ -2502,7 +2505,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="13" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <v>12</v>
       </c>
@@ -2585,7 +2588,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>13</v>
       </c>
@@ -2668,7 +2671,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <v>14</v>
       </c>
@@ -2697,7 +2700,7 @@
         <v>42</v>
       </c>
       <c r="J15" s="25" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K15" s="9"/>
       <c r="L15" s="11"/>
@@ -2741,7 +2744,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="16" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
         <v>15</v>
       </c>
@@ -2824,7 +2827,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <v>16</v>
       </c>
@@ -2853,7 +2856,7 @@
         <v>42</v>
       </c>
       <c r="J17" s="25" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K17" s="9"/>
       <c r="L17" s="11"/>
@@ -2897,7 +2900,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
         <v>17</v>
       </c>
@@ -2980,7 +2983,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
         <v>18</v>
       </c>
@@ -3063,7 +3066,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
         <v>19</v>
       </c>
@@ -3146,7 +3149,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="9">
         <v>20</v>
       </c>
@@ -3229,7 +3232,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9">
         <v>21</v>
       </c>
@@ -3258,7 +3261,7 @@
         <v>42</v>
       </c>
       <c r="J22" s="25" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K22" s="9"/>
       <c r="L22" s="11"/>
@@ -3302,7 +3305,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="23" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9">
         <v>22</v>
       </c>
@@ -3385,7 +3388,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="9">
         <v>23</v>
       </c>
@@ -3468,7 +3471,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="9">
         <v>24</v>
       </c>
@@ -3551,7 +3554,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9">
         <v>25</v>
       </c>
@@ -3634,7 +3637,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="9">
         <v>26</v>
       </c>
@@ -3717,7 +3720,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="9">
         <v>27</v>
       </c>
@@ -3800,7 +3803,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="9">
         <v>28</v>
       </c>
@@ -3883,7 +3886,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="9">
         <v>37</v>
       </c>
@@ -3946,7 +3949,7 @@
       </c>
       <c r="AO30" s="9"/>
     </row>
-    <row r="31" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9">
         <v>38</v>
       </c>
@@ -4011,7 +4014,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="32" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="9">
         <v>39</v>
       </c>
@@ -4088,7 +4091,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="33" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="9">
         <v>40</v>
       </c>
@@ -4169,7 +4172,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="9">
         <v>41</v>
       </c>
@@ -4248,7 +4251,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="9">
         <v>42</v>
       </c>
@@ -4313,7 +4316,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="36" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="9">
         <v>43</v>
       </c>
@@ -4398,7 +4401,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="37" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="9">
         <v>44</v>
       </c>
@@ -4483,7 +4486,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="38" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="9">
         <v>45</v>
       </c>
@@ -4570,7 +4573,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="39" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="9">
         <v>46</v>
       </c>
@@ -4633,7 +4636,7 @@
       </c>
       <c r="AO39" s="9"/>
     </row>
-    <row r="40" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="9">
         <v>48</v>
       </c>
@@ -4687,8 +4690,8 @@
       <c r="Y40" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="Z40" s="23" t="s">
-        <v>245</v>
+      <c r="Z40" s="26" t="s">
+        <v>253</v>
       </c>
       <c r="AA40" s="9"/>
       <c r="AB40" s="9"/>
@@ -4718,7 +4721,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="41" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="9">
         <v>49</v>
       </c>
@@ -4767,7 +4770,7 @@
         <v>179</v>
       </c>
       <c r="Z41" s="23" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AA41" s="9"/>
       <c r="AB41" s="9"/>
@@ -4799,7 +4802,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="42" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="9">
         <v>50</v>
       </c>
@@ -4854,7 +4857,7 @@
         <v>179</v>
       </c>
       <c r="Z42" s="23" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AA42" s="9"/>
       <c r="AB42" s="9"/>
@@ -4882,7 +4885,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="43" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="9">
         <v>51</v>
       </c>
@@ -4939,7 +4942,7 @@
         <v>179</v>
       </c>
       <c r="Z43" s="23" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AA43" s="9"/>
       <c r="AB43" s="9"/>
@@ -4969,7 +4972,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="44" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="9">
         <v>52</v>
       </c>
@@ -5018,7 +5021,7 @@
         <v>179</v>
       </c>
       <c r="Z44" s="23" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AA44" s="9"/>
       <c r="AB44" s="9"/>
@@ -5048,7 +5051,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="45" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="9">
         <v>56</v>
       </c>
@@ -5097,7 +5100,7 @@
         <v>179</v>
       </c>
       <c r="Z45" s="23" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AA45" s="9"/>
       <c r="AB45" s="9"/>
@@ -5127,7 +5130,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="46" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="9">
         <v>57</v>
       </c>
@@ -5186,7 +5189,7 @@
         <v>179</v>
       </c>
       <c r="Z46" s="23" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AA46" s="9"/>
       <c r="AB46" s="9"/>
@@ -5214,7 +5217,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="47" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="9">
         <v>58</v>
       </c>
@@ -5271,7 +5274,7 @@
         <v>179</v>
       </c>
       <c r="Z47" s="23" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AA47" s="9"/>
       <c r="AB47" s="9"/>
@@ -5301,7 +5304,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="48" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="9">
         <v>59</v>
       </c>
@@ -5368,7 +5371,7 @@
       </c>
       <c r="AO48" s="9"/>
     </row>
-    <row r="49" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="9">
         <v>60</v>
       </c>
@@ -5437,7 +5440,7 @@
       </c>
       <c r="AO49" s="9"/>
     </row>
-    <row r="50" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="9">
         <v>61</v>
       </c>
@@ -5506,7 +5509,7 @@
       </c>
       <c r="AO50" s="9"/>
     </row>
-    <row r="51" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="9">
         <v>62</v>
       </c>
@@ -5577,7 +5580,7 @@
       </c>
       <c r="AO51" s="9"/>
     </row>
-    <row r="52" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="9">
         <v>63</v>
       </c>
@@ -5648,7 +5651,7 @@
       </c>
       <c r="AO52" s="9"/>
     </row>
-    <row r="53" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="9">
         <v>64</v>
       </c>
@@ -5717,7 +5720,7 @@
       <c r="AN53" s="9"/>
       <c r="AO53" s="8"/>
     </row>
-    <row r="54" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="9">
         <v>65</v>
       </c>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC Cinema - REG.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC Cinema - REG.xlsx
@@ -1,22 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My folder\RED\POS 2019\POS_2019-12-16\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{506B50B4-4D0F-404B-B29B-63BF8C533F7C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Cinema" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Cinema" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Cinema!$A$1:$AO$54</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">Cinema!$A$1:$AO$54</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Cinema!$A$1:$AO$54</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">Cinema!$A$1:$AO$54</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="0">Cinema!$A$1:$AO$54</definedName>
   </definedNames>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -27,142 +38,142 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="253">
   <si>
-    <t xml:space="preserve">Sorting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAP PoS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Channel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPI Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAP KPI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPI name Eng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPI name Rus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Formula</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Category KPI Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Category KPI Value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Result Format</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Target</t>
-  </si>
-  <si>
-    <t xml:space="preserve">target_min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">target_max</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Values</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Product Category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Logical Operator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Form Factor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zone to include</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Locations to exclude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Locations to include</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scenes to include</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scenes to exclude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sub locations to include</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sub locations to exclude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shelf_number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Converted?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">score_func</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPI Weight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">score_min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">score_max</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">depends on</t>
-  </si>
-  <si>
-    <t xml:space="preserve">level</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPI ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Children</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RD38010038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cinema_REG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Availability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Представленность</t>
+    <t>Sorting</t>
+  </si>
+  <si>
+    <t>SAP PoS</t>
+  </si>
+  <si>
+    <t>Channel</t>
+  </si>
+  <si>
+    <t>KPI Type</t>
+  </si>
+  <si>
+    <t>SAP KPI</t>
+  </si>
+  <si>
+    <t>KPI name Eng</t>
+  </si>
+  <si>
+    <t>KPI name Rus</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>Category KPI Type</t>
+  </si>
+  <si>
+    <t>Category KPI Value</t>
+  </si>
+  <si>
+    <t>Result Format</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>target_min</t>
+  </si>
+  <si>
+    <t>target_max</t>
+  </si>
+  <si>
+    <t>SKU</t>
+  </si>
+  <si>
+    <t>Values</t>
+  </si>
+  <si>
+    <t>Product Category</t>
+  </si>
+  <si>
+    <t>Brand</t>
+  </si>
+  <si>
+    <t>Logical Operator</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>Form Factor</t>
+  </si>
+  <si>
+    <t>Zone to include</t>
+  </si>
+  <si>
+    <t>Locations to exclude</t>
+  </si>
+  <si>
+    <t>Locations to include</t>
+  </si>
+  <si>
+    <t>Scenes to include</t>
+  </si>
+  <si>
+    <t>Scenes to exclude</t>
+  </si>
+  <si>
+    <t>Sub locations to include</t>
+  </si>
+  <si>
+    <t>Sub locations to exclude</t>
+  </si>
+  <si>
+    <t>shelf_number</t>
+  </si>
+  <si>
+    <t>Converted?</t>
+  </si>
+  <si>
+    <t>score_func</t>
+  </si>
+  <si>
+    <t>KPI Weight</t>
+  </si>
+  <si>
+    <t>score_min</t>
+  </si>
+  <si>
+    <t>score_max</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>depends on</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>KPI ID</t>
+  </si>
+  <si>
+    <t>Children</t>
+  </si>
+  <si>
+    <t>Parent</t>
+  </si>
+  <si>
+    <t>RD38010038</t>
+  </si>
+  <si>
+    <t>Cinema_REG</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>Availability</t>
+  </si>
+  <si>
+    <t>Представленность</t>
   </si>
   <si>
     <t xml:space="preserve">1
@@ -173,19 +184,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">STANDARD 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD Availability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Представленность SSD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weighted Average</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD</t>
+    <t>STANDARD 1</t>
+  </si>
+  <si>
+    <t>SSD Availability</t>
+  </si>
+  <si>
+    <t>Представленность SSD</t>
+  </si>
+  <si>
+    <t>Weighted Average</t>
+  </si>
+  <si>
+    <t>SSD</t>
   </si>
   <si>
     <t xml:space="preserve">Weighted Average </t>
@@ -202,88 +213,85 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Coca-Cola - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кока-Кола - 0.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">number of facings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKUs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panoramic Photo, SS_Panoramic Photo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BINARY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coca-Cola Zero - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кока-Кола Зеро - 0.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fanta Orange - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Фанта Апельсин - 0.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sprite - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Спрайт - 0.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coca-Cola Vanilla - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кока-Кола Ванила - 0.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coca-Cola Zero Cherry - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кока-Кола Зеро Вишня - 0.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fanta Pear - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Фанта Груша - 0.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schweppes - Bitter Lemon - 0.33L/Schweppes - Pomegranate - 0.33L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Швеппс Биттер Лемон - 0.33л/Швеппс Гранат - 0.33л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schweppes - Bitter Lemon - 0.33L, Schweppes - Pomegranate - 0.33L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5449000064110, 5449000030856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STANDARD 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Water Availability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Представленность Воды</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Water</t>
+    <t>Coca-Cola - 0.5L</t>
+  </si>
+  <si>
+    <t>Кока-Кола - 0.5л</t>
+  </si>
+  <si>
+    <t>number of facings</t>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
+    <t>SKUs</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>BINARY</t>
+  </si>
+  <si>
+    <t>Coca-Cola Zero - 0.5L</t>
+  </si>
+  <si>
+    <t>Кока-Кола Зеро - 0.5л</t>
+  </si>
+  <si>
+    <t>Fanta Orange - 0.5L</t>
+  </si>
+  <si>
+    <t>Фанта Апельсин - 0.5л</t>
+  </si>
+  <si>
+    <t>Sprite - 0.5L</t>
+  </si>
+  <si>
+    <t>Спрайт - 0.5л</t>
+  </si>
+  <si>
+    <t>Coca-Cola Vanilla - 0.5L</t>
+  </si>
+  <si>
+    <t>Кока-Кола Ванила - 0.5л</t>
+  </si>
+  <si>
+    <t>Coca-Cola Zero Cherry - 0.5L</t>
+  </si>
+  <si>
+    <t>Кока-Кола Зеро Вишня - 0.5л</t>
+  </si>
+  <si>
+    <t>Fanta Pear - 0.5L</t>
+  </si>
+  <si>
+    <t>Фанта Груша - 0.5л</t>
+  </si>
+  <si>
+    <t>Schweppes - Bitter Lemon - 0.33L/Schweppes - Pomegranate - 0.33L</t>
+  </si>
+  <si>
+    <t>Швеппс Биттер Лемон - 0.33л/Швеппс Гранат - 0.33л</t>
+  </si>
+  <si>
+    <t>Schweppes - Bitter Lemon - 0.33L, Schweppes - Pomegranate - 0.33L</t>
+  </si>
+  <si>
+    <t>5449000064110, 5449000030856</t>
+  </si>
+  <si>
+    <t>STANDARD 2</t>
+  </si>
+  <si>
+    <t>Water Availability</t>
+  </si>
+  <si>
+    <t>Представленность Воды</t>
+  </si>
+  <si>
+    <t>Water</t>
   </si>
   <si>
     <t xml:space="preserve">11
@@ -291,49 +299,49 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">BonAqua Still - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БонАква Негаз - 0.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BonAqua Carb - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БонАква Газ - 0.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BonAqua Carb - 0.5L / SW - 0.6L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90494406, 5449000034335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Energy Availability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Представленность Энергетиков</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Energy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Burn Original - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Берн Оригинальный - 0.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5449000131768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tea Availability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Представленность Чая</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ice tea</t>
+    <t>BonAqua Still - 0.5L</t>
+  </si>
+  <si>
+    <t>БонАква Негаз - 0.5л</t>
+  </si>
+  <si>
+    <t>BonAqua Carb - 0.5L</t>
+  </si>
+  <si>
+    <t>БонАква Газ - 0.5л</t>
+  </si>
+  <si>
+    <t>BonAqua Carb - 0.5L / SW - 0.6L</t>
+  </si>
+  <si>
+    <t>90494406, 5449000034335</t>
+  </si>
+  <si>
+    <t>Energy Availability</t>
+  </si>
+  <si>
+    <t>Представленность Энергетиков</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>Burn Original - 0.5L</t>
+  </si>
+  <si>
+    <t>Берн Оригинальный - 0.5л</t>
+  </si>
+  <si>
+    <t>5449000131768</t>
+  </si>
+  <si>
+    <t>Tea Availability</t>
+  </si>
+  <si>
+    <t>Представленность Чая</t>
+  </si>
+  <si>
+    <t>ice tea</t>
   </si>
   <si>
     <t xml:space="preserve">16
@@ -343,49 +351,49 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Fuze Berry-Hibiscus - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Фьюз Лесн.ягоды - 0.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5449000193124, 5449000259455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fuze Mango-Camomile - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Фьюз Манго-Ромашка - 0.5л</t>
+    <t>Fuze Berry-Hibiscus - 0.5L</t>
+  </si>
+  <si>
+    <t>Фьюз Лесн.ягоды - 0.5л</t>
+  </si>
+  <si>
+    <t>5449000193124, 5449000259455</t>
+  </si>
+  <si>
+    <t>Fuze Mango-Camomile - 0.5L</t>
+  </si>
+  <si>
+    <t>Фьюз Манго-Ромашка - 0.5л</t>
   </si>
   <si>
     <t xml:space="preserve"> Fuze Mango-Camomile - 0.5L</t>
   </si>
   <si>
-    <t xml:space="preserve">Fuze Lemon-Lemongrass - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Фьюз Лимон - 0.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5449000235947, 5449000189301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fuze Green Strawberry-Raspberry - 0.5L/Fuze Peach-Rose - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Фьюз Зеленый Клубника-Малина - 0.5л/Фьюз Персик - 0.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5449000233615, 5449000189332, 5449000235770</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juice (JNSD) Availability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Представленность Сока</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juices</t>
+    <t>Fuze Lemon-Lemongrass - 0.5L</t>
+  </si>
+  <si>
+    <t>Фьюз Лимон - 0.5л</t>
+  </si>
+  <si>
+    <t>5449000235947, 5449000189301</t>
+  </si>
+  <si>
+    <t>Fuze Green Strawberry-Raspberry - 0.5L/Fuze Peach-Rose - 0.5L</t>
+  </si>
+  <si>
+    <t>Фьюз Зеленый Клубника-Малина - 0.5л/Фьюз Персик - 0.5л</t>
+  </si>
+  <si>
+    <t>5449000233615, 5449000189332, 5449000235770</t>
+  </si>
+  <si>
+    <t>Juice (JNSD) Availability</t>
+  </si>
+  <si>
+    <t>Представленность Сока</t>
+  </si>
+  <si>
+    <t>Juices</t>
   </si>
   <si>
     <t xml:space="preserve">21
@@ -398,113 +406,113 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Pulpy - Orange - 0.45L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Палпи - Апельсин - 0.45л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pulpy - Mango Pineapple - 0.45L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Палпи - Манго Ананас - 0.45л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dobriy - Apple - 0.33L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Добрый - Яблоко - 0.33л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dobriy - Apple - 0.33L / Rich Apple 0.3L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4607174579309, 4650075421000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dobriy - Multifruit - 0.33L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Добрый - Мультифрут - 0.33л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dobriy - Multifruit - 0.33L / Rich Orange 0.3L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4607174579286, 4650075421024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pulpy - Tropical - 0.45L/Pulpy - Guava-Passion Fruit - 0.45L/Pulpy - Watermelon-Strawberry - 0.45L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Палпи - Тропик - 0.45л/Палпи - Гуава-Маракуйя - 0.45л/Палпи - Арбуз-Клубника - 0.45л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pulpy - Tropical - 0.45L, Pulpy - Guava-Passion Fruit - 0.45L, Pulpy - Watermelon-Strawberry - 0.45L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4607174579729, 4650075423257, 4650075423233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dobriy - Apple - 0.2L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Добрый - Яблоко - 0.2л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4607042430619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dobriy - Multifruit - 0.2L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Добрый - Мультифрут - 0.2л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4607042430565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RD38010022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coolers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильники</t>
-  </si>
-  <si>
-    <t xml:space="preserve">311
+    <t>Pulpy - Orange - 0.45L</t>
+  </si>
+  <si>
+    <t>Палпи - Апельсин - 0.45л</t>
+  </si>
+  <si>
+    <t>Pulpy - Mango Pineapple - 0.45L</t>
+  </si>
+  <si>
+    <t>Палпи - Манго Ананас - 0.45л</t>
+  </si>
+  <si>
+    <t>Dobriy - Apple - 0.33L</t>
+  </si>
+  <si>
+    <t>Добрый - Яблоко - 0.33л</t>
+  </si>
+  <si>
+    <t>Dobriy - Apple - 0.33L / Rich Apple 0.3L</t>
+  </si>
+  <si>
+    <t>4607174579309, 4650075421000</t>
+  </si>
+  <si>
+    <t>Dobriy - Multifruit - 0.33L</t>
+  </si>
+  <si>
+    <t>Добрый - Мультифрут - 0.33л</t>
+  </si>
+  <si>
+    <t>Dobriy - Multifruit - 0.33L / Rich Orange 0.3L</t>
+  </si>
+  <si>
+    <t>4607174579286, 4650075421024</t>
+  </si>
+  <si>
+    <t>Pulpy - Tropical - 0.45L/Pulpy - Guava-Passion Fruit - 0.45L/Pulpy - Watermelon-Strawberry - 0.45L</t>
+  </si>
+  <si>
+    <t>Палпи - Тропик - 0.45л/Палпи - Гуава-Маракуйя - 0.45л/Палпи - Арбуз-Клубника - 0.45л</t>
+  </si>
+  <si>
+    <t>Pulpy - Tropical - 0.45L, Pulpy - Guava-Passion Fruit - 0.45L, Pulpy - Watermelon-Strawberry - 0.45L</t>
+  </si>
+  <si>
+    <t>4607174579729, 4650075423257, 4650075423233</t>
+  </si>
+  <si>
+    <t>Dobriy - Apple - 0.2L</t>
+  </si>
+  <si>
+    <t>Добрый - Яблоко - 0.2л</t>
+  </si>
+  <si>
+    <t>4607042430619</t>
+  </si>
+  <si>
+    <t>Dobriy - Multifruit - 0.2L</t>
+  </si>
+  <si>
+    <t>Добрый - Мультифрут - 0.2л</t>
+  </si>
+  <si>
+    <t>4607042430565</t>
+  </si>
+  <si>
+    <t>RD38010022</t>
+  </si>
+  <si>
+    <t>Coolers</t>
+  </si>
+  <si>
+    <t>Холодильники</t>
+  </si>
+  <si>
+    <t>311
 312</t>
   </si>
   <si>
-    <t xml:space="preserve">Coolers: Doors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильник: Двери</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STANDARD 22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cooler: Doors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильники: Количество Дверей</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sum of atomic KPI result</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PROPORTIONAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Store Master Data attr15</t>
+    <t>Coolers: Doors</t>
+  </si>
+  <si>
+    <t>Холодильник: Двери</t>
+  </si>
+  <si>
+    <t>STANDARD 22</t>
+  </si>
+  <si>
+    <t>Cooler: Doors</t>
+  </si>
+  <si>
+    <t>Холодильники: Количество Дверей</t>
+  </si>
+  <si>
+    <t>sum of atomic KPI result</t>
+  </si>
+  <si>
+    <t>Plus</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>PROPORTIONAL</t>
+  </si>
+  <si>
+    <t>Store Master Data attr15</t>
   </si>
   <si>
     <t xml:space="preserve">27
@@ -512,46 +520,46 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Cooler: CCH Cooler Doors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильники: Количество Дверей Холодильников Компании</t>
-  </si>
-  <si>
-    <t xml:space="preserve">number of doors of filled Coolers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manufacturer: TCCC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TCCC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cooler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOS with empty more than 80%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cooler: Customer Cooler Doors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильники: Количество Дверей Холодильников Клиента</t>
-  </si>
-  <si>
-    <t xml:space="preserve">facings TCCC/40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other Coolers, Cold Shelf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coolers: Quality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильник: Качество</t>
+    <t>Cooler: CCH Cooler Doors</t>
+  </si>
+  <si>
+    <t>Холодильники: Количество Дверей Холодильников Компании</t>
+  </si>
+  <si>
+    <t>number of doors of filled Coolers</t>
+  </si>
+  <si>
+    <t>Manufacturer: TCCC</t>
+  </si>
+  <si>
+    <t>TCCC</t>
+  </si>
+  <si>
+    <t>MAN</t>
+  </si>
+  <si>
+    <t>Cooler</t>
+  </si>
+  <si>
+    <t>SOS with empty more than 80%</t>
+  </si>
+  <si>
+    <t>Cooler: Customer Cooler Doors</t>
+  </si>
+  <si>
+    <t>Холодильники: Количество Дверей Холодильников Клиента</t>
+  </si>
+  <si>
+    <t>facings TCCC/40</t>
+  </si>
+  <si>
+    <t>Other Coolers, Cold Shelf</t>
+  </si>
+  <si>
+    <t>Coolers: Quality</t>
+  </si>
+  <si>
+    <t>Холодильник: Качество</t>
   </si>
   <si>
     <t xml:space="preserve">28
@@ -561,185 +569,176 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cooler: Prime Position</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильники: Лучшее место</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scenes with no tagging</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panoramic photo of Cooler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NUM_SCENES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panoramic photo of Cooler, SS_Panoramic photo of Cooler - Horeca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calculate if at least one door was passed KPI "Cooler: CCH Cooler Doors"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cooler: w/o other products</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильники: Без чужой продукции</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Share of CCH doors which have 98% TCCC facings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calculate only for doors that were passed KPI "Cooler: CCH Cooler Doors"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cooler: Max 15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильники: Максимум 15 СКЮ на дверь</t>
-  </si>
-  <si>
-    <t xml:space="preserve">number of SKU per Door RANGE TOTAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Activations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Активации</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33
+    <t>-</t>
+  </si>
+  <si>
+    <t>Cooler: Prime Position</t>
+  </si>
+  <si>
+    <t>Холодильники: Лучшее место</t>
+  </si>
+  <si>
+    <t>Scenes with no tagging</t>
+  </si>
+  <si>
+    <t>Panoramic photo of Cooler</t>
+  </si>
+  <si>
+    <t>NUM_SCENES</t>
+  </si>
+  <si>
+    <t>Calculate if at least one door was passed KPI "Cooler: CCH Cooler Doors"</t>
+  </si>
+  <si>
+    <t>Cooler: w/o other products</t>
+  </si>
+  <si>
+    <t>Холодильники: Без чужой продукции</t>
+  </si>
+  <si>
+    <t>Share of CCH doors which have 98% TCCC facings</t>
+  </si>
+  <si>
+    <t>Calculate only for doors that were passed KPI "Cooler: CCH Cooler Doors"</t>
+  </si>
+  <si>
+    <t>Cooler: Max 15</t>
+  </si>
+  <si>
+    <t>Холодильники: Максимум 15 СКЮ на дверь</t>
+  </si>
+  <si>
+    <t>number of SKU per Door RANGE TOTAL</t>
+  </si>
+  <si>
+    <t>Activations</t>
+  </si>
+  <si>
+    <t>Активации</t>
+  </si>
+  <si>
+    <t>33
 34
 680</t>
   </si>
   <si>
-    <t xml:space="preserve">STANDARD 17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Impulse Activation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Активация Импульсной зоны</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cash Zone, SS_Cash Zone - Canteen, QSR, Promo SSD Display IC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OCCASIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Combo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Комбо</t>
-  </si>
-  <si>
-    <t xml:space="preserve">number of atomic KPI Passed on the same scene</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Menu Board, Cash Zone, SS_Cash Zone - Canteen, QSR, SS_Menu Board - Canteen, QSR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35
+    <t>STANDARD 17</t>
+  </si>
+  <si>
+    <t>Impulse Activation</t>
+  </si>
+  <si>
+    <t>Активация Импульсной зоны</t>
+  </si>
+  <si>
+    <t>OCCASIONS</t>
+  </si>
+  <si>
+    <t>Combo</t>
+  </si>
+  <si>
+    <t>Комбо</t>
+  </si>
+  <si>
+    <t>number of atomic KPI Passed on the same scene</t>
+  </si>
+  <si>
+    <t>AND</t>
+  </si>
+  <si>
+    <t>35
 36</t>
   </si>
   <si>
-    <t xml:space="preserve">Combo: Coca-Cola</t>
+    <t>Combo: Coca-Cola</t>
   </si>
   <si>
     <t xml:space="preserve">Комбо : Кока-Кола </t>
   </si>
   <si>
-    <t xml:space="preserve">Coke+Coca Cola Zero Bottle Nrgb, Coca Cola Zero Bottle, Coca Cola Zero Logo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50111111, 50111112, 50111113, 50111114, 5000006, 5000004, 5000005, 5000006, 5050570, 5000101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Combo: Food</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Комбо : Еда</t>
-  </si>
-  <si>
-    <t xml:space="preserve">food</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5000034, A5B10138, A5B10137, A5B10136, A5B10135, A5B10125, A5B10124, A5B10123, A5B10123, A5B10122, A5B10121, A5B10120, A5B10119, A5B10118, A5B10117, A5B10116, A5B10091, A5B10090, A5B10089, A5B10088, A5B10087, A5B10086, A5B10085, A5B10057, 5000044, 5000042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IC Activation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Food should be near Image</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STANDART 17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Combo other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Другие Комбо</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juice and meal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сок и еда</t>
-  </si>
-  <si>
-    <t xml:space="preserve">number of sub atomic KPI Passed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">770
+    <t>Coke+Coca Cola Zero Bottle Nrgb, Coca Cola Zero Bottle, Coca Cola Zero Logo</t>
+  </si>
+  <si>
+    <t>50111111, 50111112, 50111113, 50111114, 5000006, 5000004, 5000005, 5000006, 5050570, 5000101</t>
+  </si>
+  <si>
+    <t>Combo: Food</t>
+  </si>
+  <si>
+    <t>Комбо : Еда</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>5000034, A5B10138, A5B10137, A5B10136, A5B10135, A5B10125, A5B10124, A5B10123, A5B10123, A5B10122, A5B10121, A5B10120, A5B10119, A5B10118, A5B10117, A5B10116, A5B10091, A5B10090, A5B10089, A5B10088, A5B10087, A5B10086, A5B10085, A5B10057, 5000044, 5000042</t>
+  </si>
+  <si>
+    <t>IC Activation</t>
+  </si>
+  <si>
+    <t>Food should be near Image</t>
+  </si>
+  <si>
+    <t>STANDART 17</t>
+  </si>
+  <si>
+    <t>Combo other</t>
+  </si>
+  <si>
+    <t>Другие Комбо</t>
+  </si>
+  <si>
+    <t>Juice and meal</t>
+  </si>
+  <si>
+    <t>Сок и еда</t>
+  </si>
+  <si>
+    <t>number of sub atomic KPI Passed</t>
+  </si>
+  <si>
+    <t>770
 771</t>
   </si>
   <si>
-    <t xml:space="preserve">Juice and meal: Image</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сок и еда: Имидж</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rich, Dobriy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BRAND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juice and meal: Food</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сок и еда: Еда</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hidden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STANDARD 18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COOLER_QUALITY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCH coolers quality (Prime Pos- Max15- Merch STD- Occupancy- Lights&amp;clean)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sum of atomic scores</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Decimal.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SESSION LEVEL</t>
+    <t>Juice and meal: Image</t>
+  </si>
+  <si>
+    <t>Сок и еда: Имидж</t>
+  </si>
+  <si>
+    <t>Rich, Dobriy</t>
+  </si>
+  <si>
+    <t>BRAND</t>
+  </si>
+  <si>
+    <t>Juice and meal: Food</t>
+  </si>
+  <si>
+    <t>Сок и еда: Еда</t>
+  </si>
+  <si>
+    <t>Hidden</t>
+  </si>
+  <si>
+    <t>STANDARD 18</t>
+  </si>
+  <si>
+    <t>COOLER_QUALITY</t>
+  </si>
+  <si>
+    <t>CCH coolers quality (Prime Pos- Max15- Merch STD- Occupancy- Lights&amp;clean)</t>
+  </si>
+  <si>
+    <t>sum of atomic scores</t>
+  </si>
+  <si>
+    <t>Decimal.2</t>
+  </si>
+  <si>
+    <t>SESSION LEVEL</t>
   </si>
   <si>
     <t xml:space="preserve">29
@@ -748,59 +747,59 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">STANDARD 16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCH_PROD_MENU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCH products present in Customer's menu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Passed or Failed Value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MenuC1
+    <t>STANDARD 16</t>
+  </si>
+  <si>
+    <t>CCH_PROD_MENU</t>
+  </si>
+  <si>
+    <t>CCH products present in Customer's menu</t>
+  </si>
+  <si>
+    <t>Passed or Failed Value</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>MenuC1
 No_MenuC1</t>
   </si>
   <si>
-    <t xml:space="preserve">ACTIVATION_SSD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of CCH activation points in SSD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IMPU
+    <t>ACTIVATION_SSD</t>
+  </si>
+  <si>
+    <t>Number of CCH activation points in SSD</t>
+  </si>
+  <si>
+    <t>IMPU
 No_IMPU</t>
   </si>
   <si>
-    <t xml:space="preserve">Local 21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANY OTHER ACTIVATION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEND VALUE if one KPI from lis is Passed , other No_O_A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OTMove
+    <t>Local 21</t>
+  </si>
+  <si>
+    <t>ANY OTHER ACTIVATION</t>
+  </si>
+  <si>
+    <t>SEND VALUE if one KPI from lis is Passed , other No_O_A</t>
+  </si>
+  <si>
+    <t>OTMove
 No_O_A</t>
   </si>
   <si>
-    <t xml:space="preserve">PRIORITY_OCC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of Priority Occasions activated in the outlet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EO
+    <t>PRIORITY_OCC</t>
+  </si>
+  <si>
+    <t>Number of Priority Occasions activated in the outlet</t>
+  </si>
+  <si>
+    <t>EO
 No_O_A</t>
   </si>
   <si>
-    <t xml:space="preserve">29
+    <t>29
 30
 31
 32
@@ -808,48 +807,55 @@
 34</t>
   </si>
   <si>
-    <t xml:space="preserve">Scene Sub Type 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COOLER_DOORS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of Cooler Doors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attribute</t>
-  </si>
-  <si>
-    <t xml:space="preserve">template.additional_attribute_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SCENE LEVEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Integer</t>
+    <t>Scene Sub Type 2</t>
+  </si>
+  <si>
+    <t>COOLER_DOORS</t>
+  </si>
+  <si>
+    <t>Number of Cooler Doors</t>
+  </si>
+  <si>
+    <t>Attribute</t>
+  </si>
+  <si>
+    <t>template.additional_attribute_1</t>
+  </si>
+  <si>
+    <t>SCENE LEVEL</t>
+  </si>
+  <si>
+    <t>PLAN</t>
+  </si>
+  <si>
+    <t>Plan</t>
+  </si>
+  <si>
+    <t>Integer</t>
+  </si>
+  <si>
+    <t>Panoramic Photo; SS_Panoramic Photo</t>
+  </si>
+  <si>
+    <t>Panoramic photo of Cooler; SS_Panoramic photo of Cooler - Horeca</t>
+  </si>
+  <si>
+    <t>Menu Board; Cash Zone; SS_Cash Zone - Canteen, QSR; SS_Menu Board - Canteen, QSR</t>
+  </si>
+  <si>
+    <t>Cash Zone; SS_Cash Zone - Canteen, QSR; Promo SSD Display IC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="8">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="0"/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* \-??\ _₽_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="#,##0.0000000"/>
-    <numFmt numFmtId="169" formatCode="0.00"/>
-    <numFmt numFmtId="170" formatCode="0.00%"/>
-    <numFmt numFmtId="171" formatCode="@"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* \-??\ _₽_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="#,##0.0000000"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -858,29 +864,14 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -896,6 +887,13 @@
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -921,187 +919,161 @@
     </fill>
   </fills>
   <borders count="5">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="dashed"/>
-      <right style="dashed"/>
-      <top style="dashed"/>
-      <bottom style="dashed"/>
+    <border>
+      <left style="dashed">
+        <color auto="1"/>
+      </left>
+      <right style="dashed">
+        <color auto="1"/>
+      </right>
+      <top style="dashed">
+        <color auto="1"/>
+      </top>
+      <bottom style="dashed">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="hair"/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
+  <cellStyleXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="15"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="26">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="2" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="2" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="2" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="171" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
+  <cellStyles count="3">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Explanatory Text" xfId="2" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1160,72 +1132,376 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:AO54"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AMK54"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="P1" activeCellId="0" sqref="P1"/>
-      <selection pane="bottomLeft" activeCell="Y36" activeCellId="0" sqref="Y36"/>
+    <sheetView windowProtection="1" tabSelected="1" topLeftCell="P1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="P1" sqref="P1"/>
+      <selection pane="bottomLeft" activeCell="Z41" sqref="Z41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.085020242915"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="1" width="12.4534412955466"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="12.1133603238866"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="17.2550607287449"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="91.0647773279352"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="85.9230769230769"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="47.6477732793522"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="26.8502024291498"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="27.4210526315789"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="17.4817813765182"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="9.48178137651822"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="1" width="14.2834008097166"/>
-    <col collapsed="false" hidden="false" max="16" min="15" style="1" width="61.7004048582996"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="21.1376518218623"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="12.1133603238866"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="20.2226720647773"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="14.6234817813765"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="7.4251012145749"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="15.7692307692308"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="19.4251012145749"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="24.6801619433198"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="24.336032388664"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="25.7085020242915"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="21.8218623481781"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="28.336032388664"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="29.0202429149798"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="17.2550607287449"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="14.3967611336032"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="18.6234817813765"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="14.2834008097166"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="13.9392712550607"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="14.2834008097166"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="69.582995951417"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="24.7935222672065"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="8.22672064777328"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="1" width="9.48178137651822"/>
-    <col collapsed="false" hidden="false" max="40" min="40" style="1" width="11.7692307692308"/>
-    <col collapsed="false" hidden="false" max="41" min="41" style="1" width="9.59919028340081"/>
-    <col collapsed="false" hidden="false" max="1025" min="42" style="1" width="9.71255060728745"/>
+    <col min="1" max="1" width="11.109375" style="1"/>
+    <col min="2" max="3" width="12.44140625" style="1"/>
+    <col min="4" max="4" width="12.109375" style="1"/>
+    <col min="5" max="5" width="17.21875" style="1"/>
+    <col min="6" max="6" width="91.109375" style="1"/>
+    <col min="7" max="7" width="85.88671875" style="1"/>
+    <col min="8" max="8" width="47.6640625" style="1"/>
+    <col min="9" max="9" width="26.88671875" style="1"/>
+    <col min="10" max="10" width="27.44140625" style="1"/>
+    <col min="11" max="11" width="17.44140625" style="1"/>
+    <col min="12" max="12" width="9.44140625" style="1"/>
+    <col min="13" max="14" width="14.33203125" style="1"/>
+    <col min="15" max="16" width="61.6640625" style="1"/>
+    <col min="17" max="17" width="21.109375" style="1"/>
+    <col min="18" max="18" width="12.109375" style="1"/>
+    <col min="19" max="19" width="20.21875" style="1"/>
+    <col min="20" max="20" width="14.6640625" style="1"/>
+    <col min="21" max="21" width="7.44140625" style="1"/>
+    <col min="22" max="22" width="15.77734375" style="1"/>
+    <col min="23" max="23" width="19.44140625" style="1"/>
+    <col min="24" max="24" width="24.6640625" style="1"/>
+    <col min="25" max="25" width="24.33203125" style="1"/>
+    <col min="26" max="26" width="25.6640625" style="1"/>
+    <col min="27" max="27" width="37.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="28.33203125" style="1"/>
+    <col min="29" max="29" width="29" style="1"/>
+    <col min="30" max="30" width="17.21875" style="1"/>
+    <col min="31" max="31" width="14.44140625" style="1"/>
+    <col min="32" max="32" width="18.6640625" style="1"/>
+    <col min="33" max="33" width="14.33203125" style="1"/>
+    <col min="34" max="34" width="13.88671875" style="1"/>
+    <col min="35" max="35" width="14.33203125" style="1"/>
+    <col min="36" max="36" width="69.5546875" style="1"/>
+    <col min="37" max="37" width="24.77734375" style="1"/>
+    <col min="38" max="38" width="8.21875" style="1"/>
+    <col min="39" max="39" width="9.44140625" style="1"/>
+    <col min="40" max="40" width="11.77734375" style="1"/>
+    <col min="41" max="41" width="9.5546875" style="1"/>
+    <col min="42" max="1025" width="9.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1350,8 +1626,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="n">
+    <row r="2" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -1402,10 +1678,10 @@
       <c r="AI2" s="7"/>
       <c r="AJ2" s="7"/>
       <c r="AK2" s="7"/>
-      <c r="AL2" s="12" t="n">
+      <c r="AL2" s="12">
         <v>1</v>
       </c>
-      <c r="AM2" s="12" t="n">
+      <c r="AM2" s="12">
         <v>300</v>
       </c>
       <c r="AN2" s="13" t="s">
@@ -1413,8 +1689,8 @@
       </c>
       <c r="AO2" s="7"/>
     </row>
-    <row r="3" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="n">
+    <row r="3" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7">
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -1473,21 +1749,21 @@
       <c r="AI3" s="7"/>
       <c r="AJ3" s="7"/>
       <c r="AK3" s="7"/>
-      <c r="AL3" s="7" t="n">
+      <c r="AL3" s="7">
         <v>2</v>
       </c>
-      <c r="AM3" s="7" t="n">
+      <c r="AM3" s="7">
         <v>1</v>
       </c>
       <c r="AN3" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="AO3" s="7" t="n">
+      <c r="AO3" s="7">
         <v>300</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="n">
+    <row r="4" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7">
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
@@ -1514,7 +1790,7 @@
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
-      <c r="L4" s="9" t="n">
+      <c r="L4" s="9">
         <v>1</v>
       </c>
       <c r="M4" s="9"/>
@@ -1522,7 +1798,7 @@
       <c r="O4" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="P4" s="12" t="n">
+      <c r="P4" s="12">
         <v>54491472</v>
       </c>
       <c r="Q4" s="12"/>
@@ -1542,35 +1818,35 @@
       <c r="Y4" s="7"/>
       <c r="Z4" s="7"/>
       <c r="AA4" s="7" t="s">
-        <v>60</v>
+        <v>249</v>
       </c>
       <c r="AB4" s="7"/>
       <c r="AC4" s="7"/>
       <c r="AD4" s="7"/>
       <c r="AE4" s="7"/>
       <c r="AF4" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG4" s="15" t="n">
-        <v>0.04017</v>
+        <v>60</v>
+      </c>
+      <c r="AG4" s="15">
+        <v>4.0169999999999997E-2</v>
       </c>
       <c r="AH4" s="7"/>
       <c r="AI4" s="7"/>
       <c r="AJ4" s="7"/>
       <c r="AK4" s="7"/>
-      <c r="AL4" s="7" t="n">
+      <c r="AL4" s="7">
         <v>3</v>
       </c>
-      <c r="AM4" s="7" t="n">
+      <c r="AM4" s="7">
         <v>2</v>
       </c>
       <c r="AN4" s="7"/>
-      <c r="AO4" s="7" t="n">
+      <c r="AO4" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="n">
+    <row r="5" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7">
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -1586,10 +1862,10 @@
         <v>47</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>56</v>
@@ -1597,15 +1873,15 @@
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
-      <c r="L5" s="9" t="n">
+      <c r="L5" s="9">
         <v>1</v>
       </c>
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
       <c r="O5" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="P5" s="12" t="n">
+        <v>61</v>
+      </c>
+      <c r="P5" s="12">
         <v>5449000131836</v>
       </c>
       <c r="Q5" s="12"/>
@@ -1625,35 +1901,35 @@
       <c r="Y5" s="7"/>
       <c r="Z5" s="7"/>
       <c r="AA5" s="7" t="s">
-        <v>60</v>
+        <v>249</v>
       </c>
       <c r="AB5" s="7"/>
       <c r="AC5" s="7"/>
       <c r="AD5" s="7"/>
       <c r="AE5" s="7"/>
       <c r="AF5" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG5" s="15" t="n">
-        <v>0.040169</v>
+        <v>60</v>
+      </c>
+      <c r="AG5" s="15">
+        <v>4.0169000000000003E-2</v>
       </c>
       <c r="AH5" s="7"/>
       <c r="AI5" s="7"/>
       <c r="AJ5" s="7"/>
       <c r="AK5" s="7"/>
-      <c r="AL5" s="7" t="n">
+      <c r="AL5" s="7">
         <v>3</v>
       </c>
-      <c r="AM5" s="7" t="n">
+      <c r="AM5" s="7">
         <v>3</v>
       </c>
       <c r="AN5" s="7"/>
-      <c r="AO5" s="7" t="n">
+      <c r="AO5" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="n">
+    <row r="6" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7">
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
@@ -1669,10 +1945,10 @@
         <v>47</v>
       </c>
       <c r="F6" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>56</v>
@@ -1680,15 +1956,15 @@
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
-      <c r="L6" s="9" t="n">
+      <c r="L6" s="9">
         <v>1</v>
       </c>
       <c r="M6" s="9"/>
       <c r="N6" s="9"/>
       <c r="O6" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="P6" s="12" t="n">
+        <v>63</v>
+      </c>
+      <c r="P6" s="12">
         <v>40822938</v>
       </c>
       <c r="Q6" s="12"/>
@@ -1708,35 +1984,35 @@
       <c r="Y6" s="7"/>
       <c r="Z6" s="7"/>
       <c r="AA6" s="7" t="s">
-        <v>60</v>
+        <v>249</v>
       </c>
       <c r="AB6" s="7"/>
       <c r="AC6" s="7"/>
       <c r="AD6" s="7"/>
       <c r="AE6" s="7"/>
       <c r="AF6" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG6" s="15" t="n">
-        <v>0.040146</v>
+        <v>60</v>
+      </c>
+      <c r="AG6" s="15">
+        <v>4.0146000000000001E-2</v>
       </c>
       <c r="AH6" s="7"/>
       <c r="AI6" s="7"/>
       <c r="AJ6" s="7"/>
       <c r="AK6" s="7"/>
-      <c r="AL6" s="7" t="n">
+      <c r="AL6" s="7">
         <v>3</v>
       </c>
-      <c r="AM6" s="7" t="n">
+      <c r="AM6" s="7">
         <v>4</v>
       </c>
       <c r="AN6" s="7"/>
-      <c r="AO6" s="7" t="n">
+      <c r="AO6" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="n">
+    <row r="7" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="7">
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -1752,10 +2028,10 @@
         <v>47</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>56</v>
@@ -1763,15 +2039,15 @@
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
-      <c r="L7" s="9" t="n">
+      <c r="L7" s="9">
         <v>1</v>
       </c>
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
       <c r="O7" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="P7" s="12" t="n">
+        <v>65</v>
+      </c>
+      <c r="P7" s="12">
         <v>54491069</v>
       </c>
       <c r="Q7" s="12"/>
@@ -1791,35 +2067,35 @@
       <c r="Y7" s="7"/>
       <c r="Z7" s="7"/>
       <c r="AA7" s="7" t="s">
-        <v>60</v>
+        <v>249</v>
       </c>
       <c r="AB7" s="7"/>
       <c r="AC7" s="7"/>
       <c r="AD7" s="7"/>
       <c r="AE7" s="7"/>
       <c r="AF7" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG7" s="15" t="n">
-        <v>0.040146</v>
+        <v>60</v>
+      </c>
+      <c r="AG7" s="15">
+        <v>4.0146000000000001E-2</v>
       </c>
       <c r="AH7" s="7"/>
       <c r="AI7" s="7"/>
       <c r="AJ7" s="7"/>
       <c r="AK7" s="7"/>
-      <c r="AL7" s="7" t="n">
+      <c r="AL7" s="7">
         <v>3</v>
       </c>
-      <c r="AM7" s="7" t="n">
+      <c r="AM7" s="7">
         <v>5</v>
       </c>
       <c r="AN7" s="7"/>
-      <c r="AO7" s="7" t="n">
+      <c r="AO7" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7" t="n">
+    <row r="8" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="7">
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
@@ -1835,10 +2111,10 @@
         <v>47</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="H8" s="7" t="s">
         <v>56</v>
@@ -1846,15 +2122,15 @@
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
-      <c r="L8" s="9" t="n">
+      <c r="L8" s="9">
         <v>1</v>
       </c>
       <c r="M8" s="9"/>
       <c r="N8" s="9"/>
       <c r="O8" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="P8" s="12" t="n">
+        <v>67</v>
+      </c>
+      <c r="P8" s="12">
         <v>42099697</v>
       </c>
       <c r="Q8" s="12"/>
@@ -1874,35 +2150,35 @@
       <c r="Y8" s="7"/>
       <c r="Z8" s="7"/>
       <c r="AA8" s="7" t="s">
-        <v>60</v>
+        <v>249</v>
       </c>
       <c r="AB8" s="7"/>
       <c r="AC8" s="7"/>
       <c r="AD8" s="7"/>
       <c r="AE8" s="7"/>
       <c r="AF8" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG8" s="15" t="n">
-        <v>0.021692</v>
+        <v>60</v>
+      </c>
+      <c r="AG8" s="15">
+        <v>2.1691999999999999E-2</v>
       </c>
       <c r="AH8" s="7"/>
       <c r="AI8" s="7"/>
       <c r="AJ8" s="7"/>
       <c r="AK8" s="7"/>
-      <c r="AL8" s="7" t="n">
+      <c r="AL8" s="7">
         <v>3</v>
       </c>
-      <c r="AM8" s="7" t="n">
+      <c r="AM8" s="7">
         <v>6</v>
       </c>
       <c r="AN8" s="7"/>
-      <c r="AO8" s="7" t="n">
+      <c r="AO8" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7" t="n">
+    <row r="9" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="7">
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
@@ -1918,10 +2194,10 @@
         <v>47</v>
       </c>
       <c r="F9" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="H9" s="7" t="s">
         <v>56</v>
@@ -1929,15 +2205,15 @@
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
-      <c r="L9" s="9" t="n">
+      <c r="L9" s="9">
         <v>1</v>
       </c>
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
       <c r="O9" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="P9" s="12" t="n">
+        <v>69</v>
+      </c>
+      <c r="P9" s="12">
         <v>5449000214744</v>
       </c>
       <c r="Q9" s="12"/>
@@ -1957,35 +2233,35 @@
       <c r="Y9" s="7"/>
       <c r="Z9" s="7"/>
       <c r="AA9" s="7" t="s">
-        <v>60</v>
+        <v>249</v>
       </c>
       <c r="AB9" s="7"/>
       <c r="AC9" s="7"/>
       <c r="AD9" s="7"/>
       <c r="AE9" s="7"/>
       <c r="AF9" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG9" s="15" t="n">
-        <v>0.021692</v>
+        <v>60</v>
+      </c>
+      <c r="AG9" s="15">
+        <v>2.1691999999999999E-2</v>
       </c>
       <c r="AH9" s="7"/>
       <c r="AI9" s="7"/>
       <c r="AJ9" s="7"/>
       <c r="AK9" s="7"/>
-      <c r="AL9" s="7" t="n">
+      <c r="AL9" s="7">
         <v>3</v>
       </c>
-      <c r="AM9" s="7" t="n">
+      <c r="AM9" s="7">
         <v>7</v>
       </c>
       <c r="AN9" s="7"/>
-      <c r="AO9" s="7" t="n">
+      <c r="AO9" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7" t="n">
+    <row r="10" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="7">
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -2001,10 +2277,10 @@
         <v>47</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="H10" s="7" t="s">
         <v>56</v>
@@ -2012,15 +2288,15 @@
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
-      <c r="L10" s="9" t="n">
+      <c r="L10" s="9">
         <v>1</v>
       </c>
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
       <c r="O10" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="P10" s="12" t="n">
+        <v>71</v>
+      </c>
+      <c r="P10" s="12">
         <v>5449000172228</v>
       </c>
       <c r="Q10" s="12"/>
@@ -2040,35 +2316,35 @@
       <c r="Y10" s="7"/>
       <c r="Z10" s="7"/>
       <c r="AA10" s="7" t="s">
-        <v>60</v>
+        <v>249</v>
       </c>
       <c r="AB10" s="7"/>
       <c r="AC10" s="7"/>
       <c r="AD10" s="7"/>
       <c r="AE10" s="7"/>
       <c r="AF10" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG10" s="15" t="n">
-        <v>0.021692</v>
+        <v>60</v>
+      </c>
+      <c r="AG10" s="15">
+        <v>2.1691999999999999E-2</v>
       </c>
       <c r="AH10" s="7"/>
       <c r="AI10" s="7"/>
       <c r="AJ10" s="7"/>
       <c r="AK10" s="7"/>
-      <c r="AL10" s="7" t="n">
+      <c r="AL10" s="7">
         <v>3</v>
       </c>
-      <c r="AM10" s="7" t="n">
+      <c r="AM10" s="7">
         <v>8</v>
       </c>
       <c r="AN10" s="7"/>
-      <c r="AO10" s="7" t="n">
+      <c r="AO10" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7" t="n">
+    <row r="11" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="7">
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
@@ -2084,10 +2360,10 @@
         <v>47</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G11" s="16" t="s">
         <v>74</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>75</v>
       </c>
       <c r="H11" s="7" t="s">
         <v>56</v>
@@ -2095,16 +2371,16 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
-      <c r="L11" s="9" t="n">
+      <c r="L11" s="9">
         <v>1</v>
       </c>
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P11" s="12" t="s">
         <v>76</v>
-      </c>
-      <c r="P11" s="12" t="s">
-        <v>77</v>
       </c>
       <c r="Q11" s="7"/>
       <c r="R11" s="7"/>
@@ -2123,35 +2399,35 @@
       <c r="Y11" s="7"/>
       <c r="Z11" s="7"/>
       <c r="AA11" s="7" t="s">
-        <v>60</v>
+        <v>249</v>
       </c>
       <c r="AB11" s="7"/>
       <c r="AC11" s="7"/>
       <c r="AD11" s="7"/>
       <c r="AE11" s="7"/>
       <c r="AF11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG11" s="10" t="n">
-        <v>0.007293</v>
+        <v>60</v>
+      </c>
+      <c r="AG11" s="10">
+        <v>7.293E-3</v>
       </c>
       <c r="AH11" s="7"/>
       <c r="AI11" s="7"/>
       <c r="AJ11" s="7"/>
       <c r="AK11" s="7"/>
-      <c r="AL11" s="7" t="n">
+      <c r="AL11" s="7">
         <v>3</v>
       </c>
-      <c r="AM11" s="7" t="n">
+      <c r="AM11" s="7">
         <v>9</v>
       </c>
       <c r="AN11" s="7"/>
-      <c r="AO11" s="7" t="n">
+      <c r="AO11" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7" t="n">
+    <row r="12" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="7">
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
@@ -2164,13 +2440,13 @@
         <v>43</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H12" s="7" t="s">
         <v>50</v>
@@ -2179,7 +2455,7 @@
         <v>44</v>
       </c>
       <c r="J12" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K12" s="7"/>
       <c r="L12" s="9"/>
@@ -2210,21 +2486,21 @@
       <c r="AI12" s="7"/>
       <c r="AJ12" s="7"/>
       <c r="AK12" s="7"/>
-      <c r="AL12" s="7" t="n">
+      <c r="AL12" s="7">
         <v>2</v>
       </c>
-      <c r="AM12" s="7" t="n">
+      <c r="AM12" s="7">
         <v>10</v>
       </c>
       <c r="AN12" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="AO12" s="7" t="n">
+        <v>81</v>
+      </c>
+      <c r="AO12" s="7">
         <v>300</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="7" t="n">
+    <row r="13" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="7">
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
@@ -2237,13 +2513,13 @@
         <v>43</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="H13" s="7" t="s">
         <v>56</v>
@@ -2251,15 +2527,15 @@
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
-      <c r="L13" s="9" t="n">
+      <c r="L13" s="9">
         <v>1</v>
       </c>
       <c r="M13" s="9"/>
       <c r="N13" s="9"/>
       <c r="O13" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="P13" s="12" t="n">
+        <v>82</v>
+      </c>
+      <c r="P13" s="12">
         <v>40822426</v>
       </c>
       <c r="Q13" s="12"/>
@@ -2279,35 +2555,35 @@
       <c r="Y13" s="7"/>
       <c r="Z13" s="7"/>
       <c r="AA13" s="7" t="s">
-        <v>60</v>
+        <v>249</v>
       </c>
       <c r="AB13" s="7"/>
       <c r="AC13" s="7"/>
       <c r="AD13" s="7"/>
       <c r="AE13" s="7"/>
       <c r="AF13" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG13" s="15" t="n">
-        <v>0.020908</v>
+        <v>60</v>
+      </c>
+      <c r="AG13" s="15">
+        <v>2.0908E-2</v>
       </c>
       <c r="AH13" s="7"/>
       <c r="AI13" s="7"/>
       <c r="AJ13" s="7"/>
       <c r="AK13" s="7"/>
-      <c r="AL13" s="7" t="n">
+      <c r="AL13" s="7">
         <v>3</v>
       </c>
-      <c r="AM13" s="7" t="n">
+      <c r="AM13" s="7">
         <v>11</v>
       </c>
       <c r="AN13" s="7"/>
-      <c r="AO13" s="7" t="n">
+      <c r="AO13" s="7">
         <v>10</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="7" t="n">
+    <row r="14" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="7">
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -2320,13 +2596,13 @@
         <v>43</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="H14" s="7" t="s">
         <v>56</v>
@@ -2334,16 +2610,16 @@
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
-      <c r="L14" s="9" t="n">
+      <c r="L14" s="9">
         <v>1</v>
       </c>
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
       <c r="O14" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P14" s="12" t="s">
         <v>87</v>
-      </c>
-      <c r="P14" s="12" t="s">
-        <v>88</v>
       </c>
       <c r="Q14" s="12"/>
       <c r="R14" s="12"/>
@@ -2362,35 +2638,35 @@
       <c r="Y14" s="7"/>
       <c r="Z14" s="7"/>
       <c r="AA14" s="7" t="s">
-        <v>60</v>
+        <v>249</v>
       </c>
       <c r="AB14" s="7"/>
       <c r="AC14" s="7"/>
       <c r="AD14" s="7"/>
       <c r="AE14" s="7"/>
       <c r="AF14" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG14" s="15" t="n">
-        <v>0.011924</v>
+        <v>60</v>
+      </c>
+      <c r="AG14" s="15">
+        <v>1.1924000000000001E-2</v>
       </c>
       <c r="AH14" s="7"/>
       <c r="AI14" s="7"/>
       <c r="AJ14" s="7"/>
       <c r="AK14" s="7"/>
-      <c r="AL14" s="7" t="n">
+      <c r="AL14" s="7">
         <v>3</v>
       </c>
-      <c r="AM14" s="7" t="n">
+      <c r="AM14" s="7">
         <v>12</v>
       </c>
       <c r="AN14" s="7"/>
-      <c r="AO14" s="7" t="n">
+      <c r="AO14" s="7">
         <v>10</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="7" t="n">
+    <row r="15" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="7">
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
@@ -2403,13 +2679,13 @@
         <v>43</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F15" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H15" s="7" t="s">
         <v>50</v>
@@ -2418,7 +2694,7 @@
         <v>44</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K15" s="7"/>
       <c r="L15" s="9"/>
@@ -2449,21 +2725,21 @@
       <c r="AI15" s="7"/>
       <c r="AJ15" s="7"/>
       <c r="AK15" s="7"/>
-      <c r="AL15" s="7" t="n">
+      <c r="AL15" s="7">
         <v>2</v>
       </c>
-      <c r="AM15" s="7" t="n">
+      <c r="AM15" s="7">
         <v>13</v>
       </c>
-      <c r="AN15" s="13" t="n">
+      <c r="AN15" s="13">
         <v>14</v>
       </c>
-      <c r="AO15" s="7" t="n">
+      <c r="AO15" s="7">
         <v>300</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="7" t="n">
+    <row r="16" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="7">
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
@@ -2476,13 +2752,13 @@
         <v>43</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="H16" s="7" t="s">
         <v>56</v>
@@ -2490,16 +2766,16 @@
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
-      <c r="L16" s="9" t="n">
+      <c r="L16" s="9">
         <v>1</v>
       </c>
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
       <c r="O16" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P16" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q16" s="12"/>
       <c r="R16" s="12"/>
@@ -2518,35 +2794,35 @@
       <c r="Y16" s="7"/>
       <c r="Z16" s="7"/>
       <c r="AA16" s="7" t="s">
-        <v>60</v>
+        <v>249</v>
       </c>
       <c r="AB16" s="7"/>
       <c r="AC16" s="7"/>
       <c r="AD16" s="7"/>
       <c r="AE16" s="7"/>
       <c r="AF16" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG16" s="15" t="n">
-        <v>0.011924</v>
+        <v>60</v>
+      </c>
+      <c r="AG16" s="15">
+        <v>1.1924000000000001E-2</v>
       </c>
       <c r="AH16" s="7"/>
       <c r="AI16" s="7"/>
       <c r="AJ16" s="7"/>
       <c r="AK16" s="7"/>
-      <c r="AL16" s="7" t="n">
+      <c r="AL16" s="7">
         <v>3</v>
       </c>
-      <c r="AM16" s="7" t="n">
+      <c r="AM16" s="7">
         <v>14</v>
       </c>
       <c r="AN16" s="7"/>
-      <c r="AO16" s="7" t="n">
+      <c r="AO16" s="7">
         <v>13</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="7" t="n">
+    <row r="17" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="7">
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
@@ -2559,13 +2835,13 @@
         <v>43</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="H17" s="7" t="s">
         <v>50</v>
@@ -2574,7 +2850,7 @@
         <v>44</v>
       </c>
       <c r="J17" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K17" s="7"/>
       <c r="L17" s="9"/>
@@ -2605,21 +2881,21 @@
       <c r="AI17" s="7"/>
       <c r="AJ17" s="7"/>
       <c r="AK17" s="7"/>
-      <c r="AL17" s="7" t="n">
+      <c r="AL17" s="7">
         <v>2</v>
       </c>
-      <c r="AM17" s="7" t="n">
+      <c r="AM17" s="7">
         <v>15</v>
       </c>
       <c r="AN17" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="AO17" s="7" t="n">
+        <v>97</v>
+      </c>
+      <c r="AO17" s="7">
         <v>300</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="7" t="n">
+    <row r="18" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="7">
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
@@ -2632,13 +2908,13 @@
         <v>43</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F18" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G18" s="12" t="s">
         <v>99</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>100</v>
       </c>
       <c r="H18" s="7" t="s">
         <v>56</v>
@@ -2646,16 +2922,16 @@
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
-      <c r="L18" s="9" t="n">
+      <c r="L18" s="9">
         <v>1</v>
       </c>
       <c r="M18" s="7"/>
       <c r="N18" s="7"/>
       <c r="O18" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P18" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q18" s="12"/>
       <c r="R18" s="12"/>
@@ -2674,35 +2950,35 @@
       <c r="Y18" s="7"/>
       <c r="Z18" s="7"/>
       <c r="AA18" s="7" t="s">
-        <v>60</v>
+        <v>249</v>
       </c>
       <c r="AB18" s="7"/>
       <c r="AC18" s="7"/>
       <c r="AD18" s="7"/>
       <c r="AE18" s="7"/>
       <c r="AF18" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG18" s="10" t="n">
-        <v>0.020892</v>
+        <v>60</v>
+      </c>
+      <c r="AG18" s="10">
+        <v>2.0892000000000001E-2</v>
       </c>
       <c r="AH18" s="7"/>
       <c r="AI18" s="7"/>
       <c r="AJ18" s="7"/>
       <c r="AK18" s="7"/>
-      <c r="AL18" s="7" t="n">
+      <c r="AL18" s="7">
         <v>3</v>
       </c>
-      <c r="AM18" s="7" t="n">
+      <c r="AM18" s="7">
         <v>16</v>
       </c>
       <c r="AN18" s="7"/>
-      <c r="AO18" s="7" t="n">
+      <c r="AO18" s="7">
         <v>15</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="7" t="n">
+    <row r="19" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="7">
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
@@ -2715,13 +2991,13 @@
         <v>43</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G19" s="16" t="s">
         <v>102</v>
-      </c>
-      <c r="G19" s="16" t="s">
-        <v>103</v>
       </c>
       <c r="H19" s="7" t="s">
         <v>56</v>
@@ -2729,15 +3005,15 @@
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
-      <c r="L19" s="9" t="n">
+      <c r="L19" s="9">
         <v>1</v>
       </c>
       <c r="M19" s="7"/>
       <c r="N19" s="7"/>
       <c r="O19" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="P19" s="12" t="n">
+        <v>103</v>
+      </c>
+      <c r="P19" s="12">
         <v>4607042430879</v>
       </c>
       <c r="Q19" s="7"/>
@@ -2757,35 +3033,35 @@
       <c r="Y19" s="7"/>
       <c r="Z19" s="7"/>
       <c r="AA19" s="7" t="s">
-        <v>60</v>
+        <v>249</v>
       </c>
       <c r="AB19" s="7"/>
       <c r="AC19" s="7"/>
       <c r="AD19" s="7"/>
       <c r="AE19" s="7"/>
       <c r="AF19" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG19" s="10" t="n">
-        <v>0.011924</v>
+        <v>60</v>
+      </c>
+      <c r="AG19" s="10">
+        <v>1.1924000000000001E-2</v>
       </c>
       <c r="AH19" s="7"/>
       <c r="AI19" s="7"/>
       <c r="AJ19" s="7"/>
       <c r="AK19" s="7"/>
-      <c r="AL19" s="7" t="n">
+      <c r="AL19" s="7">
         <v>3</v>
       </c>
-      <c r="AM19" s="7" t="n">
+      <c r="AM19" s="7">
         <v>17</v>
       </c>
       <c r="AN19" s="7"/>
-      <c r="AO19" s="7" t="n">
+      <c r="AO19" s="7">
         <v>15</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="7" t="n">
+    <row r="20" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="7">
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
@@ -2798,13 +3074,13 @@
         <v>43</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F20" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G20" s="16" t="s">
         <v>105</v>
-      </c>
-      <c r="G20" s="16" t="s">
-        <v>106</v>
       </c>
       <c r="H20" s="7" t="s">
         <v>56</v>
@@ -2812,16 +3088,16 @@
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
-      <c r="L20" s="9" t="n">
+      <c r="L20" s="9">
         <v>1</v>
       </c>
       <c r="M20" s="7"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P20" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q20" s="7"/>
       <c r="R20" s="7"/>
@@ -2840,35 +3116,35 @@
       <c r="Y20" s="7"/>
       <c r="Z20" s="7"/>
       <c r="AA20" s="7" t="s">
-        <v>60</v>
+        <v>249</v>
       </c>
       <c r="AB20" s="7"/>
       <c r="AC20" s="7"/>
       <c r="AD20" s="7"/>
       <c r="AE20" s="7"/>
       <c r="AF20" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG20" s="10" t="n">
-        <v>0.011924</v>
+        <v>60</v>
+      </c>
+      <c r="AG20" s="10">
+        <v>1.1924000000000001E-2</v>
       </c>
       <c r="AH20" s="7"/>
       <c r="AI20" s="7"/>
       <c r="AJ20" s="7"/>
       <c r="AK20" s="7"/>
-      <c r="AL20" s="7" t="n">
+      <c r="AL20" s="7">
         <v>3</v>
       </c>
-      <c r="AM20" s="7" t="n">
+      <c r="AM20" s="7">
         <v>18</v>
       </c>
       <c r="AN20" s="7"/>
-      <c r="AO20" s="7" t="n">
+      <c r="AO20" s="7">
         <v>15</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="7" t="n">
+    <row r="21" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="7">
         <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
@@ -2881,13 +3157,13 @@
         <v>43</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F21" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G21" s="16" t="s">
         <v>108</v>
-      </c>
-      <c r="G21" s="16" t="s">
-        <v>109</v>
       </c>
       <c r="H21" s="7" t="s">
         <v>56</v>
@@ -2895,16 +3171,16 @@
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
-      <c r="L21" s="9" t="n">
+      <c r="L21" s="9">
         <v>1</v>
       </c>
       <c r="M21" s="7"/>
       <c r="N21" s="7"/>
       <c r="O21" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P21" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Q21" s="7"/>
       <c r="R21" s="7"/>
@@ -2923,35 +3199,35 @@
       <c r="Y21" s="7"/>
       <c r="Z21" s="7"/>
       <c r="AA21" s="7" t="s">
-        <v>60</v>
+        <v>249</v>
       </c>
       <c r="AB21" s="7"/>
       <c r="AC21" s="7"/>
       <c r="AD21" s="7"/>
       <c r="AE21" s="7"/>
       <c r="AF21" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG21" s="10" t="n">
-        <v>0.011924</v>
+        <v>60</v>
+      </c>
+      <c r="AG21" s="10">
+        <v>1.1924000000000001E-2</v>
       </c>
       <c r="AH21" s="7"/>
       <c r="AI21" s="7"/>
       <c r="AJ21" s="7"/>
       <c r="AK21" s="7"/>
-      <c r="AL21" s="7" t="n">
+      <c r="AL21" s="7">
         <v>3</v>
       </c>
-      <c r="AM21" s="7" t="n">
+      <c r="AM21" s="7">
         <v>19</v>
       </c>
       <c r="AN21" s="7"/>
-      <c r="AO21" s="7" t="n">
+      <c r="AO21" s="7">
         <v>15</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="7" t="n">
+    <row r="22" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="7">
         <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
@@ -2964,13 +3240,13 @@
         <v>43</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="H22" s="7" t="s">
         <v>50</v>
@@ -2979,7 +3255,7 @@
         <v>44</v>
       </c>
       <c r="J22" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K22" s="7"/>
       <c r="L22" s="9"/>
@@ -3010,21 +3286,21 @@
       <c r="AI22" s="7"/>
       <c r="AJ22" s="7"/>
       <c r="AK22" s="7"/>
-      <c r="AL22" s="7" t="n">
+      <c r="AL22" s="7">
         <v>2</v>
       </c>
-      <c r="AM22" s="7" t="n">
+      <c r="AM22" s="7">
         <v>20</v>
       </c>
       <c r="AN22" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="AO22" s="7" t="n">
+        <v>113</v>
+      </c>
+      <c r="AO22" s="7">
         <v>300</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="7" t="n">
+    <row r="23" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="7">
         <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
@@ -3037,13 +3313,13 @@
         <v>43</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F23" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G23" s="16" t="s">
         <v>115</v>
-      </c>
-      <c r="G23" s="16" t="s">
-        <v>116</v>
       </c>
       <c r="H23" s="7" t="s">
         <v>56</v>
@@ -3051,15 +3327,15 @@
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
-      <c r="L23" s="9" t="n">
+      <c r="L23" s="9">
         <v>1</v>
       </c>
       <c r="M23" s="7"/>
       <c r="N23" s="7"/>
       <c r="O23" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="P23" s="12" t="n">
+        <v>114</v>
+      </c>
+      <c r="P23" s="12">
         <v>4607174577787</v>
       </c>
       <c r="Q23" s="7"/>
@@ -3079,35 +3355,35 @@
       <c r="Y23" s="7"/>
       <c r="Z23" s="7"/>
       <c r="AA23" s="7" t="s">
-        <v>60</v>
+        <v>249</v>
       </c>
       <c r="AB23" s="7"/>
       <c r="AC23" s="7"/>
       <c r="AD23" s="7"/>
       <c r="AE23" s="7"/>
       <c r="AF23" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG23" s="10" t="n">
-        <v>0.020892</v>
+        <v>60</v>
+      </c>
+      <c r="AG23" s="10">
+        <v>2.0892000000000001E-2</v>
       </c>
       <c r="AH23" s="7"/>
       <c r="AI23" s="7"/>
       <c r="AJ23" s="7"/>
       <c r="AK23" s="7"/>
-      <c r="AL23" s="7" t="n">
+      <c r="AL23" s="7">
         <v>3</v>
       </c>
-      <c r="AM23" s="7" t="n">
+      <c r="AM23" s="7">
         <v>21</v>
       </c>
       <c r="AN23" s="7"/>
-      <c r="AO23" s="7" t="n">
+      <c r="AO23" s="7">
         <v>20</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="7" t="n">
+    <row r="24" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="7">
         <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
@@ -3120,13 +3396,13 @@
         <v>43</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F24" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G24" s="16" t="s">
         <v>117</v>
-      </c>
-      <c r="G24" s="16" t="s">
-        <v>118</v>
       </c>
       <c r="H24" s="7" t="s">
         <v>56</v>
@@ -3134,15 +3410,15 @@
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
-      <c r="L24" s="9" t="n">
+      <c r="L24" s="9">
         <v>1</v>
       </c>
       <c r="M24" s="7"/>
       <c r="N24" s="7"/>
       <c r="O24" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="P24" s="12" t="n">
+        <v>116</v>
+      </c>
+      <c r="P24" s="12">
         <v>4650075420980</v>
       </c>
       <c r="Q24" s="7"/>
@@ -3162,35 +3438,35 @@
       <c r="Y24" s="7"/>
       <c r="Z24" s="7"/>
       <c r="AA24" s="7" t="s">
-        <v>60</v>
+        <v>249</v>
       </c>
       <c r="AB24" s="7"/>
       <c r="AC24" s="7"/>
       <c r="AD24" s="7"/>
       <c r="AE24" s="7"/>
       <c r="AF24" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG24" s="10" t="n">
-        <v>0.007448</v>
+        <v>60</v>
+      </c>
+      <c r="AG24" s="10">
+        <v>7.4479999999999998E-3</v>
       </c>
       <c r="AH24" s="7"/>
       <c r="AI24" s="7"/>
       <c r="AJ24" s="7"/>
       <c r="AK24" s="7"/>
-      <c r="AL24" s="7" t="n">
+      <c r="AL24" s="7">
         <v>3</v>
       </c>
-      <c r="AM24" s="7" t="n">
+      <c r="AM24" s="7">
         <v>22</v>
       </c>
       <c r="AN24" s="7"/>
-      <c r="AO24" s="7" t="n">
+      <c r="AO24" s="7">
         <v>20</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="7" t="n">
+    <row r="25" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="7">
         <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
@@ -3203,13 +3479,13 @@
         <v>43</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F25" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="H25" s="7" t="s">
         <v>56</v>
@@ -3217,16 +3493,16 @@
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
-      <c r="L25" s="9" t="n">
+      <c r="L25" s="9">
         <v>1</v>
       </c>
       <c r="M25" s="9"/>
       <c r="N25" s="9"/>
       <c r="O25" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P25" s="12" t="s">
         <v>121</v>
-      </c>
-      <c r="P25" s="12" t="s">
-        <v>122</v>
       </c>
       <c r="Q25" s="12"/>
       <c r="R25" s="12"/>
@@ -3245,35 +3521,35 @@
       <c r="Y25" s="7"/>
       <c r="Z25" s="7"/>
       <c r="AA25" s="7" t="s">
-        <v>60</v>
+        <v>249</v>
       </c>
       <c r="AB25" s="7"/>
       <c r="AC25" s="7"/>
       <c r="AD25" s="7"/>
       <c r="AE25" s="7"/>
       <c r="AF25" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG25" s="15" t="n">
-        <v>0.007448</v>
+        <v>60</v>
+      </c>
+      <c r="AG25" s="15">
+        <v>7.4479999999999998E-3</v>
       </c>
       <c r="AH25" s="7"/>
       <c r="AI25" s="7"/>
       <c r="AJ25" s="7"/>
       <c r="AK25" s="7"/>
-      <c r="AL25" s="7" t="n">
+      <c r="AL25" s="7">
         <v>3</v>
       </c>
-      <c r="AM25" s="7" t="n">
+      <c r="AM25" s="7">
         <v>23</v>
       </c>
       <c r="AN25" s="7"/>
-      <c r="AO25" s="7" t="n">
+      <c r="AO25" s="7">
         <v>20</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="7" t="n">
+    <row r="26" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="7">
         <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
@@ -3286,13 +3562,13 @@
         <v>43</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F26" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="H26" s="7" t="s">
         <v>56</v>
@@ -3300,16 +3576,16 @@
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
-      <c r="L26" s="9" t="n">
+      <c r="L26" s="9">
         <v>1</v>
       </c>
       <c r="M26" s="9"/>
       <c r="N26" s="9"/>
       <c r="O26" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="P26" s="12" t="s">
         <v>125</v>
-      </c>
-      <c r="P26" s="12" t="s">
-        <v>126</v>
       </c>
       <c r="Q26" s="12"/>
       <c r="R26" s="12"/>
@@ -3328,35 +3604,35 @@
       <c r="Y26" s="7"/>
       <c r="Z26" s="7"/>
       <c r="AA26" s="7" t="s">
-        <v>60</v>
+        <v>249</v>
       </c>
       <c r="AB26" s="7"/>
       <c r="AC26" s="7"/>
       <c r="AD26" s="7"/>
       <c r="AE26" s="7"/>
       <c r="AF26" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG26" s="15" t="n">
-        <v>0.007448</v>
+        <v>60</v>
+      </c>
+      <c r="AG26" s="15">
+        <v>7.4479999999999998E-3</v>
       </c>
       <c r="AH26" s="7"/>
       <c r="AI26" s="7"/>
       <c r="AJ26" s="7"/>
       <c r="AK26" s="7"/>
-      <c r="AL26" s="7" t="n">
+      <c r="AL26" s="7">
         <v>3</v>
       </c>
-      <c r="AM26" s="7" t="n">
+      <c r="AM26" s="7">
         <v>24</v>
       </c>
       <c r="AN26" s="7"/>
-      <c r="AO26" s="7" t="n">
+      <c r="AO26" s="7">
         <v>20</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="7" t="n">
+    <row r="27" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="7">
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
@@ -3369,13 +3645,13 @@
         <v>43</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F27" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G27" s="16" t="s">
         <v>127</v>
-      </c>
-      <c r="G27" s="16" t="s">
-        <v>128</v>
       </c>
       <c r="H27" s="7" t="s">
         <v>56</v>
@@ -3383,16 +3659,16 @@
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
-      <c r="L27" s="9" t="n">
+      <c r="L27" s="9">
         <v>1</v>
       </c>
       <c r="M27" s="7"/>
       <c r="N27" s="7"/>
       <c r="O27" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P27" s="12" t="s">
         <v>129</v>
-      </c>
-      <c r="P27" s="12" t="s">
-        <v>130</v>
       </c>
       <c r="Q27" s="7"/>
       <c r="R27" s="7"/>
@@ -3411,35 +3687,35 @@
       <c r="Y27" s="7"/>
       <c r="Z27" s="7"/>
       <c r="AA27" s="7" t="s">
-        <v>60</v>
+        <v>249</v>
       </c>
       <c r="AB27" s="7"/>
       <c r="AC27" s="7"/>
       <c r="AD27" s="7"/>
       <c r="AE27" s="7"/>
       <c r="AF27" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG27" s="10" t="n">
-        <v>0.007448</v>
+        <v>60</v>
+      </c>
+      <c r="AG27" s="10">
+        <v>7.4479999999999998E-3</v>
       </c>
       <c r="AH27" s="7"/>
       <c r="AI27" s="7"/>
       <c r="AJ27" s="7"/>
       <c r="AK27" s="7"/>
-      <c r="AL27" s="7" t="n">
+      <c r="AL27" s="7">
         <v>3</v>
       </c>
-      <c r="AM27" s="7" t="n">
+      <c r="AM27" s="7">
         <v>925</v>
       </c>
       <c r="AN27" s="7"/>
-      <c r="AO27" s="7" t="n">
+      <c r="AO27" s="7">
         <v>20</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="7" t="n">
+    <row r="28" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="7">
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
@@ -3452,13 +3728,13 @@
         <v>43</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F28" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="H28" s="7" t="s">
         <v>56</v>
@@ -3466,16 +3742,16 @@
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
-      <c r="L28" s="9" t="n">
+      <c r="L28" s="9">
         <v>1</v>
       </c>
       <c r="M28" s="9"/>
       <c r="N28" s="9"/>
       <c r="O28" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P28" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q28" s="12"/>
       <c r="R28" s="12"/>
@@ -3494,35 +3770,35 @@
       <c r="Y28" s="7"/>
       <c r="Z28" s="7"/>
       <c r="AA28" s="7" t="s">
-        <v>60</v>
+        <v>249</v>
       </c>
       <c r="AB28" s="7"/>
       <c r="AC28" s="7"/>
       <c r="AD28" s="7"/>
       <c r="AE28" s="7"/>
       <c r="AF28" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG28" s="15" t="n">
-        <v>0.007448</v>
+        <v>60</v>
+      </c>
+      <c r="AG28" s="15">
+        <v>7.4479999999999998E-3</v>
       </c>
       <c r="AH28" s="7"/>
       <c r="AI28" s="7"/>
       <c r="AJ28" s="7"/>
       <c r="AK28" s="7"/>
-      <c r="AL28" s="7" t="n">
+      <c r="AL28" s="7">
         <v>3</v>
       </c>
-      <c r="AM28" s="7" t="n">
+      <c r="AM28" s="7">
         <v>926</v>
       </c>
       <c r="AN28" s="7"/>
-      <c r="AO28" s="7" t="n">
+      <c r="AO28" s="7">
         <v>20</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="7" t="n">
+    <row r="29" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="7">
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
@@ -3535,13 +3811,13 @@
         <v>43</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F29" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="H29" s="7" t="s">
         <v>56</v>
@@ -3549,16 +3825,16 @@
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
-      <c r="L29" s="9" t="n">
+      <c r="L29" s="9">
         <v>1</v>
       </c>
       <c r="M29" s="9"/>
       <c r="N29" s="9"/>
       <c r="O29" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="P29" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Q29" s="12"/>
       <c r="R29" s="12"/>
@@ -3577,39 +3853,39 @@
       <c r="Y29" s="7"/>
       <c r="Z29" s="7"/>
       <c r="AA29" s="7" t="s">
-        <v>60</v>
+        <v>249</v>
       </c>
       <c r="AB29" s="7"/>
       <c r="AC29" s="7"/>
       <c r="AD29" s="7"/>
       <c r="AE29" s="7"/>
       <c r="AF29" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG29" s="15" t="n">
-        <v>0.007448</v>
+        <v>60</v>
+      </c>
+      <c r="AG29" s="15">
+        <v>7.4479999999999998E-3</v>
       </c>
       <c r="AH29" s="7"/>
       <c r="AI29" s="7"/>
       <c r="AJ29" s="7"/>
       <c r="AK29" s="7"/>
-      <c r="AL29" s="7" t="n">
+      <c r="AL29" s="7">
         <v>3</v>
       </c>
-      <c r="AM29" s="7" t="n">
+      <c r="AM29" s="7">
         <v>927</v>
       </c>
       <c r="AN29" s="7"/>
-      <c r="AO29" s="7" t="n">
+      <c r="AO29" s="7">
         <v>20</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="7" t="n">
+    <row r="30" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="7">
         <v>37</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>42</v>
@@ -3619,10 +3895,10 @@
       </c>
       <c r="E30" s="7"/>
       <c r="F30" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="G30" s="8" t="s">
         <v>138</v>
-      </c>
-      <c r="G30" s="8" t="s">
-        <v>139</v>
       </c>
       <c r="H30" s="8" t="s">
         <v>43</v>
@@ -3656,23 +3932,23 @@
       <c r="AI30" s="7"/>
       <c r="AJ30" s="7"/>
       <c r="AK30" s="7"/>
-      <c r="AL30" s="12" t="n">
+      <c r="AL30" s="12">
         <v>1</v>
       </c>
-      <c r="AM30" s="12" t="n">
+      <c r="AM30" s="12">
         <v>310</v>
       </c>
       <c r="AN30" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AO30" s="7"/>
     </row>
-    <row r="31" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="7" t="n">
+    <row r="31" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="7">
         <v>38</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>42</v>
@@ -3682,10 +3958,10 @@
       </c>
       <c r="E31" s="7"/>
       <c r="F31" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="G31" s="8" t="s">
         <v>141</v>
-      </c>
-      <c r="G31" s="8" t="s">
-        <v>142</v>
       </c>
       <c r="H31" s="8" t="s">
         <v>43</v>
@@ -3719,25 +3995,25 @@
       <c r="AI31" s="7"/>
       <c r="AJ31" s="7"/>
       <c r="AK31" s="7"/>
-      <c r="AL31" s="12" t="n">
+      <c r="AL31" s="12">
         <v>1</v>
       </c>
-      <c r="AM31" s="12" t="n">
+      <c r="AM31" s="12">
         <v>311</v>
       </c>
-      <c r="AN31" s="7" t="n">
+      <c r="AN31" s="7">
         <v>26</v>
       </c>
-      <c r="AO31" s="7" t="n">
+      <c r="AO31" s="7">
         <v>310</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="7" t="n">
+    <row r="32" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="7">
         <v>39</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>42</v>
@@ -3746,16 +4022,16 @@
         <v>43</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="G32" s="7" t="s">
+      <c r="H32" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="H32" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
@@ -3768,7 +4044,7 @@
       <c r="Q32" s="12"/>
       <c r="R32" s="12"/>
       <c r="S32" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="T32" s="7"/>
       <c r="U32" s="7"/>
@@ -3782,39 +4058,39 @@
       <c r="AC32" s="7"/>
       <c r="AD32" s="7"/>
       <c r="AE32" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="AF32" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="AF32" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="AG32" s="10" t="n">
+      <c r="AG32" s="10">
         <v>0.08</v>
       </c>
       <c r="AH32" s="7"/>
       <c r="AI32" s="7"/>
       <c r="AJ32" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="AK32" s="7"/>
+      <c r="AL32" s="7">
+        <v>2</v>
+      </c>
+      <c r="AM32" s="7">
+        <v>26</v>
+      </c>
+      <c r="AN32" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="AK32" s="7"/>
-      <c r="AL32" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="AM32" s="7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN32" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="AO32" s="7" t="n">
+      <c r="AO32" s="7">
         <v>311</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="7" t="n">
+    <row r="33" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="7">
         <v>40</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>42</v>
@@ -3823,43 +4099,43 @@
         <v>43</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F33" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G33" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="G33" s="7" t="s">
+      <c r="H33" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="H33" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
-      <c r="L33" s="7" t="n">
+      <c r="L33" s="7">
         <v>1</v>
       </c>
       <c r="M33" s="7"/>
       <c r="N33" s="7"/>
       <c r="O33" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P33" s="12" t="s">
         <v>155</v>
-      </c>
-      <c r="P33" s="12" t="s">
-        <v>156</v>
       </c>
       <c r="Q33" s="12"/>
       <c r="R33" s="12"/>
       <c r="S33" s="7"/>
       <c r="T33" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="U33" s="7"/>
       <c r="V33" s="7"/>
       <c r="W33" s="7"/>
       <c r="X33" s="7"/>
       <c r="Y33" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Z33" s="7"/>
       <c r="AA33" s="7"/>
@@ -3867,35 +4143,35 @@
       <c r="AC33" s="7"/>
       <c r="AD33" s="7"/>
       <c r="AE33" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AF33" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AG33" s="10"/>
       <c r="AH33" s="7"/>
       <c r="AI33" s="7"/>
       <c r="AJ33" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AK33" s="7"/>
-      <c r="AL33" s="7" t="n">
+      <c r="AL33" s="7">
         <v>3</v>
       </c>
-      <c r="AM33" s="7" t="n">
+      <c r="AM33" s="7">
         <v>27</v>
       </c>
       <c r="AN33" s="7"/>
-      <c r="AO33" s="7" t="n">
+      <c r="AO33" s="7">
         <v>26</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="7" t="n">
+    <row r="34" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="7">
         <v>41</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>42</v>
@@ -3904,43 +4180,43 @@
         <v>43</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F34" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="G34" s="7" t="s">
+      <c r="H34" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="H34" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
       <c r="K34" s="7"/>
-      <c r="L34" s="7" t="n">
+      <c r="L34" s="7">
         <v>0.01</v>
       </c>
       <c r="M34" s="7"/>
       <c r="N34" s="7"/>
       <c r="O34" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P34" s="12" t="s">
         <v>155</v>
-      </c>
-      <c r="P34" s="12" t="s">
-        <v>156</v>
       </c>
       <c r="Q34" s="12"/>
       <c r="R34" s="12"/>
       <c r="S34" s="7"/>
       <c r="T34" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="U34" s="7"/>
       <c r="V34" s="7"/>
       <c r="W34" s="7"/>
       <c r="X34" s="7"/>
       <c r="Y34" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Z34" s="7"/>
       <c r="AA34" s="7"/>
@@ -3948,33 +4224,33 @@
       <c r="AC34" s="7"/>
       <c r="AD34" s="7"/>
       <c r="AE34" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AF34" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AG34" s="10"/>
       <c r="AH34" s="7"/>
       <c r="AI34" s="7"/>
       <c r="AJ34" s="7"/>
       <c r="AK34" s="7"/>
-      <c r="AL34" s="7" t="n">
+      <c r="AL34" s="7">
         <v>3</v>
       </c>
-      <c r="AM34" s="7" t="n">
+      <c r="AM34" s="7">
         <v>28</v>
       </c>
       <c r="AN34" s="7"/>
-      <c r="AO34" s="7" t="n">
+      <c r="AO34" s="7">
         <v>26</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="7" t="n">
+    <row r="35" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="7">
         <v>42</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>42</v>
@@ -3984,10 +4260,10 @@
       </c>
       <c r="E35" s="7"/>
       <c r="F35" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="G35" s="8" t="s">
         <v>164</v>
-      </c>
-      <c r="G35" s="8" t="s">
-        <v>165</v>
       </c>
       <c r="H35" s="8" t="s">
         <v>43</v>
@@ -4021,25 +4297,25 @@
       <c r="AI35" s="7"/>
       <c r="AJ35" s="7"/>
       <c r="AK35" s="7"/>
-      <c r="AL35" s="12" t="n">
+      <c r="AL35" s="12">
         <v>1</v>
       </c>
-      <c r="AM35" s="12" t="n">
+      <c r="AM35" s="12">
         <v>312</v>
       </c>
       <c r="AN35" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="AO35" s="7" t="n">
+        <v>165</v>
+      </c>
+      <c r="AO35" s="7">
         <v>310</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="7" t="n">
+    <row r="36" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="7">
         <v>43</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>42</v>
@@ -4048,34 +4324,34 @@
         <v>43</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F36" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="G36" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="G36" s="7" t="s">
+      <c r="H36" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="H36" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="I36" s="7"/>
       <c r="J36" s="7"/>
       <c r="K36" s="7"/>
-      <c r="L36" s="7" t="n">
+      <c r="L36" s="7">
         <v>1</v>
       </c>
       <c r="M36" s="7"/>
       <c r="N36" s="7"/>
       <c r="O36" s="7"/>
       <c r="P36" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Q36" s="12"/>
       <c r="R36" s="12"/>
       <c r="S36" s="7"/>
       <c r="T36" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="U36" s="7"/>
       <c r="V36" s="7"/>
@@ -4083,46 +4359,46 @@
       <c r="X36" s="7"/>
       <c r="Y36" s="7"/>
       <c r="Z36" s="18" t="s">
-        <v>173</v>
+        <v>250</v>
       </c>
       <c r="AA36" s="7"/>
       <c r="AB36" s="7"/>
       <c r="AC36" s="7"/>
       <c r="AD36" s="7"/>
       <c r="AE36" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AF36" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG36" s="10" t="n">
+        <v>60</v>
+      </c>
+      <c r="AG36" s="10">
         <v>0.04</v>
       </c>
       <c r="AH36" s="7"/>
       <c r="AI36" s="7"/>
       <c r="AJ36" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AK36" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="AL36" s="7" t="n">
+        <v>151</v>
+      </c>
+      <c r="AL36" s="7">
         <v>2</v>
       </c>
-      <c r="AM36" s="7" t="n">
+      <c r="AM36" s="7">
         <v>29</v>
       </c>
       <c r="AN36" s="7"/>
-      <c r="AO36" s="19" t="n">
+      <c r="AO36" s="19">
         <v>312</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="7" t="n">
+    <row r="37" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="7">
         <v>44</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>42</v>
@@ -4131,43 +4407,43 @@
         <v>43</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F37" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="H37" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="H37" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="I37" s="7"/>
       <c r="J37" s="7"/>
       <c r="K37" s="7"/>
-      <c r="L37" s="7" t="n">
+      <c r="L37" s="7">
         <v>1</v>
       </c>
       <c r="M37" s="7"/>
       <c r="N37" s="7"/>
       <c r="O37" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P37" s="12" t="s">
         <v>155</v>
-      </c>
-      <c r="P37" s="12" t="s">
-        <v>156</v>
       </c>
       <c r="Q37" s="12"/>
       <c r="R37" s="12"/>
       <c r="S37" s="7"/>
       <c r="T37" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="U37" s="7"/>
       <c r="V37" s="7"/>
       <c r="W37" s="7"/>
       <c r="X37" s="7"/>
       <c r="Y37" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Z37" s="7"/>
       <c r="AA37" s="7"/>
@@ -4175,39 +4451,39 @@
       <c r="AC37" s="7"/>
       <c r="AD37" s="7"/>
       <c r="AE37" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="AF37" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="AF37" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="AG37" s="10" t="n">
+      <c r="AG37" s="10">
         <v>0.04</v>
       </c>
       <c r="AH37" s="7"/>
       <c r="AI37" s="7"/>
       <c r="AJ37" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AK37" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="AL37" s="7" t="n">
+        <v>151</v>
+      </c>
+      <c r="AL37" s="7">
         <v>2</v>
       </c>
-      <c r="AM37" s="7" t="n">
+      <c r="AM37" s="7">
         <v>30</v>
       </c>
       <c r="AN37" s="7"/>
-      <c r="AO37" s="19" t="n">
+      <c r="AO37" s="19">
         <v>312</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="7" t="n">
+    <row r="38" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="7">
         <v>45</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>42</v>
@@ -4216,45 +4492,45 @@
         <v>43</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F38" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="H38" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="H38" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="I38" s="7"/>
       <c r="J38" s="7"/>
       <c r="K38" s="7"/>
       <c r="L38" s="7"/>
-      <c r="M38" s="7" t="n">
+      <c r="M38" s="7">
         <v>1</v>
       </c>
-      <c r="N38" s="7" t="n">
+      <c r="N38" s="7">
         <v>15</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P38" s="12" t="s">
         <v>155</v>
-      </c>
-      <c r="P38" s="12" t="s">
-        <v>156</v>
       </c>
       <c r="Q38" s="12"/>
       <c r="R38" s="12"/>
       <c r="S38" s="7"/>
       <c r="T38" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="U38" s="7"/>
       <c r="V38" s="7"/>
       <c r="W38" s="7"/>
       <c r="X38" s="7"/>
       <c r="Y38" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Z38" s="7"/>
       <c r="AA38" s="7"/>
@@ -4262,39 +4538,39 @@
       <c r="AC38" s="7"/>
       <c r="AD38" s="7"/>
       <c r="AE38" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AF38" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG38" s="10" t="n">
+        <v>60</v>
+      </c>
+      <c r="AG38" s="10">
         <v>0.04</v>
       </c>
       <c r="AH38" s="7"/>
       <c r="AI38" s="7"/>
       <c r="AJ38" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AK38" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="AL38" s="7" t="n">
+        <v>151</v>
+      </c>
+      <c r="AL38" s="7">
         <v>2</v>
       </c>
-      <c r="AM38" s="7" t="n">
+      <c r="AM38" s="7">
         <v>31</v>
       </c>
       <c r="AN38" s="7"/>
-      <c r="AO38" s="19" t="n">
+      <c r="AO38" s="19">
         <v>312</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="7" t="n">
+    <row r="39" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="7">
         <v>46</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>42</v>
@@ -4304,10 +4580,10 @@
       </c>
       <c r="E39" s="7"/>
       <c r="F39" s="8" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H39" s="8" t="s">
         <v>43</v>
@@ -4341,23 +4617,23 @@
       <c r="AI39" s="7"/>
       <c r="AJ39" s="7"/>
       <c r="AK39" s="7"/>
-      <c r="AL39" s="12" t="n">
+      <c r="AL39" s="12">
         <v>1</v>
       </c>
-      <c r="AM39" s="12" t="n">
+      <c r="AM39" s="12">
         <v>400</v>
       </c>
       <c r="AN39" s="13" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="AO39" s="7"/>
     </row>
-    <row r="40" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="7" t="n">
+    <row r="40" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="7">
         <v>48</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>42</v>
@@ -4366,13 +4642,13 @@
         <v>43</v>
       </c>
       <c r="E40" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G40" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="H40" s="7" t="s">
         <v>56</v>
@@ -4380,16 +4656,16 @@
       <c r="I40" s="7"/>
       <c r="J40" s="7"/>
       <c r="K40" s="7"/>
-      <c r="L40" s="7" t="n">
+      <c r="L40" s="7">
         <v>4</v>
       </c>
       <c r="M40" s="7"/>
       <c r="N40" s="7"/>
       <c r="O40" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P40" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="P40" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="Q40" s="7"/>
       <c r="R40" s="7"/>
@@ -4397,7 +4673,7 @@
         <v>57</v>
       </c>
       <c r="T40" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="U40" s="7"/>
       <c r="V40" s="7"/>
@@ -4405,42 +4681,42 @@
       <c r="X40" s="7"/>
       <c r="Y40" s="7"/>
       <c r="Z40" s="20" t="s">
-        <v>188</v>
+        <v>252</v>
       </c>
       <c r="AA40" s="7"/>
       <c r="AB40" s="7"/>
       <c r="AC40" s="7"/>
       <c r="AD40" s="7"/>
       <c r="AE40" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AF40" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG40" s="10" t="n">
+        <v>60</v>
+      </c>
+      <c r="AG40" s="10">
         <v>0.05</v>
       </c>
       <c r="AH40" s="7"/>
       <c r="AI40" s="7"/>
       <c r="AJ40" s="7"/>
       <c r="AK40" s="7"/>
-      <c r="AL40" s="7" t="n">
+      <c r="AL40" s="7">
         <v>2</v>
       </c>
-      <c r="AM40" s="7" t="n">
+      <c r="AM40" s="7">
         <v>33</v>
       </c>
       <c r="AN40" s="7"/>
-      <c r="AO40" s="7" t="n">
+      <c r="AO40" s="7">
         <v>400</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="7" t="n">
+    <row r="41" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="7">
         <v>49</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>42</v>
@@ -4449,21 +4725,21 @@
         <v>43</v>
       </c>
       <c r="E41" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="H41" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="H41" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="I41" s="7"/>
       <c r="J41" s="7"/>
       <c r="K41" s="7"/>
-      <c r="L41" s="7" t="n">
+      <c r="L41" s="7">
         <v>2</v>
       </c>
       <c r="M41" s="7"/>
@@ -4473,7 +4749,7 @@
       <c r="Q41" s="7"/>
       <c r="R41" s="7"/>
       <c r="S41" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="T41" s="7"/>
       <c r="U41" s="7"/>
@@ -4482,44 +4758,44 @@
       <c r="X41" s="7"/>
       <c r="Y41" s="7"/>
       <c r="Z41" s="18" t="s">
-        <v>194</v>
+        <v>251</v>
       </c>
       <c r="AA41" s="7"/>
       <c r="AB41" s="7"/>
       <c r="AC41" s="7"/>
       <c r="AD41" s="7"/>
       <c r="AE41" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AF41" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG41" s="10" t="n">
-        <v>0.28</v>
+        <v>60</v>
+      </c>
+      <c r="AG41" s="10">
+        <v>0.28000000000000003</v>
       </c>
       <c r="AH41" s="7"/>
       <c r="AI41" s="7"/>
       <c r="AJ41" s="7"/>
       <c r="AK41" s="7"/>
-      <c r="AL41" s="7" t="n">
+      <c r="AL41" s="7">
         <v>2</v>
       </c>
-      <c r="AM41" s="7" t="n">
+      <c r="AM41" s="7">
         <v>34</v>
       </c>
       <c r="AN41" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="AO41" s="7" t="n">
+        <v>191</v>
+      </c>
+      <c r="AO41" s="7">
         <v>400</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="7" t="n">
+    <row r="42" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="7">
         <v>50</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>42</v>
@@ -4528,13 +4804,13 @@
         <v>43</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="H42" s="7" t="s">
         <v>56</v>
@@ -4542,16 +4818,16 @@
       <c r="I42" s="7"/>
       <c r="J42" s="7"/>
       <c r="K42" s="7"/>
-      <c r="L42" s="7" t="n">
+      <c r="L42" s="7">
         <v>1</v>
       </c>
       <c r="M42" s="7"/>
       <c r="N42" s="7"/>
       <c r="O42" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="Q42" s="7"/>
       <c r="R42" s="7"/>
@@ -4567,40 +4843,40 @@
       <c r="X42" s="7"/>
       <c r="Y42" s="7"/>
       <c r="Z42" s="18" t="s">
-        <v>194</v>
+        <v>251</v>
       </c>
       <c r="AA42" s="7"/>
       <c r="AB42" s="7"/>
       <c r="AC42" s="7"/>
       <c r="AD42" s="7"/>
       <c r="AE42" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AF42" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AG42" s="10"/>
       <c r="AH42" s="7"/>
       <c r="AI42" s="7"/>
       <c r="AJ42" s="7"/>
       <c r="AK42" s="7"/>
-      <c r="AL42" s="7" t="n">
+      <c r="AL42" s="7">
         <v>3</v>
       </c>
-      <c r="AM42" s="7" t="n">
+      <c r="AM42" s="7">
         <v>35</v>
       </c>
       <c r="AN42" s="7"/>
-      <c r="AO42" s="7" t="n">
+      <c r="AO42" s="7">
         <v>34</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="7" t="n">
+    <row r="43" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="7">
         <v>51</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>42</v>
@@ -4609,13 +4885,13 @@
         <v>43</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="H43" s="7" t="s">
         <v>56</v>
@@ -4623,19 +4899,19 @@
       <c r="I43" s="7"/>
       <c r="J43" s="7"/>
       <c r="K43" s="7"/>
-      <c r="L43" s="7" t="n">
+      <c r="L43" s="7">
         <v>1</v>
       </c>
       <c r="M43" s="7"/>
       <c r="N43" s="7"/>
       <c r="O43" s="21" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="R43" s="7"/>
       <c r="S43" s="7" t="s">
@@ -4650,42 +4926,42 @@
       <c r="X43" s="7"/>
       <c r="Y43" s="7"/>
       <c r="Z43" s="18" t="s">
-        <v>194</v>
+        <v>251</v>
       </c>
       <c r="AA43" s="7"/>
       <c r="AB43" s="7"/>
       <c r="AC43" s="7"/>
       <c r="AD43" s="7"/>
       <c r="AE43" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AF43" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AG43" s="10"/>
       <c r="AH43" s="7"/>
       <c r="AI43" s="7"/>
       <c r="AJ43" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="AK43" s="7"/>
-      <c r="AL43" s="7" t="n">
+      <c r="AL43" s="7">
         <v>3</v>
       </c>
-      <c r="AM43" s="7" t="n">
+      <c r="AM43" s="7">
         <v>36</v>
       </c>
       <c r="AN43" s="7"/>
-      <c r="AO43" s="7" t="n">
+      <c r="AO43" s="7">
         <v>34</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="7" t="n">
+    <row r="44" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="7">
         <v>52</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>42</v>
@@ -4694,21 +4970,21 @@
         <v>43</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I44" s="7"/>
       <c r="J44" s="7"/>
       <c r="K44" s="7"/>
-      <c r="L44" s="7" t="n">
+      <c r="L44" s="7">
         <v>1</v>
       </c>
       <c r="M44" s="7"/>
@@ -4718,7 +4994,7 @@
       <c r="Q44" s="7"/>
       <c r="R44" s="12"/>
       <c r="S44" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="T44" s="7"/>
       <c r="U44" s="7"/>
@@ -4727,7 +5003,7 @@
       <c r="X44" s="7"/>
       <c r="Y44" s="7"/>
       <c r="Z44" s="18" t="s">
-        <v>194</v>
+        <v>251</v>
       </c>
       <c r="AA44" s="7"/>
       <c r="AB44" s="7"/>
@@ -4735,34 +5011,34 @@
       <c r="AD44" s="7"/>
       <c r="AE44" s="7"/>
       <c r="AF44" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG44" s="15" t="n">
-        <v>0.07</v>
+        <v>60</v>
+      </c>
+      <c r="AG44" s="15">
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AH44" s="7"/>
       <c r="AI44" s="7"/>
       <c r="AJ44" s="7"/>
       <c r="AK44" s="7"/>
-      <c r="AL44" s="7" t="n">
+      <c r="AL44" s="7">
         <v>2</v>
       </c>
-      <c r="AM44" s="7" t="n">
+      <c r="AM44" s="7">
         <v>680</v>
       </c>
-      <c r="AN44" s="13" t="n">
+      <c r="AN44" s="13">
         <v>769</v>
       </c>
-      <c r="AO44" s="19" t="n">
+      <c r="AO44" s="19">
         <v>400</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="7" t="n">
+    <row r="45" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="7">
         <v>56</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>42</v>
@@ -4771,21 +5047,21 @@
         <v>43</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="I45" s="7"/>
       <c r="J45" s="7"/>
       <c r="K45" s="7"/>
-      <c r="L45" s="7" t="n">
+      <c r="L45" s="7">
         <v>2</v>
       </c>
       <c r="M45" s="7"/>
@@ -4795,7 +5071,7 @@
       <c r="Q45" s="12"/>
       <c r="R45" s="7"/>
       <c r="S45" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="T45" s="7"/>
       <c r="U45" s="7"/>
@@ -4804,42 +5080,42 @@
       <c r="X45" s="7"/>
       <c r="Y45" s="7"/>
       <c r="Z45" s="18" t="s">
-        <v>194</v>
+        <v>251</v>
       </c>
       <c r="AA45" s="7"/>
       <c r="AB45" s="7"/>
       <c r="AC45" s="7"/>
       <c r="AD45" s="7"/>
       <c r="AE45" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AF45" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AG45" s="15"/>
       <c r="AH45" s="7"/>
       <c r="AI45" s="7"/>
       <c r="AJ45" s="7"/>
       <c r="AK45" s="7"/>
-      <c r="AL45" s="7" t="n">
+      <c r="AL45" s="7">
         <v>3</v>
       </c>
-      <c r="AM45" s="7" t="n">
+      <c r="AM45" s="7">
         <v>769</v>
       </c>
       <c r="AN45" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="AO45" s="7" t="n">
+        <v>208</v>
+      </c>
+      <c r="AO45" s="7">
         <v>680</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="7" t="n">
+    <row r="46" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="7">
         <v>57</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>42</v>
@@ -4848,13 +5124,13 @@
         <v>43</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="H46" s="7" t="s">
         <v>56</v>
@@ -4862,28 +5138,28 @@
       <c r="I46" s="7"/>
       <c r="J46" s="7"/>
       <c r="K46" s="7"/>
-      <c r="L46" s="7" t="n">
+      <c r="L46" s="7">
         <v>1</v>
       </c>
       <c r="M46" s="7"/>
       <c r="N46" s="7"/>
       <c r="O46" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="R46" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="S46" s="7" t="s">
         <v>57</v>
       </c>
       <c r="T46" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="U46" s="7"/>
       <c r="V46" s="7"/>
@@ -4891,40 +5167,40 @@
       <c r="X46" s="7"/>
       <c r="Y46" s="7"/>
       <c r="Z46" s="18" t="s">
-        <v>194</v>
+        <v>251</v>
       </c>
       <c r="AA46" s="7"/>
       <c r="AB46" s="7"/>
       <c r="AC46" s="7"/>
       <c r="AD46" s="7"/>
       <c r="AE46" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AF46" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AG46" s="15"/>
       <c r="AH46" s="7"/>
       <c r="AI46" s="7"/>
       <c r="AJ46" s="7"/>
       <c r="AK46" s="7"/>
-      <c r="AL46" s="7" t="n">
+      <c r="AL46" s="7">
         <v>4</v>
       </c>
-      <c r="AM46" s="7" t="n">
+      <c r="AM46" s="7">
         <v>770</v>
       </c>
       <c r="AN46" s="7"/>
-      <c r="AO46" s="7" t="n">
+      <c r="AO46" s="7">
         <v>769</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="7" t="n">
+    <row r="47" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="7">
         <v>58</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C47" s="7" t="s">
         <v>42</v>
@@ -4933,13 +5209,13 @@
         <v>43</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="H47" s="7" t="s">
         <v>56</v>
@@ -4947,19 +5223,19 @@
       <c r="I47" s="7"/>
       <c r="J47" s="7"/>
       <c r="K47" s="7"/>
-      <c r="L47" s="7" t="n">
+      <c r="L47" s="7">
         <v>1</v>
       </c>
       <c r="M47" s="7"/>
       <c r="N47" s="7"/>
       <c r="O47" s="21" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="R47" s="7"/>
       <c r="S47" s="7" t="s">
@@ -4974,65 +5250,65 @@
       <c r="X47" s="7"/>
       <c r="Y47" s="7"/>
       <c r="Z47" s="18" t="s">
-        <v>194</v>
+        <v>251</v>
       </c>
       <c r="AA47" s="7"/>
       <c r="AB47" s="7"/>
       <c r="AC47" s="7"/>
       <c r="AD47" s="7"/>
       <c r="AE47" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AF47" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AG47" s="15"/>
       <c r="AH47" s="7"/>
       <c r="AI47" s="7"/>
       <c r="AJ47" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="AK47" s="7"/>
-      <c r="AL47" s="7" t="n">
+      <c r="AL47" s="7">
         <v>4</v>
       </c>
-      <c r="AM47" s="7" t="n">
+      <c r="AM47" s="7">
         <v>771</v>
       </c>
       <c r="AN47" s="7"/>
-      <c r="AO47" s="7" t="n">
+      <c r="AO47" s="7">
         <v>769</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="7" t="n">
+    <row r="48" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="7">
         <v>59</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D48" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="E48" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="F48" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="G48" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="H48" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="E48" s="19" t="s">
-        <v>220</v>
-      </c>
-      <c r="F48" s="19" t="s">
-        <v>221</v>
-      </c>
-      <c r="G48" s="19" t="s">
-        <v>222</v>
-      </c>
-      <c r="H48" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="I48" s="7"/>
       <c r="J48" s="7"/>
       <c r="K48" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="L48" s="7"/>
       <c r="M48" s="7"/>
@@ -5043,7 +5319,7 @@
       <c r="R48" s="7"/>
       <c r="S48" s="7"/>
       <c r="T48" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="U48" s="7"/>
       <c r="V48" s="7"/>
@@ -5063,56 +5339,56 @@
       <c r="AJ48" s="7"/>
       <c r="AK48" s="7"/>
       <c r="AL48" s="7"/>
-      <c r="AM48" s="7" t="n">
+      <c r="AM48" s="7">
         <v>37</v>
       </c>
       <c r="AN48" s="13" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="AO48" s="7"/>
     </row>
-    <row r="49" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="7" t="n">
+    <row r="49" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="7">
         <v>60</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C49" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E49" s="19" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F49" s="19" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="G49" s="19" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="I49" s="7"/>
       <c r="J49" s="7"/>
       <c r="K49" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="L49" s="7"/>
       <c r="M49" s="7"/>
       <c r="N49" s="7"/>
       <c r="O49" s="7"/>
       <c r="P49" s="13" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="Q49" s="7"/>
       <c r="R49" s="7"/>
       <c r="S49" s="7"/>
       <c r="T49" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="U49" s="7"/>
       <c r="V49" s="7"/>
@@ -5132,56 +5408,56 @@
       <c r="AJ49" s="7"/>
       <c r="AK49" s="7"/>
       <c r="AL49" s="7"/>
-      <c r="AM49" s="7" t="n">
+      <c r="AM49" s="7">
         <v>38</v>
       </c>
-      <c r="AN49" s="7" t="n">
+      <c r="AN49" s="7">
         <v>32</v>
       </c>
       <c r="AO49" s="7"/>
     </row>
-    <row r="50" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="7" t="n">
+    <row r="50" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="7">
         <v>61</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C50" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E50" s="19" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F50" s="19" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="G50" s="19" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="I50" s="7"/>
       <c r="J50" s="7"/>
       <c r="K50" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="L50" s="7"/>
       <c r="M50" s="7"/>
       <c r="N50" s="7"/>
       <c r="O50" s="7"/>
       <c r="P50" s="13" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="Q50" s="7"/>
       <c r="R50" s="7"/>
       <c r="S50" s="7"/>
       <c r="T50" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="U50" s="7"/>
       <c r="V50" s="7"/>
@@ -5201,58 +5477,58 @@
       <c r="AJ50" s="7"/>
       <c r="AK50" s="7"/>
       <c r="AL50" s="7"/>
-      <c r="AM50" s="7" t="n">
+      <c r="AM50" s="7">
         <v>39</v>
       </c>
-      <c r="AN50" s="7" t="n">
+      <c r="AN50" s="7">
         <v>33</v>
       </c>
       <c r="AO50" s="7"/>
     </row>
-    <row r="51" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="7" t="n">
+    <row r="51" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="7">
         <v>62</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C51" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E51" s="19" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="F51" s="19" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="G51" s="19" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="I51" s="7"/>
       <c r="J51" s="7"/>
       <c r="K51" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="L51" s="7"/>
       <c r="M51" s="7"/>
       <c r="N51" s="7"/>
       <c r="O51" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="P51" s="13" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="Q51" s="7"/>
       <c r="R51" s="7"/>
       <c r="S51" s="7"/>
       <c r="T51" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="U51" s="7"/>
       <c r="V51" s="7"/>
@@ -5272,58 +5548,58 @@
       <c r="AJ51" s="7"/>
       <c r="AK51" s="7"/>
       <c r="AL51" s="7"/>
-      <c r="AM51" s="7" t="n">
+      <c r="AM51" s="7">
         <v>40</v>
       </c>
-      <c r="AN51" s="7" t="n">
+      <c r="AN51" s="7">
         <v>34</v>
       </c>
       <c r="AO51" s="7"/>
     </row>
-    <row r="52" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="7" t="n">
+    <row r="52" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="7">
         <v>63</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C52" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F52" s="19" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G52" s="19" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="I52" s="7"/>
       <c r="J52" s="7"/>
       <c r="K52" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="L52" s="7"/>
       <c r="M52" s="7"/>
       <c r="N52" s="7"/>
       <c r="O52" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="P52" s="13" t="s">
         <v>238</v>
-      </c>
-      <c r="P52" s="13" t="s">
-        <v>242</v>
       </c>
       <c r="Q52" s="7"/>
       <c r="R52" s="7"/>
       <c r="S52" s="7"/>
       <c r="T52" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="U52" s="7"/>
       <c r="V52" s="7"/>
@@ -5343,63 +5619,63 @@
       <c r="AJ52" s="7"/>
       <c r="AK52" s="7"/>
       <c r="AL52" s="7"/>
-      <c r="AM52" s="7" t="n">
+      <c r="AM52" s="7">
         <v>42</v>
       </c>
       <c r="AN52" s="13" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="AO52" s="7"/>
     </row>
-    <row r="53" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="7" t="n">
+    <row r="53" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="7">
         <v>64</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C53" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E53" s="19" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="F53" s="19" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="G53" s="19" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="I53" s="7"/>
       <c r="J53" s="7"/>
       <c r="K53" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="L53" s="9"/>
       <c r="M53" s="9"/>
       <c r="N53" s="9"/>
       <c r="O53" s="7"/>
       <c r="P53" s="22" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="Q53" s="7"/>
       <c r="R53" s="7"/>
       <c r="S53" s="7"/>
       <c r="T53" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="U53" s="7"/>
       <c r="V53" s="7"/>
       <c r="W53" s="7"/>
       <c r="X53" s="7"/>
       <c r="Y53" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Z53" s="13"/>
       <c r="AA53" s="7"/>
@@ -5414,39 +5690,39 @@
       <c r="AJ53" s="7"/>
       <c r="AK53" s="7"/>
       <c r="AL53" s="7"/>
-      <c r="AM53" s="7" t="n">
+      <c r="AM53" s="7">
         <v>43</v>
       </c>
       <c r="AN53" s="7"/>
       <c r="AO53" s="23"/>
     </row>
-    <row r="54" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="7" t="n">
+    <row r="54" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="7">
         <v>65</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C54" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E54" s="19"/>
       <c r="F54" s="19" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G54" s="19" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="H54" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="I54" s="7"/>
       <c r="J54" s="7"/>
       <c r="K54" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="L54" s="9"/>
       <c r="M54" s="9"/>
@@ -5457,7 +5733,7 @@
       <c r="R54" s="7"/>
       <c r="S54" s="7"/>
       <c r="T54" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="U54" s="7"/>
       <c r="V54" s="7"/>
@@ -5477,21 +5753,15 @@
       <c r="AJ54" s="7"/>
       <c r="AK54" s="25"/>
       <c r="AL54" s="7"/>
-      <c r="AM54" s="7" t="n">
+      <c r="AM54" s="7">
         <v>401</v>
       </c>
       <c r="AN54" s="7"/>
       <c r="AO54" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO54"/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <drawing r:id="rId1"/>
+  <autoFilter ref="A1:AO54" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC Cinema - REG.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC Cinema - REG.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My folder\RED\POS 2019\POS_2019-12-16\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My folder\RED\POS 2019\POS_2019-12-24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{506B50B4-4D0F-404B-B29B-63BF8C533F7C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3D4256F-B23B-4DCC-B8F2-8F204D34BD14}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="1200" windowWidth="21840" windowHeight="13140" tabRatio="760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cinema" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">Cinema!$A$1:$AO$54</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="0">Cinema!$A$1:$AO$54</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -840,10 +840,10 @@
     <t>Panoramic photo of Cooler; SS_Panoramic photo of Cooler - Horeca</t>
   </si>
   <si>
-    <t>Menu Board; Cash Zone; SS_Cash Zone - Canteen, QSR; SS_Menu Board - Canteen, QSR</t>
-  </si>
-  <si>
     <t>Cash Zone; SS_Cash Zone - Canteen, QSR; Promo SSD Display IC</t>
+  </si>
+  <si>
+    <t>Conbo1; Combo2; Combo3; Menu Board; Cash Zone; SS_Cash Zone - Canteen, QSR; SS_Menu Board - Canteen, QSR</t>
   </si>
 </sst>
 </file>
@@ -1452,10 +1452,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK54"/>
   <sheetViews>
-    <sheetView windowProtection="1" tabSelected="1" topLeftCell="P1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView windowProtection="1" tabSelected="1" topLeftCell="R1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="P1" sqref="P1"/>
-      <selection pane="bottomLeft" activeCell="Z41" sqref="Z41"/>
+      <selection pane="bottomLeft" activeCell="Z41" sqref="Z41:Z47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4681,7 +4681,7 @@
       <c r="X40" s="7"/>
       <c r="Y40" s="7"/>
       <c r="Z40" s="20" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AA40" s="7"/>
       <c r="AB40" s="7"/>
@@ -4758,7 +4758,7 @@
       <c r="X41" s="7"/>
       <c r="Y41" s="7"/>
       <c r="Z41" s="18" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AA41" s="7"/>
       <c r="AB41" s="7"/>
@@ -4843,7 +4843,7 @@
       <c r="X42" s="7"/>
       <c r="Y42" s="7"/>
       <c r="Z42" s="18" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AA42" s="7"/>
       <c r="AB42" s="7"/>
@@ -4926,7 +4926,7 @@
       <c r="X43" s="7"/>
       <c r="Y43" s="7"/>
       <c r="Z43" s="18" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AA43" s="7"/>
       <c r="AB43" s="7"/>
@@ -5003,7 +5003,7 @@
       <c r="X44" s="7"/>
       <c r="Y44" s="7"/>
       <c r="Z44" s="18" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AA44" s="7"/>
       <c r="AB44" s="7"/>
@@ -5080,7 +5080,7 @@
       <c r="X45" s="7"/>
       <c r="Y45" s="7"/>
       <c r="Z45" s="18" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AA45" s="7"/>
       <c r="AB45" s="7"/>
@@ -5167,7 +5167,7 @@
       <c r="X46" s="7"/>
       <c r="Y46" s="7"/>
       <c r="Z46" s="18" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AA46" s="7"/>
       <c r="AB46" s="7"/>
@@ -5250,7 +5250,7 @@
       <c r="X47" s="7"/>
       <c r="Y47" s="7"/>
       <c r="Z47" s="18" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AA47" s="7"/>
       <c r="AB47" s="7"/>
